--- a/static/appuser/appuser.xlsx
+++ b/static/appuser/appuser.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>编号</t>
   </si>
@@ -56,6 +56,39 @@
   </si>
   <si>
     <t>1DAE8A8DC652410F8E594F40C097C729</t>
+  </si>
+  <si>
+    <t>5327d913f19c546917000001</t>
+  </si>
+  <si>
+    <t>5327f73fab46e64f27000002</t>
+  </si>
+  <si>
+    <t>532ffdb4eecbfeb103000001</t>
+  </si>
+  <si>
+    <t>533119948d27472d4b000001</t>
+  </si>
+  <si>
+    <t>533119fd8d27472d4b000003</t>
+  </si>
+  <si>
+    <t>53311aeb8d27472d4b000004</t>
+  </si>
+  <si>
+    <t>53311b628d27472d4b000005</t>
+  </si>
+  <si>
+    <t>53311be88d27472d4b000006</t>
+  </si>
+  <si>
+    <t>53439078ff30506b18000002</t>
+  </si>
+  <si>
+    <t>0F3A5E239277FD9B24B6DB5A0F5B1936</t>
+  </si>
+  <si>
+    <t>534ccf5336590457ac43218a</t>
   </si>
   <si>
     <t>5327c2c25afbdc7e14000001</t>
@@ -423,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -465,8 +498,8 @@
       <c r="C2" s="9">
         <v>11111111111</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>9</v>
+      <c r="D2" s="9">
+        <v/>
       </c>
       <c r="E2" s="9" t="s">
         <v>10</v>
@@ -517,7 +550,7 @@
       <c r="G4" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="9" t="b">
+      <c r="H4" s="9">
         <v>0</v>
       </c>
     </row>
@@ -526,18 +559,18 @@
         <v>14</v>
       </c>
       <c r="B5" s="9">
-        <v>3922893704</v>
-      </c>
-      <c r="C5" s="9"/>
+        <v>13800138000</v>
+      </c>
+      <c r="C5" s="9">
+        <v>13800138000</v>
+      </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="9">
-        <v>3922893704</v>
-      </c>
+      <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="9" t="b">
+      <c r="H5" s="9">
         <v>0</v>
       </c>
     </row>
@@ -545,20 +578,24 @@
       <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9">
-        <v>12345678901</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9">
-        <v>12345678901</v>
-      </c>
-      <c r="F6" s="9"/>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G6" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="9" t="b">
-        <v>0</v>
+      <c r="H6" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
@@ -566,18 +603,18 @@
         <v>16</v>
       </c>
       <c r="B7" s="9">
-        <v>111111</v>
-      </c>
-      <c r="C7" s="9"/>
+        <v>15138722728</v>
+      </c>
+      <c r="C7" s="9">
+        <v>15138722728</v>
+      </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="9">
-        <v>111111</v>
-      </c>
+      <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="9" t="b">
+      <c r="H7" s="9">
         <v>0</v>
       </c>
     </row>
@@ -586,18 +623,212 @@
         <v>17</v>
       </c>
       <c r="B8" s="9">
-        <v>11111111</v>
-      </c>
-      <c r="C8" s="9"/>
+        <v>22222222222</v>
+      </c>
+      <c r="C8" s="9">
+        <v>22222222222</v>
+      </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="9">
-        <v>11111111</v>
-      </c>
+      <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H8" s="9" t="b">
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="9">
+        <v>33333333333</v>
+      </c>
+      <c r="C9" s="9">
+        <v>33333333333</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="9">
+        <v>44444444444</v>
+      </c>
+      <c r="C10" s="9">
+        <v>44444444444</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="9">
+        <v>55555555555</v>
+      </c>
+      <c r="C11" s="9">
+        <v>55555555555</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="9">
+        <v>66666666666</v>
+      </c>
+      <c r="C12" s="9">
+        <v>66666666666</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="9">
+        <v>3922893704</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9">
+        <v>3922893704</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="9">
+        <v>12345678901</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
+        <v>12345678901</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="9">
+        <v>111111</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9">
+        <v>111111</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="9">
+        <v>11111111</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9">
+        <v>11111111</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
         <v>0</v>
       </c>
     </row>

--- a/static/appuser/appuser.xlsx
+++ b/static/appuser/appuser.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>编号</t>
   </si>
@@ -40,67 +40,127 @@
     <t>是否为员工(0表示非员工)</t>
   </si>
   <si>
-    <t>53227aabe1e1bac216000001</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>qweruiop</t>
-  </si>
-  <si>
-    <t>5327b76fc0e9d3cf13000001</t>
-  </si>
-  <si>
-    <t>5327c29a6b5ebb7a14000001</t>
-  </si>
-  <si>
-    <t>1DAE8A8DC652410F8E594F40C097C729</t>
-  </si>
-  <si>
-    <t>5327d913f19c546917000001</t>
-  </si>
-  <si>
-    <t>5327f73fab46e64f27000002</t>
-  </si>
-  <si>
-    <t>532ffdb4eecbfeb103000001</t>
-  </si>
-  <si>
-    <t>533119948d27472d4b000001</t>
-  </si>
-  <si>
-    <t>533119fd8d27472d4b000003</t>
-  </si>
-  <si>
-    <t>53311aeb8d27472d4b000004</t>
-  </si>
-  <si>
-    <t>53311b628d27472d4b000005</t>
-  </si>
-  <si>
-    <t>53311be88d27472d4b000006</t>
-  </si>
-  <si>
-    <t>53439078ff30506b18000002</t>
+    <t>5369c1918bad5c9f1c9a817f</t>
+  </si>
+  <si>
+    <t>5369c2378bad5c9f1c9a8180</t>
+  </si>
+  <si>
+    <t>5369c2b78bad5c9f1c9a8181</t>
+  </si>
+  <si>
+    <t>5369c55ac34bea8c320a0e3d</t>
+  </si>
+  <si>
+    <t>5369c67dc23b5f9d32af8258</t>
+  </si>
+  <si>
+    <t>5369c841141d075634b961ef</t>
   </si>
   <si>
     <t>0F3A5E239277FD9B24B6DB5A0F5B1936</t>
   </si>
   <si>
-    <t>534ccf5336590457ac43218a</t>
-  </si>
-  <si>
-    <t>5327c2c25afbdc7e14000001</t>
-  </si>
-  <si>
-    <t>5327c2f4dde9578314000001</t>
-  </si>
-  <si>
-    <t>5327c4dfa1960ccb14000001</t>
-  </si>
-  <si>
-    <t>5327c51862c8d0d214000001</t>
+    <t>5369c97d7943bc673468dcc8</t>
+  </si>
+  <si>
+    <t>5369c9c57943bc673468dcc9</t>
+  </si>
+  <si>
+    <t>5369ca887943bc673468dcca</t>
+  </si>
+  <si>
+    <t>5369cb167943bc673468dccb</t>
+  </si>
+  <si>
+    <t>5369cc497943bc673468dccc</t>
+  </si>
+  <si>
+    <t>5369d31a1871bb0a35a4a420</t>
+  </si>
+  <si>
+    <t>5369db961871bb0a35a4a421</t>
+  </si>
+  <si>
+    <t>i@liuwei.co</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>536ae82a228182ab0e838877</t>
+  </si>
+  <si>
+    <t>夕羊</t>
+  </si>
+  <si>
+    <t>8F2E58B9C56E04A731FA05A1549AE50C</t>
+  </si>
+  <si>
+    <t>5368b1cd5a38eb6e1881a31c</t>
+  </si>
+  <si>
+    <t>53707295017c969847efe3e7</t>
+  </si>
+  <si>
+    <t>liuweisays</t>
+  </si>
+  <si>
+    <t>2.00DN_BqDoJ6_xC6cffefff270br5RP</t>
+  </si>
+  <si>
+    <t>53708c075a8f566756f20a17</t>
+  </si>
+  <si>
+    <t>至爱吾女</t>
+  </si>
+  <si>
+    <t>58B027C651FB73879FF9FF6A50E752AA</t>
+  </si>
+  <si>
+    <t>53708d21498e3dd3397f89a6</t>
+  </si>
+  <si>
+    <t>53708d22498e3dd3397f89a7</t>
+  </si>
+  <si>
+    <t>53708d23498e3dd3397f89a8</t>
+  </si>
+  <si>
+    <t>53709a8767ce02ad59e454c9</t>
+  </si>
+  <si>
+    <t>刘伟</t>
+  </si>
+  <si>
+    <t>4d503ee612a3c487c897811723d68582</t>
+  </si>
+  <si>
+    <t>5369ee80cdd871573ffde038</t>
+  </si>
+  <si>
+    <t>537195051c09bc1f0a5f543e</t>
+  </si>
+  <si>
+    <t>q@1.com</t>
+  </si>
+  <si>
+    <t>53707fe9c00818ad53fc1dd2</t>
+  </si>
+  <si>
+    <t>杰儿泪</t>
+  </si>
+  <si>
+    <t>0B64B8DCA20F40C3ED7779DB983E0BFE</t>
+  </si>
+  <si>
+    <t>53721e9c862b89aa291477ee</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>5372d30977ee0e5c393c380f</t>
   </si>
 </sst>
 </file>
@@ -456,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -492,20 +552,16 @@
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>9</v>
+      <c r="B2" s="9">
+        <v>15221050489</v>
       </c>
       <c r="C2" s="9">
-        <v>11111111111</v>
-      </c>
-      <c r="D2" s="9">
-        <v/>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>9</v>
+        <v>15221050489</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9">
+        <v/>
       </c>
       <c r="G2" s="9" t="b">
         <v>0</v>
@@ -516,17 +572,19 @@
     </row>
     <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="9">
-        <v>12345678901</v>
+        <v>13800138000</v>
       </c>
       <c r="C3" s="9">
-        <v>12345678901</v>
+        <v>13800138000</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="F3" s="9">
+        <v/>
+      </c>
       <c r="G3" s="9" t="b">
         <v>0</v>
       </c>
@@ -536,17 +594,19 @@
     </row>
     <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="B4" s="9">
+        <v>13800138001</v>
+      </c>
+      <c r="C4" s="9">
+        <v>13800138001</v>
+      </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9">
+        <v/>
+      </c>
       <c r="G4" s="9" t="b">
         <v>0</v>
       </c>
@@ -556,17 +616,19 @@
     </row>
     <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="9">
-        <v>13800138000</v>
+        <v>12345678903</v>
       </c>
       <c r="C5" s="9">
-        <v>13800138000</v>
+        <v>12345678903</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="F5" s="9">
+        <v/>
+      </c>
       <c r="G5" s="9" t="b">
         <v>0</v>
       </c>
@@ -576,41 +638,41 @@
     </row>
     <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>9</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B6" s="9">
+        <v>12345678904</v>
+      </c>
+      <c r="C6" s="9">
+        <v>12345678904</v>
+      </c>
+      <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
-        <v>9</v>
+      <c r="F6" s="9">
+        <v/>
       </c>
       <c r="G6" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="9">
-        <v>15138722728</v>
-      </c>
-      <c r="C7" s="9">
-        <v>15138722728</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="9">
+        <v/>
+      </c>
       <c r="G7" s="9" t="b">
         <v>0</v>
       </c>
@@ -620,17 +682,19 @@
     </row>
     <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="9">
-        <v>22222222222</v>
+        <v>13800138110</v>
       </c>
       <c r="C8" s="9">
-        <v>22222222222</v>
+        <v>13800138110</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="F8" s="9">
+        <v/>
+      </c>
       <c r="G8" s="9" t="b">
         <v>0</v>
       </c>
@@ -640,17 +704,19 @@
     </row>
     <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="9">
-        <v>33333333333</v>
+        <v>13800138112</v>
       </c>
       <c r="C9" s="9">
-        <v>33333333333</v>
+        <v>13800138112</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="F9" s="9">
+        <v/>
+      </c>
       <c r="G9" s="9" t="b">
         <v>0</v>
       </c>
@@ -660,17 +726,19 @@
     </row>
     <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="9">
-        <v>44444444444</v>
+        <v>13800138114</v>
       </c>
       <c r="C10" s="9">
-        <v>44444444444</v>
+        <v>13800138114</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="F10" s="9">
+        <v/>
+      </c>
       <c r="G10" s="9" t="b">
         <v>0</v>
       </c>
@@ -680,17 +748,19 @@
     </row>
     <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="9">
-        <v>55555555555</v>
+        <v>13800138115</v>
       </c>
       <c r="C11" s="9">
-        <v>55555555555</v>
+        <v>13800138115</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="F11" s="9">
+        <v/>
+      </c>
       <c r="G11" s="9" t="b">
         <v>0</v>
       </c>
@@ -700,17 +770,19 @@
     </row>
     <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="9">
-        <v>66666666666</v>
+        <v>13800138116</v>
       </c>
       <c r="C12" s="9">
-        <v>66666666666</v>
+        <v>13800138116</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="F12" s="9">
+        <v/>
+      </c>
       <c r="G12" s="9" t="b">
         <v>0</v>
       </c>
@@ -720,17 +792,19 @@
     </row>
     <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="B13" s="9">
+        <v>13800138119</v>
+      </c>
+      <c r="C13" s="9">
+        <v>13800138119</v>
+      </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9">
+        <v/>
+      </c>
       <c r="G13" s="9" t="b">
         <v>0</v>
       </c>
@@ -740,51 +814,69 @@
     </row>
     <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="H14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="9">
-        <v>3922893704</v>
-      </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="9">
+        <v>98765432101</v>
+      </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="9">
-        <v>3922893704</v>
-      </c>
-      <c r="F15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="G15" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H15" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="9">
-        <v>12345678901</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+        <v>3922893704</v>
+      </c>
+      <c r="C16" s="9">
+        <v>98765432100</v>
+      </c>
+      <c r="D16" s="9">
+        <v/>
+      </c>
       <c r="E16" s="9">
-        <v>12345678901</v>
-      </c>
-      <c r="F16" s="9"/>
+        <v>3922893704</v>
+      </c>
+      <c r="F16" s="9">
+        <v/>
+      </c>
       <c r="G16" s="9" t="b">
         <v>0</v>
       </c>
@@ -794,17 +886,19 @@
     </row>
     <row r="17" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="9">
-        <v>111111</v>
+        <v>28</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="9">
-        <v>111111</v>
-      </c>
-      <c r="F17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="9">
+        <v/>
+      </c>
       <c r="G17" s="9" t="b">
         <v>0</v>
       </c>
@@ -814,21 +908,193 @@
     </row>
     <row r="18" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="9">
-        <v>11111111</v>
+        <v>31</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="9">
-        <v>11111111</v>
-      </c>
-      <c r="F18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="9">
+        <v/>
+      </c>
       <c r="G18" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="9">
+        <v/>
+      </c>
+      <c r="G22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="9">
+        <v>15138722728</v>
+      </c>
+      <c r="C23" s="9">
+        <v>15138722728</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9">
+        <v/>
+      </c>
+      <c r="G24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="9">
+        <v>12345678901</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="9">
+        <v/>
+      </c>
+      <c r="G25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="9">
+        <v>13764543611</v>
+      </c>
+      <c r="C26" s="9">
+        <v>13764543611</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="9">
+        <v>13801843502</v>
+      </c>
+      <c r="C27" s="9">
+        <v>13801843502</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9">
+        <v/>
+      </c>
+      <c r="G27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9">
         <v>0</v>
       </c>
     </row>

--- a/static/appuser/appuser.xlsx
+++ b/static/appuser/appuser.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
   <si>
     <t>编号</t>
   </si>
@@ -161,6 +161,78 @@
   </si>
   <si>
     <t>5372d30977ee0e5c393c380f</t>
+  </si>
+  <si>
+    <t>537394dead756d6a6e4444aa</t>
+  </si>
+  <si>
+    <t>5373972cad756d6a6e4444ac</t>
+  </si>
+  <si>
+    <t>53739779ad756d6a6e4444ad</t>
+  </si>
+  <si>
+    <t>5373985dad756d6a6e4444ae</t>
+  </si>
+  <si>
+    <t>53739a02ad756d6a6e4444af</t>
+  </si>
+  <si>
+    <t>53739aa5ad756d6a6e4444b0</t>
+  </si>
+  <si>
+    <t>53739ac8ad756d6a6e4444b1</t>
+  </si>
+  <si>
+    <t>1@1.com</t>
+  </si>
+  <si>
+    <t>537420d4ad756d6a6e4444b2</t>
+  </si>
+  <si>
+    <t>53742105ad756d6a6e4444b3</t>
+  </si>
+  <si>
+    <t>537421881f802dce7b94c8f2</t>
+  </si>
+  <si>
+    <t>53742493662918ba7ca30a73</t>
+  </si>
+  <si>
+    <t>5374253aaf168a197d3d54d7</t>
+  </si>
+  <si>
+    <t>537425702585f7b97e668260</t>
+  </si>
+  <si>
+    <t>53742a5dc55ebe9406011d74</t>
+  </si>
+  <si>
+    <t>53742a79c55ebe9406011d75</t>
+  </si>
+  <si>
+    <t>53742aa3c55ebe9406011d76</t>
+  </si>
+  <si>
+    <t>53742d12c55ebe9406011d77</t>
+  </si>
+  <si>
+    <t>53742d47c55ebe9406011d79</t>
+  </si>
+  <si>
+    <t>53742d71c55ebe9406011d7a</t>
+  </si>
+  <si>
+    <t>5374318930e7cfda0ea41ba1</t>
+  </si>
+  <si>
+    <t>537431d730e7cfda0ea41ba2</t>
+  </si>
+  <si>
+    <t>537431fb30e7cfda0ea41ba3</t>
+  </si>
+  <si>
+    <t>537433c230e7cfda0ea41ba4</t>
   </si>
 </sst>
 </file>
@@ -516,7 +588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1098,6 +1170,512 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="9">
+        <v>13800138888</v>
+      </c>
+      <c r="C28" s="9">
+        <v>13800138888</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9">
+        <v/>
+      </c>
+      <c r="G28" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="9">
+        <v>15221050481</v>
+      </c>
+      <c r="C29" s="9">
+        <v>15221050481</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9">
+        <v/>
+      </c>
+      <c r="G29" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="9">
+        <v>15221050482</v>
+      </c>
+      <c r="C30" s="9">
+        <v>15221050482</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9">
+        <v/>
+      </c>
+      <c r="G30" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="9">
+        <v>13800138010</v>
+      </c>
+      <c r="C31" s="9">
+        <v>13800138010</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9">
+        <v/>
+      </c>
+      <c r="G31" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="9">
+        <v>15221040511</v>
+      </c>
+      <c r="C32" s="9">
+        <v>15221040511</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9">
+        <v/>
+      </c>
+      <c r="G32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="9">
+        <v>15221050423</v>
+      </c>
+      <c r="C33" s="9">
+        <v>15221050423</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9">
+        <v/>
+      </c>
+      <c r="G33" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9">
+        <v/>
+      </c>
+      <c r="G34" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="9">
+        <v>15221050485</v>
+      </c>
+      <c r="C35" s="9">
+        <v>15221050485</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9">
+        <v/>
+      </c>
+      <c r="G35" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="9">
+        <v>13800138123</v>
+      </c>
+      <c r="C36" s="9">
+        <v>13800138123</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9">
+        <v/>
+      </c>
+      <c r="G36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="9">
+        <v>15221050422</v>
+      </c>
+      <c r="C37" s="9">
+        <v>15221050422</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9">
+        <v/>
+      </c>
+      <c r="G37" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="9">
+        <v>15221010111</v>
+      </c>
+      <c r="C38" s="9">
+        <v>15221010111</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9">
+        <v/>
+      </c>
+      <c r="G38" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="9">
+        <v>13800138113</v>
+      </c>
+      <c r="C39" s="9">
+        <v>13800138113</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9">
+        <v/>
+      </c>
+      <c r="G39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="9">
+        <v>13800138999</v>
+      </c>
+      <c r="C40" s="9">
+        <v>13800138999</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9">
+        <v/>
+      </c>
+      <c r="G40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="9">
+        <v>13800000777</v>
+      </c>
+      <c r="C41" s="9">
+        <v>13800000777</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9">
+        <v/>
+      </c>
+      <c r="G41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="9">
+        <v>13800137000</v>
+      </c>
+      <c r="C42" s="9">
+        <v>13800137000</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9">
+        <v/>
+      </c>
+      <c r="G42" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="9">
+        <v>13600138000</v>
+      </c>
+      <c r="C43" s="9">
+        <v>13600138000</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9">
+        <v/>
+      </c>
+      <c r="G43" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="9">
+        <v>13800138234</v>
+      </c>
+      <c r="C44" s="9">
+        <v>13800138234</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9">
+        <v/>
+      </c>
+      <c r="G44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="9">
+        <v>13899138000</v>
+      </c>
+      <c r="C45" s="9">
+        <v>13899138000</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9">
+        <v/>
+      </c>
+      <c r="G45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="9">
+        <v>15221050311</v>
+      </c>
+      <c r="C46" s="9">
+        <v>15221050311</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9">
+        <v/>
+      </c>
+      <c r="G46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="9">
+        <v>13800138016</v>
+      </c>
+      <c r="C47" s="9">
+        <v>13800138016</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9">
+        <v/>
+      </c>
+      <c r="G47" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="9">
+        <v>13800000002</v>
+      </c>
+      <c r="C48" s="9">
+        <v>13800000002</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9">
+        <v/>
+      </c>
+      <c r="G48" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="9">
+        <v>13000137000</v>
+      </c>
+      <c r="C49" s="9">
+        <v>13000137000</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9">
+        <v/>
+      </c>
+      <c r="G49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="9">
+        <v>13899138777</v>
+      </c>
+      <c r="C50" s="9">
+        <v>13899138777</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9">
+        <v/>
+      </c>
+      <c r="G50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100"/>

--- a/static/appuser/appuser.xlsx
+++ b/static/appuser/appuser.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="123">
   <si>
     <t>编号</t>
   </si>
@@ -109,6 +109,144 @@
     <t>2.00DN_BqDoJ6_xC6cffefff270br5RP</t>
   </si>
   <si>
+    <t>53709a8767ce02ad59e454c9</t>
+  </si>
+  <si>
+    <t>刘伟</t>
+  </si>
+  <si>
+    <t>4d503ee612a3c487c897811723d68582</t>
+  </si>
+  <si>
+    <t>5369ee80cdd871573ffde038</t>
+  </si>
+  <si>
+    <t>537195051c09bc1f0a5f543e</t>
+  </si>
+  <si>
+    <t>q@1.com</t>
+  </si>
+  <si>
+    <t>53721e9c862b89aa291477ee</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>5372d30977ee0e5c393c380f</t>
+  </si>
+  <si>
+    <t>5375d7c80f4f4b5d3a777810</t>
+  </si>
+  <si>
+    <t>Mr.Rock</t>
+  </si>
+  <si>
+    <t>43A9AF3E9C91F28420B24950F9F5BDF1</t>
+  </si>
+  <si>
+    <t>538ddb83b44702831502037a</t>
+  </si>
+  <si>
+    <t>Fiona</t>
+  </si>
+  <si>
+    <t>ECC213F4BF0DC874E9F9301839231F83</t>
+  </si>
+  <si>
+    <t>5391b8fce5d0c21b47a077f1</t>
+  </si>
+  <si>
+    <t>‭</t>
+  </si>
+  <si>
+    <t>2091B48BEF32ABD1BCF4A5CAF588498C</t>
+  </si>
+  <si>
+    <t>537394dead756d6a6e4444aa</t>
+  </si>
+  <si>
+    <t>5373972cad756d6a6e4444ac</t>
+  </si>
+  <si>
+    <t>53739779ad756d6a6e4444ad</t>
+  </si>
+  <si>
+    <t>5373985dad756d6a6e4444ae</t>
+  </si>
+  <si>
+    <t>53739a02ad756d6a6e4444af</t>
+  </si>
+  <si>
+    <t>53739aa5ad756d6a6e4444b0</t>
+  </si>
+  <si>
+    <t>53739ac8ad756d6a6e4444b1</t>
+  </si>
+  <si>
+    <t>1@1.com</t>
+  </si>
+  <si>
+    <t>537420d4ad756d6a6e4444b2</t>
+  </si>
+  <si>
+    <t>53742105ad756d6a6e4444b3</t>
+  </si>
+  <si>
+    <t>537421881f802dce7b94c8f2</t>
+  </si>
+  <si>
+    <t>53742493662918ba7ca30a73</t>
+  </si>
+  <si>
+    <t>5374253aaf168a197d3d54d7</t>
+  </si>
+  <si>
+    <t>537425702585f7b97e668260</t>
+  </si>
+  <si>
+    <t>53742a5dc55ebe9406011d74</t>
+  </si>
+  <si>
+    <t>53742a79c55ebe9406011d75</t>
+  </si>
+  <si>
+    <t>53742aa3c55ebe9406011d76</t>
+  </si>
+  <si>
+    <t>53742d12c55ebe9406011d77</t>
+  </si>
+  <si>
+    <t>53742d47c55ebe9406011d79</t>
+  </si>
+  <si>
+    <t>53742d71c55ebe9406011d7a</t>
+  </si>
+  <si>
+    <t>5374318930e7cfda0ea41ba1</t>
+  </si>
+  <si>
+    <t>537431d730e7cfda0ea41ba2</t>
+  </si>
+  <si>
+    <t>537431fb30e7cfda0ea41ba3</t>
+  </si>
+  <si>
+    <t>537433c230e7cfda0ea41ba4</t>
+  </si>
+  <si>
+    <t>5375bda311083157399b6630</t>
+  </si>
+  <si>
+    <t>5376f60fc31fda8941248c65</t>
+  </si>
+  <si>
+    <t>十月左巴</t>
+  </si>
+  <si>
+    <t>DB161AF852CA0940709DB3B7126E1064</t>
+  </si>
+  <si>
     <t>53708c075a8f566756f20a17</t>
   </si>
   <si>
@@ -118,31 +256,79 @@
     <t>58B027C651FB73879FF9FF6A50E752AA</t>
   </si>
   <si>
-    <t>53708d21498e3dd3397f89a6</t>
-  </si>
-  <si>
-    <t>53708d22498e3dd3397f89a7</t>
-  </si>
-  <si>
-    <t>53708d23498e3dd3397f89a8</t>
-  </si>
-  <si>
-    <t>53709a8767ce02ad59e454c9</t>
-  </si>
-  <si>
-    <t>刘伟</t>
-  </si>
-  <si>
-    <t>4d503ee612a3c487c897811723d68582</t>
-  </si>
-  <si>
-    <t>5369ee80cdd871573ffde038</t>
-  </si>
-  <si>
-    <t>537195051c09bc1f0a5f543e</t>
-  </si>
-  <si>
-    <t>q@1.com</t>
+    <t>538df93bb44702831502037b</t>
+  </si>
+  <si>
+    <t>kulapika8@163.com</t>
+  </si>
+  <si>
+    <t>538dfa7bb44702831502037c</t>
+  </si>
+  <si>
+    <t>538e88c2b44702831502037d</t>
+  </si>
+  <si>
+    <t>538edf971b597974238e9652</t>
+  </si>
+  <si>
+    <t>巴拉巴拉</t>
+  </si>
+  <si>
+    <t>EEAC5AB1A1615F7B995994F059B91E2D</t>
+  </si>
+  <si>
+    <t>5390167815a0aef4244671f7</t>
+  </si>
+  <si>
+    <t>evexia@qq.com</t>
+  </si>
+  <si>
+    <t>5390188815a0aef4244671f8</t>
+  </si>
+  <si>
+    <t>539018be15a0aef4244671f9</t>
+  </si>
+  <si>
+    <t>5390196315a0aef4244671fa</t>
+  </si>
+  <si>
+    <t>53901a0c15a0aef4244671fb</t>
+  </si>
+  <si>
+    <t>5390273e15a0aef4244671fe</t>
+  </si>
+  <si>
+    <t>426DA872AC937B5D6F5523F6838A857C</t>
+  </si>
+  <si>
+    <t>5390278715a0aef4244671ff</t>
+  </si>
+  <si>
+    <t>夕羊小童鞋</t>
+  </si>
+  <si>
+    <t>2.00GrDUREoJ6_xCf309967476jJ8KXC</t>
+  </si>
+  <si>
+    <t>5390370615a0aef424467200</t>
+  </si>
+  <si>
+    <t>断弦的流章</t>
+  </si>
+  <si>
+    <t>0A7714FF7B0C932F18E16EBD50985712</t>
+  </si>
+  <si>
+    <t>5390210a15a0aef4244671fd</t>
+  </si>
+  <si>
+    <t>EVE</t>
+  </si>
+  <si>
+    <t>eve@sina.com</t>
+  </si>
+  <si>
+    <t>C2F46CCA797756602EC6756C5B2AD365</t>
   </si>
   <si>
     <t>53707fe9c00818ad53fc1dd2</t>
@@ -154,85 +340,49 @@
     <t>0B64B8DCA20F40C3ED7779DB983E0BFE</t>
   </si>
   <si>
-    <t>53721e9c862b89aa291477ee</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>5372d30977ee0e5c393c380f</t>
-  </si>
-  <si>
-    <t>537394dead756d6a6e4444aa</t>
-  </si>
-  <si>
-    <t>5373972cad756d6a6e4444ac</t>
-  </si>
-  <si>
-    <t>53739779ad756d6a6e4444ad</t>
-  </si>
-  <si>
-    <t>5373985dad756d6a6e4444ae</t>
-  </si>
-  <si>
-    <t>53739a02ad756d6a6e4444af</t>
-  </si>
-  <si>
-    <t>53739aa5ad756d6a6e4444b0</t>
-  </si>
-  <si>
-    <t>53739ac8ad756d6a6e4444b1</t>
-  </si>
-  <si>
-    <t>1@1.com</t>
-  </si>
-  <si>
-    <t>537420d4ad756d6a6e4444b2</t>
-  </si>
-  <si>
-    <t>53742105ad756d6a6e4444b3</t>
-  </si>
-  <si>
-    <t>537421881f802dce7b94c8f2</t>
-  </si>
-  <si>
-    <t>53742493662918ba7ca30a73</t>
-  </si>
-  <si>
-    <t>5374253aaf168a197d3d54d7</t>
-  </si>
-  <si>
-    <t>537425702585f7b97e668260</t>
-  </si>
-  <si>
-    <t>53742a5dc55ebe9406011d74</t>
-  </si>
-  <si>
-    <t>53742a79c55ebe9406011d75</t>
-  </si>
-  <si>
-    <t>53742aa3c55ebe9406011d76</t>
-  </si>
-  <si>
-    <t>53742d12c55ebe9406011d77</t>
-  </si>
-  <si>
-    <t>53742d47c55ebe9406011d79</t>
-  </si>
-  <si>
-    <t>53742d71c55ebe9406011d7a</t>
-  </si>
-  <si>
-    <t>5374318930e7cfda0ea41ba1</t>
-  </si>
-  <si>
-    <t>537431d730e7cfda0ea41ba2</t>
-  </si>
-  <si>
-    <t>537431fb30e7cfda0ea41ba3</t>
-  </si>
-  <si>
-    <t>537433c230e7cfda0ea41ba4</t>
+    <t>53917225bcc04c0c43ffb725</t>
+  </si>
+  <si>
+    <t>wve@126.com</t>
+  </si>
+  <si>
+    <t>53917318bcc04c0c43ffb726</t>
+  </si>
+  <si>
+    <t>eve@123.com</t>
+  </si>
+  <si>
+    <t>5391e366e5d0c21b47a077f2</t>
+  </si>
+  <si>
+    <t>53950dfae5d0c21b47a077f3</t>
+  </si>
+  <si>
+    <t>2.00DN_BqDoJ6_xCbf9d4b8c050W3Cco</t>
+  </si>
+  <si>
+    <t>53951152e5d0c21b47a077f4</t>
+  </si>
+  <si>
+    <t>行者</t>
+  </si>
+  <si>
+    <t>0F3B54F368E43CB5BB119B015E60C3E3</t>
+  </si>
+  <si>
+    <t>53951f68e5d0c21b47a077f5</t>
+  </si>
+  <si>
+    <t>As long as you love me.</t>
+  </si>
+  <si>
+    <t>E2936F20EDE8811F2C8F5232704890BA</t>
+  </si>
+  <si>
+    <t>539536fbe5d0c21b47a077f6</t>
+  </si>
+  <si>
+    <t>eve@126.com</t>
   </si>
 </sst>
 </file>
@@ -588,7 +738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1004,50 +1154,80 @@
       <c r="A19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="B19" s="9">
+        <v>15138722728</v>
+      </c>
+      <c r="C19" s="9">
+        <v>15138722728</v>
+      </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="F20" s="9">
+        <v/>
+      </c>
+      <c r="G20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="B21" s="9">
+        <v>13764543611</v>
+      </c>
+      <c r="C21" s="9">
+        <v>13764543611</v>
+      </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="B22" s="9">
+        <v>13801843502</v>
+      </c>
+      <c r="C22" s="9">
+        <v>13801843502</v>
+      </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="E22" s="9"/>
       <c r="F22" s="9">
         <v/>
       </c>
@@ -1062,36 +1242,36 @@
       <c r="A23" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="9">
-        <v>15138722728</v>
-      </c>
-      <c r="C23" s="9">
-        <v>15138722728</v>
-      </c>
+      <c r="B23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="F23" s="9" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="G23" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H23" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="F24" s="9">
         <v/>
       </c>
@@ -1104,42 +1284,40 @@
     </row>
     <row r="25" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="9">
-        <v>12345678901</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="9">
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="G25" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H25" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B26" s="9">
-        <v>13764543611</v>
+        <v>13800138888</v>
       </c>
       <c r="C26" s="9">
-        <v>13764543611</v>
+        <v>13800138888</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="9" t="s">
-        <v>47</v>
+      <c r="F26" s="9">
+        <v/>
       </c>
       <c r="G26" s="9" t="b">
         <v>0</v>
@@ -1150,13 +1328,13 @@
     </row>
     <row r="27" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B27" s="9">
-        <v>13801843502</v>
+        <v>15221050481</v>
       </c>
       <c r="C27" s="9">
-        <v>13801843502</v>
+        <v>15221050481</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -1172,13 +1350,13 @@
     </row>
     <row r="28" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B28" s="9">
-        <v>13800138888</v>
+        <v>15221050482</v>
       </c>
       <c r="C28" s="9">
-        <v>13800138888</v>
+        <v>15221050482</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -1194,13 +1372,13 @@
     </row>
     <row r="29" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B29" s="9">
-        <v>15221050481</v>
+        <v>13800138010</v>
       </c>
       <c r="C29" s="9">
-        <v>15221050481</v>
+        <v>13800138010</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -1216,13 +1394,13 @@
     </row>
     <row r="30" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B30" s="9">
-        <v>15221050482</v>
+        <v>15221040511</v>
       </c>
       <c r="C30" s="9">
-        <v>15221050482</v>
+        <v>15221040511</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -1238,13 +1416,13 @@
     </row>
     <row r="31" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B31" s="9">
-        <v>13800138010</v>
+        <v>15221050423</v>
       </c>
       <c r="C31" s="9">
-        <v>13800138010</v>
+        <v>15221050423</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -1260,15 +1438,15 @@
     </row>
     <row r="32" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="9">
-        <v>15221040511</v>
-      </c>
-      <c r="C32" s="9">
-        <v>15221040511</v>
-      </c>
-      <c r="D32" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9">
         <v/>
@@ -1282,13 +1460,13 @@
     </row>
     <row r="33" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B33" s="9">
-        <v>15221050423</v>
+        <v>15221050485</v>
       </c>
       <c r="C33" s="9">
-        <v>15221050423</v>
+        <v>15221050485</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -1304,15 +1482,15 @@
     </row>
     <row r="34" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9" t="s">
-        <v>56</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B34" s="9">
+        <v>13800138123</v>
+      </c>
+      <c r="C34" s="9">
+        <v>13800138123</v>
+      </c>
+      <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9">
         <v/>
@@ -1326,13 +1504,13 @@
     </row>
     <row r="35" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B35" s="9">
-        <v>15221050485</v>
+        <v>15221050422</v>
       </c>
       <c r="C35" s="9">
-        <v>15221050485</v>
+        <v>15221050422</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -1348,13 +1526,13 @@
     </row>
     <row r="36" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B36" s="9">
-        <v>13800138123</v>
+        <v>15221010111</v>
       </c>
       <c r="C36" s="9">
-        <v>13800138123</v>
+        <v>15221010111</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -1370,13 +1548,13 @@
     </row>
     <row r="37" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B37" s="9">
-        <v>15221050422</v>
+        <v>13800138113</v>
       </c>
       <c r="C37" s="9">
-        <v>15221050422</v>
+        <v>13800138113</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -1392,13 +1570,13 @@
     </row>
     <row r="38" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B38" s="9">
-        <v>15221010111</v>
+        <v>13800138999</v>
       </c>
       <c r="C38" s="9">
-        <v>15221010111</v>
+        <v>13800138999</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -1414,13 +1592,13 @@
     </row>
     <row r="39" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B39" s="9">
-        <v>13800138113</v>
+        <v>13800000777</v>
       </c>
       <c r="C39" s="9">
-        <v>13800138113</v>
+        <v>13800000777</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -1436,13 +1614,13 @@
     </row>
     <row r="40" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B40" s="9">
-        <v>13800138999</v>
+        <v>13800137000</v>
       </c>
       <c r="C40" s="9">
-        <v>13800138999</v>
+        <v>13800137000</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -1458,13 +1636,13 @@
     </row>
     <row r="41" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B41" s="9">
-        <v>13800000777</v>
+        <v>13600138000</v>
       </c>
       <c r="C41" s="9">
-        <v>13800000777</v>
+        <v>13600138000</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -1480,13 +1658,13 @@
     </row>
     <row r="42" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B42" s="9">
-        <v>13800137000</v>
+        <v>13800138234</v>
       </c>
       <c r="C42" s="9">
-        <v>13800137000</v>
+        <v>13800138234</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -1502,13 +1680,13 @@
     </row>
     <row r="43" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B43" s="9">
-        <v>13600138000</v>
+        <v>13899138000</v>
       </c>
       <c r="C43" s="9">
-        <v>13600138000</v>
+        <v>13899138000</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -1524,13 +1702,13 @@
     </row>
     <row r="44" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B44" s="9">
-        <v>13800138234</v>
+        <v>15221050311</v>
       </c>
       <c r="C44" s="9">
-        <v>13800138234</v>
+        <v>15221050311</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -1546,13 +1724,13 @@
     </row>
     <row r="45" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B45" s="9">
-        <v>13899138000</v>
+        <v>13800138016</v>
       </c>
       <c r="C45" s="9">
-        <v>13899138000</v>
+        <v>13800138016</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -1568,13 +1746,13 @@
     </row>
     <row r="46" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B46" s="9">
-        <v>15221050311</v>
+        <v>13800000002</v>
       </c>
       <c r="C46" s="9">
-        <v>15221050311</v>
+        <v>13800000002</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -1590,13 +1768,13 @@
     </row>
     <row r="47" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B47" s="9">
-        <v>13800138016</v>
+        <v>13000137000</v>
       </c>
       <c r="C47" s="9">
-        <v>13800138016</v>
+        <v>13000137000</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -1612,13 +1790,13 @@
     </row>
     <row r="48" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B48" s="9">
-        <v>13800000002</v>
+        <v>13899138777</v>
       </c>
       <c r="C48" s="9">
-        <v>13800000002</v>
+        <v>13899138777</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
@@ -1634,18 +1812,18 @@
     </row>
     <row r="49" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B49" s="9">
-        <v>13000137000</v>
+        <v>13800000000</v>
       </c>
       <c r="C49" s="9">
-        <v>13000137000</v>
+        <v>13901758467</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
-      <c r="F49" s="9">
-        <v/>
+      <c r="F49" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G49" s="9" t="b">
         <v>0</v>
@@ -1656,16 +1834,16 @@
     </row>
     <row r="50" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="9">
-        <v>13899138777</v>
-      </c>
-      <c r="C50" s="9">
-        <v>13899138777</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="9"/>
       <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
+      <c r="E50" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="F50" s="9">
         <v/>
       </c>
@@ -1674,6 +1852,494 @@
       </c>
       <c r="H50" s="9">
         <v>0</v>
+      </c>
+    </row>
+    <row r="51" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9">
+        <v/>
+      </c>
+      <c r="G52" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="9">
+        <v>13564688413</v>
+      </c>
+      <c r="C53" s="9">
+        <v>13564688413</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9">
+        <v/>
+      </c>
+      <c r="G53" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="9">
+        <v>13818010371</v>
+      </c>
+      <c r="C54" s="9">
+        <v>13818010371</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9">
+        <v/>
+      </c>
+      <c r="G54" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55" s="9">
+        <v/>
+      </c>
+      <c r="G55" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="9">
+        <v>13838383838</v>
+      </c>
+      <c r="C57" s="9">
+        <v>13838383838</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="9">
+        <v>13939393939</v>
+      </c>
+      <c r="C58" s="9">
+        <v>13939393939</v>
+      </c>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9">
+        <v/>
+      </c>
+      <c r="G58" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="9">
+        <v>15252525252</v>
+      </c>
+      <c r="C59" s="9">
+        <v>15252525252</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9">
+        <v/>
+      </c>
+      <c r="G59" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="9">
+        <v>13333333333</v>
+      </c>
+      <c r="C60" s="9">
+        <v>13333333333</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9">
+        <v/>
+      </c>
+      <c r="G60" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F61" s="9">
+        <v/>
+      </c>
+      <c r="G61" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F62" s="9">
+        <v/>
+      </c>
+      <c r="G62" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F63" s="9">
+        <v/>
+      </c>
+      <c r="G63" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F64" s="9">
+        <v/>
+      </c>
+      <c r="G64" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="9">
+        <v>12345678901</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9">
+        <v/>
+      </c>
+      <c r="G66" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9">
+        <v/>
+      </c>
+      <c r="G67" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" s="9">
+        <v>13806104550</v>
+      </c>
+      <c r="C68" s="9">
+        <v>13806104550</v>
+      </c>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F69" s="9">
+        <v/>
+      </c>
+      <c r="G69" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F70" s="9">
+        <v/>
+      </c>
+      <c r="G70" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G71" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9">
+        <v/>
+      </c>
+      <c r="G72" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/static/appuser/appuser.xlsx
+++ b/static/appuser/appuser.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="442">
   <si>
     <t>编号</t>
   </si>
@@ -97,292 +97,1249 @@
     <t>8F2E58B9C56E04A731FA05A1549AE50C</t>
   </si>
   <si>
+    <t>53707295017c969847efe3e7</t>
+  </si>
+  <si>
+    <t>liuweisays</t>
+  </si>
+  <si>
+    <t>2.00DN_BqDoJ6_xC6cffefff270br5RP</t>
+  </si>
+  <si>
+    <t>53709a8767ce02ad59e454c9</t>
+  </si>
+  <si>
+    <t>刘伟</t>
+  </si>
+  <si>
+    <t>4d503ee612a3c487c897811723d68582</t>
+  </si>
+  <si>
+    <t>5369ee80cdd871573ffde038</t>
+  </si>
+  <si>
+    <t>537195051c09bc1f0a5f543e</t>
+  </si>
+  <si>
+    <t>q@1.com</t>
+  </si>
+  <si>
+    <t>53721e9c862b89aa291477ee</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>5372d30977ee0e5c393c380f</t>
+  </si>
+  <si>
+    <t>5375d7c80f4f4b5d3a777810</t>
+  </si>
+  <si>
+    <t>Mr.Rock</t>
+  </si>
+  <si>
+    <t>43A9AF3E9C91F28420B24950F9F5BDF1</t>
+  </si>
+  <si>
+    <t>538ddb83b44702831502037a</t>
+  </si>
+  <si>
+    <t>Fiona</t>
+  </si>
+  <si>
+    <t>ECC213F4BF0DC874E9F9301839231F83</t>
+  </si>
+  <si>
+    <t>5391b8fce5d0c21b47a077f1</t>
+  </si>
+  <si>
+    <t>‭</t>
+  </si>
+  <si>
+    <t>2091B48BEF32ABD1BCF4A5CAF588498C</t>
+  </si>
+  <si>
+    <t>539a3821d3b38c21339fcfef</t>
+  </si>
+  <si>
+    <t>liyuehui</t>
+  </si>
+  <si>
+    <t>672DA3BDD0343628C019A5D84DA97D5F</t>
+  </si>
+  <si>
+    <t>53a79e221b889b3e70c56760</t>
+  </si>
+  <si>
+    <t>53a7a3f71b889b3e70c56763</t>
+  </si>
+  <si>
+    <t>Lijie Zhang</t>
+  </si>
+  <si>
+    <t>537394dead756d6a6e4444aa</t>
+  </si>
+  <si>
+    <t>5373972cad756d6a6e4444ac</t>
+  </si>
+  <si>
+    <t>53739779ad756d6a6e4444ad</t>
+  </si>
+  <si>
+    <t>5373985dad756d6a6e4444ae</t>
+  </si>
+  <si>
+    <t>53739a02ad756d6a6e4444af</t>
+  </si>
+  <si>
+    <t>53739aa5ad756d6a6e4444b0</t>
+  </si>
+  <si>
+    <t>53739ac8ad756d6a6e4444b1</t>
+  </si>
+  <si>
+    <t>1@1.com</t>
+  </si>
+  <si>
+    <t>537420d4ad756d6a6e4444b2</t>
+  </si>
+  <si>
+    <t>53742105ad756d6a6e4444b3</t>
+  </si>
+  <si>
+    <t>537421881f802dce7b94c8f2</t>
+  </si>
+  <si>
+    <t>53742493662918ba7ca30a73</t>
+  </si>
+  <si>
+    <t>5374253aaf168a197d3d54d7</t>
+  </si>
+  <si>
+    <t>537425702585f7b97e668260</t>
+  </si>
+  <si>
+    <t>53742a5dc55ebe9406011d74</t>
+  </si>
+  <si>
+    <t>53742a79c55ebe9406011d75</t>
+  </si>
+  <si>
+    <t>53742aa3c55ebe9406011d76</t>
+  </si>
+  <si>
+    <t>53742d12c55ebe9406011d77</t>
+  </si>
+  <si>
+    <t>53742d47c55ebe9406011d79</t>
+  </si>
+  <si>
+    <t>53742d71c55ebe9406011d7a</t>
+  </si>
+  <si>
+    <t>5374318930e7cfda0ea41ba1</t>
+  </si>
+  <si>
+    <t>537431d730e7cfda0ea41ba2</t>
+  </si>
+  <si>
+    <t>537431fb30e7cfda0ea41ba3</t>
+  </si>
+  <si>
+    <t>537433c230e7cfda0ea41ba4</t>
+  </si>
+  <si>
+    <t>5375bda311083157399b6630</t>
+  </si>
+  <si>
+    <t>5376f60fc31fda8941248c65</t>
+  </si>
+  <si>
+    <t>十月左巴</t>
+  </si>
+  <si>
+    <t>DB161AF852CA0940709DB3B7126E1064</t>
+  </si>
+  <si>
+    <t>53708c075a8f566756f20a17</t>
+  </si>
+  <si>
+    <t>至爱吾女</t>
+  </si>
+  <si>
+    <t>58B027C651FB73879FF9FF6A50E752AA</t>
+  </si>
+  <si>
+    <t>538df93bb44702831502037b</t>
+  </si>
+  <si>
+    <t>kulapika8@163.com</t>
+  </si>
+  <si>
+    <t>538dfa7bb44702831502037c</t>
+  </si>
+  <si>
+    <t>538e88c2b44702831502037d</t>
+  </si>
+  <si>
+    <t>538edf971b597974238e9652</t>
+  </si>
+  <si>
+    <t>巴拉巴拉</t>
+  </si>
+  <si>
+    <t>EEAC5AB1A1615F7B995994F059B91E2D</t>
+  </si>
+  <si>
+    <t>5390167815a0aef4244671f7</t>
+  </si>
+  <si>
+    <t>evexia@qq.com</t>
+  </si>
+  <si>
+    <t>5390188815a0aef4244671f8</t>
+  </si>
+  <si>
+    <t>539018be15a0aef4244671f9</t>
+  </si>
+  <si>
+    <t>5390196315a0aef4244671fa</t>
+  </si>
+  <si>
+    <t>53901a0c15a0aef4244671fb</t>
+  </si>
+  <si>
+    <t>5390273e15a0aef4244671fe</t>
+  </si>
+  <si>
+    <t>426DA872AC937B5D6F5523F6838A857C</t>
+  </si>
+  <si>
+    <t>5390278715a0aef4244671ff</t>
+  </si>
+  <si>
+    <t>夕羊小童鞋</t>
+  </si>
+  <si>
+    <t>2.00GrDUREoJ6_xCf309967476jJ8KXC</t>
+  </si>
+  <si>
+    <t>5390370615a0aef424467200</t>
+  </si>
+  <si>
+    <t>断弦的流章</t>
+  </si>
+  <si>
+    <t>0A7714FF7B0C932F18E16EBD50985712</t>
+  </si>
+  <si>
+    <t>5390210a15a0aef4244671fd</t>
+  </si>
+  <si>
+    <t>EVE</t>
+  </si>
+  <si>
+    <t>eve@sina.com</t>
+  </si>
+  <si>
+    <t>C2F46CCA797756602EC6756C5B2AD365</t>
+  </si>
+  <si>
+    <t>53707fe9c00818ad53fc1dd2</t>
+  </si>
+  <si>
+    <t>杰儿泪</t>
+  </si>
+  <si>
+    <t>0B64B8DCA20F40C3ED7779DB983E0BFE</t>
+  </si>
+  <si>
+    <t>53917225bcc04c0c43ffb725</t>
+  </si>
+  <si>
+    <t>wve@126.com</t>
+  </si>
+  <si>
+    <t>53917318bcc04c0c43ffb726</t>
+  </si>
+  <si>
+    <t>eve@123.com</t>
+  </si>
+  <si>
+    <t>5391e366e5d0c21b47a077f2</t>
+  </si>
+  <si>
+    <t>53950dfae5d0c21b47a077f3</t>
+  </si>
+  <si>
+    <t>2.00DN_BqDoJ6_xCbf9d4b8c050W3Cco</t>
+  </si>
+  <si>
+    <t>53951152e5d0c21b47a077f4</t>
+  </si>
+  <si>
+    <t>行者</t>
+  </si>
+  <si>
+    <t>0F3B54F368E43CB5BB119B015E60C3E3</t>
+  </si>
+  <si>
+    <t>53951f68e5d0c21b47a077f5</t>
+  </si>
+  <si>
+    <t>As long as you love me.</t>
+  </si>
+  <si>
+    <t>E2936F20EDE8811F2C8F5232704890BA</t>
+  </si>
+  <si>
+    <t>539536fbe5d0c21b47a077f6</t>
+  </si>
+  <si>
+    <t>eve@126.com</t>
+  </si>
+  <si>
+    <t>539571c0e5d0c21b47a077f8</t>
+  </si>
+  <si>
+    <t>难道就没有人爱王诗龄么.</t>
+  </si>
+  <si>
+    <t>9F29BABFBE4A01C306CE94E522D49D40</t>
+  </si>
+  <si>
+    <t>53956b42e5d0c21b47a077f7</t>
+  </si>
+  <si>
+    <t>22D8494C70EA175EAFCF77E334B4CAAD</t>
+  </si>
+  <si>
+    <t>53963ead88ad2de50c01350a</t>
+  </si>
+  <si>
+    <t>‭‭  </t>
+  </si>
+  <si>
+    <t>331E3D0B78F817B91F2E9B562545BF6F</t>
+  </si>
+  <si>
+    <t>5396652288ad2de50c01350b</t>
+  </si>
+  <si>
+    <t>5396663f88ad2de50c01350c</t>
+  </si>
+  <si>
+    <t>5396679a88ad2de50c01350e</t>
+  </si>
+  <si>
+    <t>5396683288ad2de50c01350f</t>
+  </si>
+  <si>
+    <t>53966adc88ad2de50c013510</t>
+  </si>
+  <si>
+    <t>5396703c88ad2de50c013511</t>
+  </si>
+  <si>
+    <t>5396763a88ad2de50c013512</t>
+  </si>
+  <si>
+    <t>539676cc88ad2de50c013513</t>
+  </si>
+  <si>
+    <t>william@louding.com</t>
+  </si>
+  <si>
+    <t>5396bacd88ad2de50c013515</t>
+  </si>
+  <si>
+    <t>Tao_xiao_98-88</t>
+  </si>
+  <si>
+    <t>D03B3FED7584B4E6D5D92E81FB4A2CA7</t>
+  </si>
+  <si>
+    <t>5396d3dc88ad2de50c013518</t>
+  </si>
+  <si>
+    <t>5396f4795b2ba5921e0c8c8f</t>
+  </si>
+  <si>
+    <t>‖  t °</t>
+  </si>
+  <si>
+    <t>06C146D0C8E156F28A91047C6517135D</t>
+  </si>
+  <si>
+    <t>53978cc35b2ba5921e0c8c90</t>
+  </si>
+  <si>
+    <t>宁夏</t>
+  </si>
+  <si>
+    <t>AD6135B8C881ACAC355A43AD7DC4F1AF</t>
+  </si>
+  <si>
+    <t>5397e0e25b2ba5921e0c8c92</t>
+  </si>
+  <si>
+    <t>178917614@qq.com</t>
+  </si>
+  <si>
+    <t>539874e1d3b38c21339fcfec</t>
+  </si>
+  <si>
+    <t>小桓OnePiece</t>
+  </si>
+  <si>
+    <t>5FAC5B37B1A6C24723E2C7B12C99777C</t>
+  </si>
+  <si>
+    <t>53993ba1d3b38c21339fcfed</t>
+  </si>
+  <si>
+    <t>娜些彼此</t>
+  </si>
+  <si>
+    <t>2.00JgNzvBoJ6_xC0cf4209f6bGgqgXD</t>
+  </si>
+  <si>
     <t>5368b1cd5a38eb6e1881a31c</t>
   </si>
   <si>
-    <t>53707295017c969847efe3e7</t>
-  </si>
-  <si>
-    <t>liuweisays</t>
-  </si>
-  <si>
-    <t>2.00DN_BqDoJ6_xC6cffefff270br5RP</t>
-  </si>
-  <si>
-    <t>53709a8767ce02ad59e454c9</t>
-  </si>
-  <si>
-    <t>刘伟</t>
-  </si>
-  <si>
-    <t>4d503ee612a3c487c897811723d68582</t>
-  </si>
-  <si>
-    <t>5369ee80cdd871573ffde038</t>
-  </si>
-  <si>
-    <t>537195051c09bc1f0a5f543e</t>
-  </si>
-  <si>
-    <t>q@1.com</t>
-  </si>
-  <si>
-    <t>53721e9c862b89aa291477ee</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>5372d30977ee0e5c393c380f</t>
-  </si>
-  <si>
-    <t>5375d7c80f4f4b5d3a777810</t>
-  </si>
-  <si>
-    <t>Mr.Rock</t>
-  </si>
-  <si>
-    <t>43A9AF3E9C91F28420B24950F9F5BDF1</t>
-  </si>
-  <si>
-    <t>538ddb83b44702831502037a</t>
-  </si>
-  <si>
-    <t>Fiona</t>
-  </si>
-  <si>
-    <t>ECC213F4BF0DC874E9F9301839231F83</t>
-  </si>
-  <si>
-    <t>5391b8fce5d0c21b47a077f1</t>
-  </si>
-  <si>
-    <t>‭</t>
-  </si>
-  <si>
-    <t>2091B48BEF32ABD1BCF4A5CAF588498C</t>
-  </si>
-  <si>
-    <t>537394dead756d6a6e4444aa</t>
-  </si>
-  <si>
-    <t>5373972cad756d6a6e4444ac</t>
-  </si>
-  <si>
-    <t>53739779ad756d6a6e4444ad</t>
-  </si>
-  <si>
-    <t>5373985dad756d6a6e4444ae</t>
-  </si>
-  <si>
-    <t>53739a02ad756d6a6e4444af</t>
-  </si>
-  <si>
-    <t>53739aa5ad756d6a6e4444b0</t>
-  </si>
-  <si>
-    <t>53739ac8ad756d6a6e4444b1</t>
-  </si>
-  <si>
-    <t>1@1.com</t>
-  </si>
-  <si>
-    <t>537420d4ad756d6a6e4444b2</t>
-  </si>
-  <si>
-    <t>53742105ad756d6a6e4444b3</t>
-  </si>
-  <si>
-    <t>537421881f802dce7b94c8f2</t>
-  </si>
-  <si>
-    <t>53742493662918ba7ca30a73</t>
-  </si>
-  <si>
-    <t>5374253aaf168a197d3d54d7</t>
-  </si>
-  <si>
-    <t>537425702585f7b97e668260</t>
-  </si>
-  <si>
-    <t>53742a5dc55ebe9406011d74</t>
-  </si>
-  <si>
-    <t>53742a79c55ebe9406011d75</t>
-  </si>
-  <si>
-    <t>53742aa3c55ebe9406011d76</t>
-  </si>
-  <si>
-    <t>53742d12c55ebe9406011d77</t>
-  </si>
-  <si>
-    <t>53742d47c55ebe9406011d79</t>
-  </si>
-  <si>
-    <t>53742d71c55ebe9406011d7a</t>
-  </si>
-  <si>
-    <t>5374318930e7cfda0ea41ba1</t>
-  </si>
-  <si>
-    <t>537431d730e7cfda0ea41ba2</t>
-  </si>
-  <si>
-    <t>537431fb30e7cfda0ea41ba3</t>
-  </si>
-  <si>
-    <t>537433c230e7cfda0ea41ba4</t>
-  </si>
-  <si>
-    <t>5375bda311083157399b6630</t>
-  </si>
-  <si>
-    <t>5376f60fc31fda8941248c65</t>
-  </si>
-  <si>
-    <t>十月左巴</t>
-  </si>
-  <si>
-    <t>DB161AF852CA0940709DB3B7126E1064</t>
-  </si>
-  <si>
-    <t>53708c075a8f566756f20a17</t>
-  </si>
-  <si>
-    <t>至爱吾女</t>
-  </si>
-  <si>
-    <t>58B027C651FB73879FF9FF6A50E752AA</t>
-  </si>
-  <si>
-    <t>538df93bb44702831502037b</t>
-  </si>
-  <si>
-    <t>kulapika8@163.com</t>
-  </si>
-  <si>
-    <t>538dfa7bb44702831502037c</t>
-  </si>
-  <si>
-    <t>538e88c2b44702831502037d</t>
-  </si>
-  <si>
-    <t>538edf971b597974238e9652</t>
-  </si>
-  <si>
-    <t>巴拉巴拉</t>
-  </si>
-  <si>
-    <t>EEAC5AB1A1615F7B995994F059B91E2D</t>
-  </si>
-  <si>
-    <t>5390167815a0aef4244671f7</t>
-  </si>
-  <si>
-    <t>evexia@qq.com</t>
-  </si>
-  <si>
-    <t>5390188815a0aef4244671f8</t>
-  </si>
-  <si>
-    <t>539018be15a0aef4244671f9</t>
-  </si>
-  <si>
-    <t>5390196315a0aef4244671fa</t>
-  </si>
-  <si>
-    <t>53901a0c15a0aef4244671fb</t>
-  </si>
-  <si>
-    <t>5390273e15a0aef4244671fe</t>
-  </si>
-  <si>
-    <t>426DA872AC937B5D6F5523F6838A857C</t>
-  </si>
-  <si>
-    <t>5390278715a0aef4244671ff</t>
-  </si>
-  <si>
-    <t>夕羊小童鞋</t>
-  </si>
-  <si>
-    <t>2.00GrDUREoJ6_xCf309967476jJ8KXC</t>
-  </si>
-  <si>
-    <t>5390370615a0aef424467200</t>
-  </si>
-  <si>
-    <t>断弦的流章</t>
-  </si>
-  <si>
-    <t>0A7714FF7B0C932F18E16EBD50985712</t>
-  </si>
-  <si>
-    <t>5390210a15a0aef4244671fd</t>
-  </si>
-  <si>
-    <t>EVE</t>
-  </si>
-  <si>
-    <t>eve@sina.com</t>
-  </si>
-  <si>
-    <t>C2F46CCA797756602EC6756C5B2AD365</t>
-  </si>
-  <si>
-    <t>53707fe9c00818ad53fc1dd2</t>
-  </si>
-  <si>
-    <t>杰儿泪</t>
-  </si>
-  <si>
-    <t>0B64B8DCA20F40C3ED7779DB983E0BFE</t>
-  </si>
-  <si>
-    <t>53917225bcc04c0c43ffb725</t>
-  </si>
-  <si>
-    <t>wve@126.com</t>
-  </si>
-  <si>
-    <t>53917318bcc04c0c43ffb726</t>
-  </si>
-  <si>
-    <t>eve@123.com</t>
-  </si>
-  <si>
-    <t>5391e366e5d0c21b47a077f2</t>
-  </si>
-  <si>
-    <t>53950dfae5d0c21b47a077f3</t>
-  </si>
-  <si>
-    <t>2.00DN_BqDoJ6_xCbf9d4b8c050W3Cco</t>
-  </si>
-  <si>
-    <t>53951152e5d0c21b47a077f4</t>
-  </si>
-  <si>
-    <t>行者</t>
-  </si>
-  <si>
-    <t>0F3B54F368E43CB5BB119B015E60C3E3</t>
-  </si>
-  <si>
-    <t>53951f68e5d0c21b47a077f5</t>
-  </si>
-  <si>
-    <t>As long as you love me.</t>
-  </si>
-  <si>
-    <t>E2936F20EDE8811F2C8F5232704890BA</t>
-  </si>
-  <si>
-    <t>539536fbe5d0c21b47a077f6</t>
-  </si>
-  <si>
-    <t>eve@126.com</t>
+    <t>53996b77d3b38c21339fcfee</t>
+  </si>
+  <si>
+    <t>CAAKPkqRN0O8BAHU5pfGJcEkCTAo52FQJ7aSg3dYwAZAgWWopdbIGLQWVRayoTliBXDAlAuIpzx38KrGXB9ZBrKshuUpg1ZBCADcfnSoKPPWbJtXBfirFErfJwX9FMCpB0ZBnEosDeDSKCmGZASxB6j9z0ZCsf72cDUNCqhU9ZBZBFhuep3HTmc7qXxTILMcZBMWjTmZAtv1KNhjL14mtQPv4nR</t>
+  </si>
+  <si>
+    <t>5396aecf88ad2de50c013514</t>
+  </si>
+  <si>
+    <t>2.009O8NtBoJ6_xC55196f8d2f0p_rYs</t>
+  </si>
+  <si>
+    <t>539a8b4cd3b38c21339fcff4</t>
+  </si>
+  <si>
+    <t>爱薇儿</t>
+  </si>
+  <si>
+    <t>1853C71E5656F075871303C1DA5F9191</t>
+  </si>
+  <si>
+    <t>539a8feed3b38c21339fcff5</t>
+  </si>
+  <si>
+    <t>陆欣韡</t>
+  </si>
+  <si>
+    <t>2.00oK_qjBoJ6_xCaf95caf88cjsXG3E</t>
+  </si>
+  <si>
+    <t>539e98a5d3b38c21339fcffe</t>
+  </si>
+  <si>
+    <t>539f9fc4d3b38c21339fd001</t>
+  </si>
+  <si>
+    <t>539fa290d3b38c21339fd002</t>
+  </si>
+  <si>
+    <t>zhongpr@essilorchina.com</t>
+  </si>
+  <si>
+    <t>539fa3a6d3b38c21339fd003</t>
+  </si>
+  <si>
+    <t>wangxu@essilorchina.com</t>
+  </si>
+  <si>
+    <t>539fa3add3b38c21339fd004</t>
+  </si>
+  <si>
+    <t>dorayli@essilorchina.com</t>
+  </si>
+  <si>
+    <t>539fa597d3b38c21339fd005</t>
+  </si>
+  <si>
+    <t>zhouhui@cn.essilor.com</t>
+  </si>
+  <si>
+    <t>539fa734d3b38c21339fd007</t>
+  </si>
+  <si>
+    <t>qinjm@essilorchina.com</t>
+  </si>
+  <si>
+    <t>539fa8dfd3b38c21339fd008</t>
+  </si>
+  <si>
+    <t>大美</t>
+  </si>
+  <si>
+    <t>69562033EB8FAC1BC7B87F39029C8984</t>
+  </si>
+  <si>
+    <t>539faeaad3b38c21339fd00a</t>
+  </si>
+  <si>
+    <t>Liuxj@essilorchina.com</t>
+  </si>
+  <si>
+    <t>539fb0b7d3b38c21339fd00c</t>
+  </si>
+  <si>
+    <t>wangjc@essilorchina.com</t>
+  </si>
+  <si>
+    <t>539fb1c309c9a6c642e36a37</t>
+  </si>
+  <si>
+    <t>wangyw@essilorchina.com</t>
+  </si>
+  <si>
+    <t>539fb22809c9a6c642e36a39</t>
+  </si>
+  <si>
+    <t>luh@essilorchina.com</t>
+  </si>
+  <si>
+    <t>539fb25609c9a6c642e36a3b</t>
+  </si>
+  <si>
+    <t>137577679@qq.com</t>
+  </si>
+  <si>
+    <t>539fb326d2630be54290ba09</t>
+  </si>
+  <si>
+    <t>evexia@126.com</t>
+  </si>
+  <si>
+    <t>539fbb4ed2630be54290ba0c</t>
+  </si>
+  <si>
+    <t>chenq@essilorchina.com</t>
+  </si>
+  <si>
+    <t>539fbed8d2630be54290ba0d</t>
+  </si>
+  <si>
+    <t>zhang.jing@essilorchina.com</t>
+  </si>
+  <si>
+    <t>539fcaedd2630be54290ba10</t>
+  </si>
+  <si>
+    <t>zhaojun@essilorchina.com</t>
+  </si>
+  <si>
+    <t>539fc17ed2630be54290ba0e</t>
+  </si>
+  <si>
+    <t>chenti@essilorchina.com</t>
+  </si>
+  <si>
+    <t>chenti@essilorchina.con</t>
+  </si>
+  <si>
+    <t>539fe7d9d2630be54290ba12</t>
+  </si>
+  <si>
+    <t>qiaoxm@essilorchina.com</t>
+  </si>
+  <si>
+    <t>539fed1fd2630be54290ba15</t>
+  </si>
+  <si>
+    <t>627868300@qq.com</t>
+  </si>
+  <si>
+    <t>539fed8fd2630be54290ba16</t>
+  </si>
+  <si>
+    <t>53a00084d2630be54290ba1a</t>
+  </si>
+  <si>
+    <t>zhouyx@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a0041ad2630be54290ba1c</t>
+  </si>
+  <si>
+    <t>majun@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a00dd4d2630be54290ba20</t>
+  </si>
+  <si>
+    <t>zhuyq@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a00d83d2630be54290ba1f</t>
+  </si>
+  <si>
+    <t>sungq@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a017f9d2630be54290ba23</t>
+  </si>
+  <si>
+    <t>tangk@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a01ccbd2630be54290ba27</t>
+  </si>
+  <si>
+    <t>yug@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a0328ed2630be54290ba2b</t>
+  </si>
+  <si>
+    <t>yanchen@cn.essilor.com</t>
+  </si>
+  <si>
+    <t>53a032afd2630be54290ba2c</t>
+  </si>
+  <si>
+    <t>53a03852d2630be54290ba2d</t>
+  </si>
+  <si>
+    <t>聪聪妈</t>
+  </si>
+  <si>
+    <t>6843DBB14666C738402EDF325567257E</t>
+  </si>
+  <si>
+    <t>539fc431d2630be54290ba0f</t>
+  </si>
+  <si>
+    <t>chenyan@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a03a1cd2630be54290ba2e</t>
+  </si>
+  <si>
+    <t>linm@essilorchina.com</t>
+  </si>
+  <si>
+    <t>539fb7a8d2630be54290ba0a</t>
+  </si>
+  <si>
+    <t>Sunwm@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a047e0d2630be54290ba36</t>
+  </si>
+  <si>
+    <t>skycuicui2@163.com</t>
+  </si>
+  <si>
+    <t>53a051fdd2630be54290ba3a</t>
+  </si>
+  <si>
+    <t>53a05232d2630be54290ba3c</t>
+  </si>
+  <si>
+    <t>阿梓、喵~</t>
+  </si>
+  <si>
+    <t>9AD6AE8A1936160CE067673986F14665</t>
+  </si>
+  <si>
+    <t>53a0f85cd2630be54290ba64</t>
+  </si>
+  <si>
+    <t>Lisa@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a04fa1d2630be54290ba38</t>
+  </si>
+  <si>
+    <t>weichaoh@cn.essilor.com</t>
+  </si>
+  <si>
+    <t>53a0535bd2630be54290ba3e</t>
+  </si>
+  <si>
+    <t>qiuym@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a05716d2630be54290ba40</t>
+  </si>
+  <si>
+    <t>NICK</t>
+  </si>
+  <si>
+    <t>D467CADB4B3E046A56C3D1D20F0AB2CE</t>
+  </si>
+  <si>
+    <t>53a05e6cd2630be54290ba44</t>
+  </si>
+  <si>
+    <t>yuangl@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a06251d2630be54290ba46</t>
+  </si>
+  <si>
+    <t>yuj@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a06c3fd2630be54290ba48</t>
+  </si>
+  <si>
+    <t>liuk@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a079cdd2630be54290ba4b</t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>14B9BCC68FA3955127F0C091BBDB84C6</t>
+  </si>
+  <si>
+    <t>53a0b95bd2630be54290ba4c</t>
+  </si>
+  <si>
+    <t>2640595510@.qq.com</t>
+  </si>
+  <si>
+    <t>53a0d424d2630be54290ba4f</t>
+  </si>
+  <si>
+    <t>Colorful day</t>
+  </si>
+  <si>
+    <t>D589ADDDF1583ED7E66127EF14AE36C0</t>
+  </si>
+  <si>
+    <t>53a0d455d2630be54290ba50</t>
+  </si>
+  <si>
+    <t>wanglei@cn.essilor.com</t>
+  </si>
+  <si>
+    <t>53a0db38d2630be54290ba52</t>
+  </si>
+  <si>
+    <t>fanq@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a0dde5d2630be54290ba53</t>
+  </si>
+  <si>
+    <t>sales@swoptical.com</t>
+  </si>
+  <si>
+    <t>53a0deb3d2630be54290ba54</t>
+  </si>
+  <si>
+    <t>wangyanp@cn.essilor.com</t>
+  </si>
+  <si>
+    <t>53a0dfedd2630be54290ba56</t>
+  </si>
+  <si>
+    <t>柠七ii</t>
+  </si>
+  <si>
+    <t>2.00MTDhDDoJ6_xC19bdec728alIuWbC</t>
+  </si>
+  <si>
+    <t>53a0478dd2630be54290ba35</t>
+  </si>
+  <si>
+    <t>sunyu@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a0e623d2630be54290ba58</t>
+  </si>
+  <si>
+    <t>liyg@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a0ebb2d2630be54290ba5b</t>
+  </si>
+  <si>
+    <t>gaomj@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a0f1ecd2630be54290ba5e</t>
+  </si>
+  <si>
+    <t>wangbs@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a0f2bfd2630be54290ba5f</t>
+  </si>
+  <si>
+    <t>yuy@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a0f40fd2630be54290ba62</t>
+  </si>
+  <si>
+    <t>xief@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a0f550d2630be54290ba63</t>
+  </si>
+  <si>
+    <t>huanglj@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a0fa7cd2630be54290ba65</t>
+  </si>
+  <si>
+    <t>liyan@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a102d6d2630be54290ba6a</t>
+  </si>
+  <si>
+    <t>53a10542d2630be54290ba6d</t>
+  </si>
+  <si>
+    <t>驭麒麟</t>
+  </si>
+  <si>
+    <t>xuhch@essilorchina.com</t>
+  </si>
+  <si>
+    <t>C020D95E7ECA9E6E9EE25F93ED9D17F8</t>
+  </si>
+  <si>
+    <t>53a10809d2630be54290ba70</t>
+  </si>
+  <si>
+    <t>duanmz@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a1109dd2630be54290ba74</t>
+  </si>
+  <si>
+    <t>lixj@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a10faed2630be54290ba73</t>
+  </si>
+  <si>
+    <t>luy@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a11444d2630be54290ba75</t>
+  </si>
+  <si>
+    <t>meijt1245@hotmail.com</t>
+  </si>
+  <si>
+    <t>53a11d7ed2630be54290ba78</t>
+  </si>
+  <si>
+    <t>chenh@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a122a3d2630be54290ba79</t>
+  </si>
+  <si>
+    <t>circle</t>
+  </si>
+  <si>
+    <t>918814A19F1679E433597587FCD638B4</t>
+  </si>
+  <si>
+    <t>53a12385d2630be54290ba7b</t>
+  </si>
+  <si>
+    <t>在旅途</t>
+  </si>
+  <si>
+    <t>niesh@essilorchina.com</t>
+  </si>
+  <si>
+    <t>E2F04548E7A331B15913E00ECC902D20</t>
+  </si>
+  <si>
+    <t>53a1257fd2630be54290ba7d</t>
+  </si>
+  <si>
+    <t>jidw@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a12547d2630be54290ba7c</t>
+  </si>
+  <si>
+    <t>xucb@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a12317d2630be54290ba7a</t>
+  </si>
+  <si>
+    <t>liusj@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a12b2bd2630be54290ba80</t>
+  </si>
+  <si>
+    <t>liujm@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a12e93d2630be54290ba83</t>
+  </si>
+  <si>
+    <t>tianyl@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a13063d2630be54290ba84</t>
+  </si>
+  <si>
+    <t>zhongjianfei@wanxinop.com</t>
+  </si>
+  <si>
+    <t>53a13615d2630be54290ba8b</t>
+  </si>
+  <si>
+    <t>53a13670d2630be54290ba8c</t>
+  </si>
+  <si>
+    <t>zhangbaifang@wanxinop.com</t>
+  </si>
+  <si>
+    <t>53a13725d2630be54290ba8f</t>
+  </si>
+  <si>
+    <t>1195202489@qq.com</t>
+  </si>
+  <si>
+    <t>53a13707d2630be54290ba8e</t>
+  </si>
+  <si>
+    <t>zhangx@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a13c13d2630be54290ba92</t>
+  </si>
+  <si>
+    <t>胡俊                 //</t>
+  </si>
+  <si>
+    <t>CF83B51036187F11AB0A4594A07F3296</t>
+  </si>
+  <si>
+    <t>53a147d6d2630be54290ba97</t>
+  </si>
+  <si>
+    <t>   尽</t>
+  </si>
+  <si>
+    <t>2CF08484AEC1E0A68EDF2448E946FDB6</t>
+  </si>
+  <si>
+    <t>53a14a07d2630be54290ba99</t>
+  </si>
+  <si>
+    <t>53a14aeed2630be54290ba9b</t>
+  </si>
+  <si>
+    <t>610492017@qq.com</t>
+  </si>
+  <si>
+    <t>53a10822d2630be54290ba71</t>
+  </si>
+  <si>
+    <t>panyifen@cn.essilor.com</t>
+  </si>
+  <si>
+    <t>53a15f73d2630be54290baa8</t>
+  </si>
+  <si>
+    <t>九九妈</t>
+  </si>
+  <si>
+    <t>52CF6A0D9458B40685569C065C993B0D</t>
+  </si>
+  <si>
+    <t>53a16d55d2630be54290baaa</t>
+  </si>
+  <si>
+    <t>gongq@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a174f7d2630be54290baac</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>07D88CFD2FC1021D520B925D9D3E02BF</t>
+  </si>
+  <si>
+    <t>53a17b61d2630be54290baad</t>
+  </si>
+  <si>
+    <t>tracyque@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a18230d2630be54290baaf</t>
+  </si>
+  <si>
+    <t>柠檬</t>
+  </si>
+  <si>
+    <t>9D49635F23F379CB2E8773280DA397DF</t>
+  </si>
+  <si>
+    <t>53a19dacd2630be54290bab7</t>
+  </si>
+  <si>
+    <t>linan@cn.essilor.com</t>
+  </si>
+  <si>
+    <t>53a1b0ddd2630be54290babc</t>
+  </si>
+  <si>
+    <t>liuhui@wanxinop.com</t>
+  </si>
+  <si>
+    <t>53a1b954d2630be54290babe</t>
+  </si>
+  <si>
+    <t>nizhidan@wanxinop.com</t>
+  </si>
+  <si>
+    <t>53a2104ad2630be54290bac1</t>
+  </si>
+  <si>
+    <t>o0孤单美食家0o</t>
+  </si>
+  <si>
+    <t>2.00WbeHGCoJ6_xC09f5d76b4bvgefkB</t>
+  </si>
+  <si>
+    <t>53a228f1d2630be54290bac2</t>
+  </si>
+  <si>
+    <t>jiaohua@wanxinop.com</t>
+  </si>
+  <si>
+    <t>53a22c91d2630be54290bac3</t>
+  </si>
+  <si>
+    <t>Carson</t>
+  </si>
+  <si>
+    <t>6126E34F4D080A13DCEDFAF9773DAA45</t>
+  </si>
+  <si>
+    <t>53a22cbad2630be54290bac4</t>
+  </si>
+  <si>
+    <t>zengwenjun@wanxinop.com</t>
+  </si>
+  <si>
+    <t>53a1a21ed2630be54290bab9</t>
+  </si>
+  <si>
+    <t>guxinwei@cn.essilor.com</t>
+  </si>
+  <si>
+    <t>53a2554b1b889b3e70c566a8</t>
+  </si>
+  <si>
+    <t>53a260ca1b889b3e70c566ea</t>
+  </si>
+  <si>
+    <t>快樂每一天</t>
+  </si>
+  <si>
+    <t>9E314036FCCA85A5723D89635F1E64AF</t>
+  </si>
+  <si>
+    <t>53a270631b889b3e70c566ee</t>
+  </si>
+  <si>
+    <t>53a282391b889b3e70c566f2</t>
+  </si>
+  <si>
+    <t>shenyx@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a2845a1b889b3e70c566f3</t>
+  </si>
+  <si>
+    <t>CAAKPkqRN0O8BAKqOT8J8CgXttvUZC2LhhscRYpkuCMaxt5N4FMP8pguSSH3HTvnu4q64kGeQtMEPHXTAr5t56gNT3X7WF79mNLcXUUneqw9BY60ojZBfva1n5vnYOOHg3HFSJ6syQ8yPVClZBqEfxxmUn0iyF84V2YbKea0p6AfExIJu5Bb</t>
+  </si>
+  <si>
+    <t>53a2a2111b889b3e70c566f7</t>
+  </si>
+  <si>
+    <t>CAAKPkqRN0O8BANCrkuTX4LZC3tL3UMt0BkMgDtNdnMH0rwPXnIbWLzDJZBhXM6qftz6iPfCIwc3cd1qzRdVqpyMxZCOIQZCSHQ77Uko3SQtQolO8sETrsSzqS6hHC7ZC8ZC5p5eSOCl7eMi6r5wNENudS56nZCSpb5MEMzkPZAVdEHFMmIQheFzCvDhIB9sG9Y42VuwAWj8PX8upjkPWiTJs</t>
+  </si>
+  <si>
+    <t>53a2b2541b889b3e70c566f8</t>
+  </si>
+  <si>
+    <t>53a2c7de1b889b3e70c566fa</t>
+  </si>
+  <si>
+    <t>53a2e0851b889b3e70c566fe</t>
+  </si>
+  <si>
+    <t>袁姓</t>
+  </si>
+  <si>
+    <t>B1399B3D0D7AEEB03505EBF0C6AE13AB</t>
+  </si>
+  <si>
+    <t>53a2ee871b889b3e70c56701</t>
+  </si>
+  <si>
+    <t>317611018@qq.con</t>
+  </si>
+  <si>
+    <t>53a2f2891b889b3e70c56702</t>
+  </si>
+  <si>
+    <t>majj@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a2f7081b889b3e70c56704</t>
+  </si>
+  <si>
+    <t>缘分</t>
+  </si>
+  <si>
+    <t>CB2E7BC79FA2FFFA171101A3847B9BAF</t>
+  </si>
+  <si>
+    <t>53a30e061b889b3e70c56707</t>
+  </si>
+  <si>
+    <t>53a362c71b889b3e70c56709</t>
+  </si>
+  <si>
+    <t>31761108@qq.com</t>
+  </si>
+  <si>
+    <t>53a2550ca3a139c46fc31e38</t>
+  </si>
+  <si>
+    <t>zhouj@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a3bd3e1b889b3e70c5670f</t>
+  </si>
+  <si>
+    <t>　    ������  ﹏</t>
+  </si>
+  <si>
+    <t>CEABE929F57E4D2A0062470F76E2EA64</t>
+  </si>
+  <si>
+    <t>53a3c0af1b889b3e70c56711</t>
+  </si>
+  <si>
+    <t>钢精混凝土</t>
+  </si>
+  <si>
+    <t>02F36DDB1DA17BEAF6E3AC9528319CA5</t>
+  </si>
+  <si>
+    <t>53a3c3011b889b3e70c56712</t>
+  </si>
+  <si>
+    <t>shiyc@nikonlenswear.cn</t>
+  </si>
+  <si>
+    <t>53a1c292d2630be54290babf</t>
+  </si>
+  <si>
+    <t>wangjie@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a3d6b41b889b3e70c56719</t>
+  </si>
+  <si>
+    <t>zhangm@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a3daa11b889b3e70c5671a</t>
+  </si>
+  <si>
+    <t>xuyf@nikonlenswear.cn</t>
+  </si>
+  <si>
+    <t>53a3f3461b889b3e70c56721</t>
+  </si>
+  <si>
+    <t>360621440@qq.com</t>
+  </si>
+  <si>
+    <t>53a44c4c1b889b3e70c5672f</t>
+  </si>
+  <si>
+    <t> ……</t>
+  </si>
+  <si>
+    <t>BF8C8213B1047A36E69BD472890E0F31</t>
+  </si>
+  <si>
+    <t>53a44c6a1b889b3e70c56730</t>
+  </si>
+  <si>
+    <t>53a4dda61b889b3e70c56732</t>
+  </si>
+  <si>
+    <t>xiaqing@wanxinop.com</t>
+  </si>
+  <si>
+    <t>53a54a8f1b889b3e70c5673b</t>
+  </si>
+  <si>
+    <t>53a552041b889b3e70c5673d</t>
+  </si>
+  <si>
+    <t>53a555da1b889b3e70c5673f</t>
+  </si>
+  <si>
+    <t>53a639151b889b3e70c5674b</t>
+  </si>
+  <si>
+    <t>梦里水乡</t>
+  </si>
+  <si>
+    <t>C4D1409529624165BAB9A0ED55667783</t>
+  </si>
+  <si>
+    <t>53a6671b1b889b3e70c56751</t>
+  </si>
+  <si>
+    <t>1553773690@qq.com</t>
+  </si>
+  <si>
+    <t>53a6dca41b889b3e70c56757</t>
+  </si>
+  <si>
+    <t>artmusic</t>
+  </si>
+  <si>
+    <t>2.00GCoZUCoJ6_xCac2290d001RQeeQC</t>
+  </si>
+  <si>
+    <t>53a78fb81b889b3e70c5675d</t>
+  </si>
+  <si>
+    <t>李金</t>
+  </si>
+  <si>
+    <t>1641816253EB0C08E81055D3655400E5</t>
   </si>
 </sst>
 </file>
@@ -738,7 +1695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H225"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -789,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.25">
@@ -1084,17 +2041,13 @@
       <c r="A16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="9">
-        <v>3922893704</v>
-      </c>
-      <c r="C16" s="9">
-        <v>98765432100</v>
-      </c>
-      <c r="D16" s="9">
-        <v/>
-      </c>
-      <c r="E16" s="9">
-        <v>3922893704</v>
+      <c r="B16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="F16" s="9">
         <v/>
@@ -1108,15 +2061,15 @@
     </row>
     <row r="17" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F17" s="9">
         <v/>
@@ -1130,62 +2083,62 @@
     </row>
     <row r="18" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="B18" s="9">
+        <v>15138722728</v>
+      </c>
+      <c r="C18" s="9">
+        <v>15138722728</v>
+      </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="9">
-        <v/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G18" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="9">
-        <v>15138722728</v>
-      </c>
-      <c r="C19" s="9">
-        <v>15138722728</v>
-      </c>
-      <c r="D19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="9" t="s">
-        <v>23</v>
+      <c r="F19" s="9">
+        <v/>
       </c>
       <c r="G19" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H19" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="B20" s="9">
+        <v>13764543611</v>
+      </c>
+      <c r="C20" s="9">
+        <v>13764543611</v>
+      </c>
+      <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="9">
-        <v/>
+      <c r="F20" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="G20" s="9" t="b">
         <v>0</v>
@@ -1196,40 +2149,40 @@
     </row>
     <row r="21" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="9">
-        <v>13764543611</v>
+        <v>13801843502</v>
       </c>
       <c r="C21" s="9">
-        <v>13764543611</v>
+        <v>13801843502</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="9" t="s">
-        <v>38</v>
+      <c r="F21" s="9">
+        <v/>
       </c>
       <c r="G21" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="9">
-        <v>13801843502</v>
-      </c>
-      <c r="C22" s="9">
-        <v>13801843502</v>
-      </c>
+      <c r="B22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9">
-        <v/>
+      <c r="E22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="G22" s="9" t="b">
         <v>0</v>
@@ -1240,18 +2193,18 @@
     </row>
     <row r="23" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="F23" s="9">
+        <v/>
       </c>
       <c r="G23" s="9" t="b">
         <v>0</v>
@@ -1262,60 +2215,60 @@
     </row>
     <row r="24" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="9">
-        <v/>
+        <v>47</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="G24" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="F25" s="9">
+        <v/>
       </c>
       <c r="G25" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H25" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="9">
-        <v>13800138888</v>
-      </c>
-      <c r="C26" s="9">
-        <v>13800138888</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="E26" s="9">
+        <v>100008004043961</v>
+      </c>
       <c r="F26" s="9">
         <v/>
       </c>
@@ -1328,16 +2281,16 @@
     </row>
     <row r="27" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="9">
-        <v>15221050481</v>
-      </c>
-      <c r="C27" s="9">
-        <v>15221050481</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="9"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="E27" s="9">
+        <v>100005374517980</v>
+      </c>
       <c r="F27" s="9">
         <v/>
       </c>
@@ -1350,13 +2303,13 @@
     </row>
     <row r="28" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B28" s="9">
-        <v>15221050482</v>
+        <v>13800138888</v>
       </c>
       <c r="C28" s="9">
-        <v>15221050482</v>
+        <v>13800138888</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -1372,13 +2325,13 @@
     </row>
     <row r="29" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B29" s="9">
-        <v>13800138010</v>
+        <v>15221050481</v>
       </c>
       <c r="C29" s="9">
-        <v>13800138010</v>
+        <v>15221050481</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -1394,13 +2347,13 @@
     </row>
     <row r="30" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B30" s="9">
-        <v>15221040511</v>
+        <v>15221050482</v>
       </c>
       <c r="C30" s="9">
-        <v>15221040511</v>
+        <v>15221050482</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -1416,13 +2369,13 @@
     </row>
     <row r="31" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B31" s="9">
-        <v>15221050423</v>
+        <v>13800138010</v>
       </c>
       <c r="C31" s="9">
-        <v>15221050423</v>
+        <v>13800138010</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -1438,15 +2391,15 @@
     </row>
     <row r="32" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9" t="s">
-        <v>56</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B32" s="9">
+        <v>15221040511</v>
+      </c>
+      <c r="C32" s="9">
+        <v>15221040511</v>
+      </c>
+      <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9">
         <v/>
@@ -1460,13 +2413,13 @@
     </row>
     <row r="33" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B33" s="9">
-        <v>15221050485</v>
+        <v>15221050423</v>
       </c>
       <c r="C33" s="9">
-        <v>15221050485</v>
+        <v>15221050423</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -1482,15 +2435,15 @@
     </row>
     <row r="34" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="9">
-        <v>13800138123</v>
-      </c>
-      <c r="C34" s="9">
-        <v>13800138123</v>
-      </c>
-      <c r="D34" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9">
         <v/>
@@ -1504,13 +2457,13 @@
     </row>
     <row r="35" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B35" s="9">
-        <v>15221050422</v>
+        <v>15221050485</v>
       </c>
       <c r="C35" s="9">
-        <v>15221050422</v>
+        <v>15221050485</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -1526,13 +2479,13 @@
     </row>
     <row r="36" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B36" s="9">
-        <v>15221010111</v>
+        <v>13800138123</v>
       </c>
       <c r="C36" s="9">
-        <v>15221010111</v>
+        <v>13800138123</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -1548,13 +2501,13 @@
     </row>
     <row r="37" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B37" s="9">
-        <v>13800138113</v>
+        <v>15221050422</v>
       </c>
       <c r="C37" s="9">
-        <v>13800138113</v>
+        <v>15221050422</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -1570,13 +2523,13 @@
     </row>
     <row r="38" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B38" s="9">
-        <v>13800138999</v>
+        <v>15221010111</v>
       </c>
       <c r="C38" s="9">
-        <v>13800138999</v>
+        <v>15221010111</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -1592,13 +2545,13 @@
     </row>
     <row r="39" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B39" s="9">
-        <v>13800000777</v>
+        <v>13800138113</v>
       </c>
       <c r="C39" s="9">
-        <v>13800000777</v>
+        <v>13800138113</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -1614,13 +2567,13 @@
     </row>
     <row r="40" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B40" s="9">
-        <v>13800137000</v>
+        <v>13800138999</v>
       </c>
       <c r="C40" s="9">
-        <v>13800137000</v>
+        <v>13800138999</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -1636,13 +2589,13 @@
     </row>
     <row r="41" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B41" s="9">
-        <v>13600138000</v>
+        <v>13800000777</v>
       </c>
       <c r="C41" s="9">
-        <v>13600138000</v>
+        <v>13800000777</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -1658,13 +2611,13 @@
     </row>
     <row r="42" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B42" s="9">
-        <v>13800138234</v>
+        <v>13800137000</v>
       </c>
       <c r="C42" s="9">
-        <v>13800138234</v>
+        <v>13800137000</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -1680,13 +2633,13 @@
     </row>
     <row r="43" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B43" s="9">
-        <v>13899138000</v>
+        <v>13600138000</v>
       </c>
       <c r="C43" s="9">
-        <v>13899138000</v>
+        <v>13600138000</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -1702,13 +2655,13 @@
     </row>
     <row r="44" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B44" s="9">
-        <v>15221050311</v>
+        <v>13800138234</v>
       </c>
       <c r="C44" s="9">
-        <v>15221050311</v>
+        <v>13800138234</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -1724,13 +2677,13 @@
     </row>
     <row r="45" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B45" s="9">
-        <v>13800138016</v>
+        <v>13899138000</v>
       </c>
       <c r="C45" s="9">
-        <v>13800138016</v>
+        <v>13899138000</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -1746,13 +2699,13 @@
     </row>
     <row r="46" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B46" s="9">
-        <v>13800000002</v>
+        <v>15221050311</v>
       </c>
       <c r="C46" s="9">
-        <v>13800000002</v>
+        <v>15221050311</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -1768,13 +2721,13 @@
     </row>
     <row r="47" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B47" s="9">
-        <v>13000137000</v>
+        <v>13800138016</v>
       </c>
       <c r="C47" s="9">
-        <v>13000137000</v>
+        <v>13800138016</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -1790,13 +2743,13 @@
     </row>
     <row r="48" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B48" s="9">
-        <v>13899138777</v>
+        <v>13800000002</v>
       </c>
       <c r="C48" s="9">
-        <v>13899138777</v>
+        <v>13800000002</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
@@ -1812,18 +2765,18 @@
     </row>
     <row r="49" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B49" s="9">
-        <v>13800000000</v>
+        <v>13000137000</v>
       </c>
       <c r="C49" s="9">
-        <v>13901758467</v>
+        <v>13000137000</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
-      <c r="F49" s="9" t="s">
-        <v>23</v>
+      <c r="F49" s="9">
+        <v/>
       </c>
       <c r="G49" s="9" t="b">
         <v>0</v>
@@ -1834,16 +2787,16 @@
     </row>
     <row r="50" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="9"/>
+        <v>77</v>
+      </c>
+      <c r="B50" s="9">
+        <v>13899138777</v>
+      </c>
+      <c r="C50" s="9">
+        <v>13899138777</v>
+      </c>
       <c r="D50" s="9"/>
-      <c r="E50" s="9" t="s">
-        <v>76</v>
-      </c>
+      <c r="E50" s="9"/>
       <c r="F50" s="9">
         <v/>
       </c>
@@ -1856,16 +2809,16 @@
     </row>
     <row r="51" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="9"/>
+      <c r="B51" s="9">
+        <v>13800000000</v>
+      </c>
+      <c r="C51" s="9">
+        <v>13901758467</v>
+      </c>
       <c r="D51" s="9"/>
-      <c r="E51" s="9" t="s">
-        <v>79</v>
-      </c>
+      <c r="E51" s="9"/>
       <c r="F51" s="9" t="s">
         <v>23</v>
       </c>
@@ -1873,21 +2826,21 @@
         <v>0</v>
       </c>
       <c r="H51" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E52" s="9"/>
       <c r="F52" s="9">
         <v/>
       </c>
@@ -1902,35 +2855,35 @@
       <c r="A53" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="9">
-        <v>13564688413</v>
-      </c>
-      <c r="C53" s="9">
-        <v>13564688413</v>
-      </c>
+      <c r="B53" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="9"/>
       <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9">
-        <v/>
+      <c r="E53" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G53" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H53" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B54" s="9">
-        <v>13818010371</v>
-      </c>
-      <c r="C54" s="9">
-        <v>13818010371</v>
-      </c>
-      <c r="D54" s="9"/>
+        <v>85</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9">
         <v/>
@@ -1944,16 +2897,16 @@
     </row>
     <row r="55" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="9"/>
+        <v>87</v>
+      </c>
+      <c r="B55" s="9">
+        <v>13564688413</v>
+      </c>
+      <c r="C55" s="9">
+        <v>13564688413</v>
+      </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="9" t="s">
-        <v>86</v>
-      </c>
+      <c r="E55" s="9"/>
       <c r="F55" s="9">
         <v/>
       </c>
@@ -1966,101 +2919,101 @@
     </row>
     <row r="56" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="B56" s="9">
+        <v>13818010371</v>
+      </c>
+      <c r="C56" s="9">
+        <v>13818010371</v>
+      </c>
+      <c r="D56" s="9"/>
       <c r="E56" s="9"/>
-      <c r="F56" s="9" t="s">
-        <v>38</v>
+      <c r="F56" s="9">
+        <v/>
       </c>
       <c r="G56" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H56" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B57" s="9">
-        <v>13838383838</v>
-      </c>
-      <c r="C57" s="9">
-        <v>13838383838</v>
-      </c>
+      <c r="B57" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="9"/>
       <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9" t="s">
-        <v>23</v>
+      <c r="E57" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F57" s="9">
+        <v/>
       </c>
       <c r="G57" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H57" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B58" s="9">
-        <v>13939393939</v>
-      </c>
-      <c r="C58" s="9">
-        <v>13939393939</v>
-      </c>
-      <c r="D58" s="9"/>
+        <v>92</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="E58" s="9"/>
-      <c r="F58" s="9">
-        <v/>
+      <c r="F58" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="G58" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H58" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B59" s="9">
-        <v>15252525252</v>
+        <v>13838383838</v>
       </c>
       <c r="C59" s="9">
-        <v>15252525252</v>
+        <v>13838383838</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
-      <c r="F59" s="9">
-        <v/>
+      <c r="F59" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G59" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H59" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B60" s="9">
-        <v>13333333333</v>
+        <v>13939393939</v>
       </c>
       <c r="C60" s="9">
-        <v>13333333333</v>
+        <v>13939393939</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
@@ -2076,16 +3029,16 @@
     </row>
     <row r="61" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" s="9"/>
+        <v>96</v>
+      </c>
+      <c r="B61" s="9">
+        <v>15252525252</v>
+      </c>
+      <c r="C61" s="9">
+        <v>15252525252</v>
+      </c>
       <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
-        <v>94</v>
-      </c>
+      <c r="E61" s="9"/>
       <c r="F61" s="9">
         <v/>
       </c>
@@ -2098,16 +3051,16 @@
     </row>
     <row r="62" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C62" s="9"/>
+        <v>97</v>
+      </c>
+      <c r="B62" s="9">
+        <v>13333333333</v>
+      </c>
+      <c r="C62" s="9">
+        <v>13333333333</v>
+      </c>
       <c r="D62" s="9"/>
-      <c r="E62" s="9" t="s">
-        <v>97</v>
-      </c>
+      <c r="E62" s="9"/>
       <c r="F62" s="9">
         <v/>
       </c>
@@ -2123,12 +3076,12 @@
         <v>98</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F63" s="9">
         <v/>
@@ -2142,18 +3095,16 @@
     </row>
     <row r="64" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="F64" s="9">
         <v/>
       </c>
@@ -2161,45 +3112,45 @@
         <v>0</v>
       </c>
       <c r="H64" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C65" s="9">
-        <v>12345678901</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>23</v>
+        <v>105</v>
+      </c>
+      <c r="F65" s="9">
+        <v/>
       </c>
       <c r="G65" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H65" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E66" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E66" s="9"/>
       <c r="F66" s="9">
         <v/>
       </c>
@@ -2207,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" x14ac:dyDescent="0.25">
@@ -2217,13 +3168,15 @@
       <c r="B67" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9">
-        <v/>
+      <c r="C67" s="9">
+        <v>12345678901</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G67" s="9" t="b">
         <v>0</v>
@@ -2234,38 +3187,38 @@
     </row>
     <row r="68" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B68" s="9">
-        <v>13806104550</v>
-      </c>
-      <c r="C68" s="9">
-        <v>13806104550</v>
-      </c>
-      <c r="D68" s="9"/>
+        <v>113</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="E68" s="9"/>
-      <c r="F68" s="9" t="s">
-        <v>23</v>
+      <c r="F68" s="9">
+        <v/>
       </c>
       <c r="G68" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H68" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9" t="s">
-        <v>114</v>
-      </c>
+      <c r="D69" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E69" s="9"/>
       <c r="F69" s="9">
         <v/>
       </c>
@@ -2273,29 +3226,29 @@
         <v>0</v>
       </c>
       <c r="H69" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C70" s="9"/>
+        <v>117</v>
+      </c>
+      <c r="B70" s="9">
+        <v>13806104550</v>
+      </c>
+      <c r="C70" s="9">
+        <v>13806104550</v>
+      </c>
       <c r="D70" s="9"/>
-      <c r="E70" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F70" s="9">
-        <v/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G70" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H70" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" x14ac:dyDescent="0.25">
@@ -2303,35 +3256,35 @@
         <v>118</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>38</v>
+        <v>119</v>
+      </c>
+      <c r="F71" s="9">
+        <v/>
       </c>
       <c r="G71" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H71" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E72" s="9"/>
       <c r="F72" s="9">
         <v/>
       </c>
@@ -2339,7 +3292,3403 @@
         <v>0</v>
       </c>
       <c r="H72" s="9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G73" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9">
+        <v/>
+      </c>
+      <c r="G74" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F75" s="9">
+        <v/>
+      </c>
+      <c r="G75" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" s="9">
+        <v>18521531024</v>
+      </c>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F76" s="9">
+        <v/>
+      </c>
+      <c r="G76" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F77" s="9">
+        <v/>
+      </c>
+      <c r="G77" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78" s="9">
+        <v>15221050498</v>
+      </c>
+      <c r="C78" s="9">
+        <v>15221050498</v>
+      </c>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G78" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79" s="9">
+        <v>15221050411</v>
+      </c>
+      <c r="C79" s="9">
+        <v>15221050411</v>
+      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9">
+        <v/>
+      </c>
+      <c r="G79" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B80" s="9">
+        <v>15221050499</v>
+      </c>
+      <c r="C80" s="9">
+        <v>15221050499</v>
+      </c>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9">
+        <v/>
+      </c>
+      <c r="G80" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B81" s="9">
+        <v>13800139000</v>
+      </c>
+      <c r="C81" s="9">
+        <v>13800139000</v>
+      </c>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9">
+        <v/>
+      </c>
+      <c r="G81" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B82" s="9">
+        <v>15221050432</v>
+      </c>
+      <c r="C82" s="9">
+        <v>15221050432</v>
+      </c>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9">
+        <v/>
+      </c>
+      <c r="G82" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B83" s="9">
+        <v>15821012345</v>
+      </c>
+      <c r="C83" s="9">
+        <v>15821012345</v>
+      </c>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9">
+        <v/>
+      </c>
+      <c r="G83" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B84" s="9">
+        <v>15221121212</v>
+      </c>
+      <c r="C84" s="9">
+        <v>15221121212</v>
+      </c>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9">
+        <v/>
+      </c>
+      <c r="G84" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9">
+        <v/>
+      </c>
+      <c r="G85" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F86" s="9">
+        <v/>
+      </c>
+      <c r="G86" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B87" s="9">
+        <v>13899139777</v>
+      </c>
+      <c r="C87" s="9">
+        <v>13899139777</v>
+      </c>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9">
+        <v/>
+      </c>
+      <c r="G87" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G88" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G89" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G90" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F91" s="9">
+        <v/>
+      </c>
+      <c r="G91" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G92" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B93" s="9">
+        <v>3922893704</v>
+      </c>
+      <c r="C93" s="9">
+        <v>98765432100</v>
+      </c>
+      <c r="D93" s="9">
+        <v/>
+      </c>
+      <c r="E93" s="9">
+        <v>3922893704</v>
+      </c>
+      <c r="F93" s="9">
+        <v/>
+      </c>
+      <c r="G93" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94" s="9">
+        <v>13800138009</v>
+      </c>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F94" s="9">
+        <v/>
+      </c>
+      <c r="G94" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F95" s="9">
+        <v/>
+      </c>
+      <c r="G95" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G96" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F97" s="9">
+        <v/>
+      </c>
+      <c r="G97" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B98" s="9">
+        <v>13937168500</v>
+      </c>
+      <c r="C98" s="9">
+        <v>13937168500</v>
+      </c>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G98" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B99" s="9">
+        <v>13909828088</v>
+      </c>
+      <c r="C99" s="9">
+        <v>13909828088</v>
+      </c>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G99" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C100" s="9">
+        <v>18016006617</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G101" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H101" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G102" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G103" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C104" s="9">
+        <v>13568838004</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G104" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F105" s="9">
+        <v/>
+      </c>
+      <c r="G105" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G106" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G107" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H107" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9">
+        <v/>
+      </c>
+      <c r="G108" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H108" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G109" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H109" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9">
+        <v/>
+      </c>
+      <c r="G110" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H110" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9">
+        <v/>
+      </c>
+      <c r="G111" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H111" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9">
+        <v/>
+      </c>
+      <c r="G112" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H112" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G113" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H113" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G114" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H114" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G115" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H115" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G116" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H116" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" x14ac:dyDescent="0.25">
+      <c r="A117" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9">
+        <v/>
+      </c>
+      <c r="G117" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H117" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B118" s="9">
+        <v>15906100172</v>
+      </c>
+      <c r="C118" s="9">
+        <v>15906100172</v>
+      </c>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G118" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H118" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" x14ac:dyDescent="0.25">
+      <c r="A119" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G119" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H119" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" x14ac:dyDescent="0.25">
+      <c r="A120" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G120" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H120" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" x14ac:dyDescent="0.25">
+      <c r="A121" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9">
+        <v/>
+      </c>
+      <c r="G121" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H121" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G122" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H122" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G123" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H123" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G124" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H124" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" x14ac:dyDescent="0.25">
+      <c r="A125" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9">
+        <v/>
+      </c>
+      <c r="G125" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H125" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" x14ac:dyDescent="0.25">
+      <c r="A126" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B126" s="9">
+        <v>18640966567</v>
+      </c>
+      <c r="C126" s="9">
+        <v>18640966567</v>
+      </c>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9">
+        <v/>
+      </c>
+      <c r="G126" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H126" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F127" s="9">
+        <v/>
+      </c>
+      <c r="G127" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H127" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G128" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H128" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G129" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H129" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G130" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H130" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" x14ac:dyDescent="0.25">
+      <c r="A131" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9">
+        <v/>
+      </c>
+      <c r="G131" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H131" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" x14ac:dyDescent="0.25">
+      <c r="A132" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B132" s="9">
+        <v>13916196695</v>
+      </c>
+      <c r="C132" s="9">
+        <v>13916196695</v>
+      </c>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9">
+        <v/>
+      </c>
+      <c r="G132" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H132" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="F133" s="9">
+        <v/>
+      </c>
+      <c r="G133" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H133" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9">
+        <v/>
+      </c>
+      <c r="G134" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H134" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" x14ac:dyDescent="0.25">
+      <c r="A135" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C135" s="9">
+        <v>13501758595</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G135" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H135" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" x14ac:dyDescent="0.25">
+      <c r="A136" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G136" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H136" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G137" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H137" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G138" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H138" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G139" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H139" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9">
+        <v/>
+      </c>
+      <c r="G140" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H140" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G141" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H141" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C142" s="9">
+        <v>13578672391</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G142" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H142" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" x14ac:dyDescent="0.25">
+      <c r="A143" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F143" s="9">
+        <v/>
+      </c>
+      <c r="G143" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H143" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9">
+        <v/>
+      </c>
+      <c r="G144" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H144" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9">
+        <v/>
+      </c>
+      <c r="G145" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H145" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" x14ac:dyDescent="0.25">
+      <c r="A146" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G146" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H146" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" x14ac:dyDescent="0.25">
+      <c r="A147" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9">
+        <v/>
+      </c>
+      <c r="G147" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H147" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" x14ac:dyDescent="0.25">
+      <c r="A148" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="F148" s="9">
+        <v/>
+      </c>
+      <c r="G148" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H148" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" x14ac:dyDescent="0.25">
+      <c r="A149" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G149" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H149" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" x14ac:dyDescent="0.25">
+      <c r="A150" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G150" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H150" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" x14ac:dyDescent="0.25">
+      <c r="A151" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G151" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H151" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" x14ac:dyDescent="0.25">
+      <c r="A152" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G152" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H152" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G153" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H153" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" x14ac:dyDescent="0.25">
+      <c r="A154" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G154" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H154" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" x14ac:dyDescent="0.25">
+      <c r="A155" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9">
+        <v/>
+      </c>
+      <c r="G155" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H155" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" x14ac:dyDescent="0.25">
+      <c r="A156" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G156" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H156" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B157" s="9">
+        <v>18660107783</v>
+      </c>
+      <c r="C157" s="9">
+        <v>18660107783</v>
+      </c>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G157" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H157" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" x14ac:dyDescent="0.25">
+      <c r="A158" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C158" s="9">
+        <v>13908230454</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F158" s="9">
+        <v/>
+      </c>
+      <c r="G158" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H158" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" x14ac:dyDescent="0.25">
+      <c r="A159" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C159" s="9"/>
+      <c r="D159" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G159" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H159" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" x14ac:dyDescent="0.25">
+      <c r="A160" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9">
+        <v/>
+      </c>
+      <c r="G160" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H160" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" x14ac:dyDescent="0.25">
+      <c r="A161" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G161" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H161" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" x14ac:dyDescent="0.25">
+      <c r="A162" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G162" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H162" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" x14ac:dyDescent="0.25">
+      <c r="A163" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C163" s="9"/>
+      <c r="D163" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9">
+        <v/>
+      </c>
+      <c r="G163" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H163" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" x14ac:dyDescent="0.25">
+      <c r="A164" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="F164" s="9">
+        <v/>
+      </c>
+      <c r="G164" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H164" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" x14ac:dyDescent="0.25">
+      <c r="A165" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C165" s="9">
+        <v>13806669413</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E165" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G165" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H165" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" x14ac:dyDescent="0.25">
+      <c r="A166" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C166" s="9"/>
+      <c r="D166" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G166" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H166" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" x14ac:dyDescent="0.25">
+      <c r="A167" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C167" s="9"/>
+      <c r="D167" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G167" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H167" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" x14ac:dyDescent="0.25">
+      <c r="A168" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G168" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H168" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" x14ac:dyDescent="0.25">
+      <c r="A169" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G169" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H169" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" x14ac:dyDescent="0.25">
+      <c r="A170" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G170" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H170" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" x14ac:dyDescent="0.25">
+      <c r="A171" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9">
+        <v/>
+      </c>
+      <c r="G171" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H171" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" x14ac:dyDescent="0.25">
+      <c r="A172" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B172" s="9">
+        <v>18653136175</v>
+      </c>
+      <c r="C172" s="9">
+        <v>18653136175</v>
+      </c>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9">
+        <v/>
+      </c>
+      <c r="G172" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H172" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" x14ac:dyDescent="0.25">
+      <c r="A173" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C173" s="9"/>
+      <c r="D173" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9">
+        <v/>
+      </c>
+      <c r="G173" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H173" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" x14ac:dyDescent="0.25">
+      <c r="A174" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C174" s="9"/>
+      <c r="D174" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9">
+        <v/>
+      </c>
+      <c r="G174" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H174" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" x14ac:dyDescent="0.25">
+      <c r="A175" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C175" s="9"/>
+      <c r="D175" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G175" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H175" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" x14ac:dyDescent="0.25">
+      <c r="A176" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C176" s="9"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="F176" s="9">
+        <v/>
+      </c>
+      <c r="G176" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H176" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" x14ac:dyDescent="0.25">
+      <c r="A177" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C177" s="9"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="F177" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G177" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H177" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" x14ac:dyDescent="0.25">
+      <c r="A178" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B178" s="9">
+        <v>13806101560</v>
+      </c>
+      <c r="C178" s="9">
+        <v>13806101560</v>
+      </c>
+      <c r="D178" s="9"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G178" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H178" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" x14ac:dyDescent="0.25">
+      <c r="A179" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="C179" s="9"/>
+      <c r="D179" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="E179" s="9"/>
+      <c r="F179" s="9">
+        <v/>
+      </c>
+      <c r="G179" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H179" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" x14ac:dyDescent="0.25">
+      <c r="A180" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C180" s="9"/>
+      <c r="D180" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G180" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H180" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" x14ac:dyDescent="0.25">
+      <c r="A181" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C181" s="9"/>
+      <c r="D181" s="9"/>
+      <c r="E181" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="F181" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G181" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H181" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" x14ac:dyDescent="0.25">
+      <c r="A182" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C182" s="9"/>
+      <c r="D182" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E182" s="9"/>
+      <c r="F182" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G182" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H182" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" x14ac:dyDescent="0.25">
+      <c r="A183" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C183" s="9">
+        <v>18801901440</v>
+      </c>
+      <c r="D183" s="9"/>
+      <c r="E183" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="F183" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G183" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H183" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" x14ac:dyDescent="0.25">
+      <c r="A184" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C184" s="9"/>
+      <c r="D184" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E184" s="9"/>
+      <c r="F184" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G184" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H184" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" x14ac:dyDescent="0.25">
+      <c r="A185" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C185" s="9">
+        <v>15275942285</v>
+      </c>
+      <c r="D185" s="9"/>
+      <c r="E185" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="F185" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G185" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H185" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" x14ac:dyDescent="0.25">
+      <c r="A186" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C186" s="9"/>
+      <c r="D186" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E186" s="9"/>
+      <c r="F186" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G186" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H186" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" x14ac:dyDescent="0.25">
+      <c r="A187" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C187" s="9"/>
+      <c r="D187" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G187" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H187" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" x14ac:dyDescent="0.25">
+      <c r="A188" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C188" s="9"/>
+      <c r="D188" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="E188" s="9"/>
+      <c r="F188" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G188" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H188" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" x14ac:dyDescent="0.25">
+      <c r="A189" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C189" s="9"/>
+      <c r="D189" s="9"/>
+      <c r="E189" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="F189" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G189" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H189" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" x14ac:dyDescent="0.25">
+      <c r="A190" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C190" s="9"/>
+      <c r="D190" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="E190" s="9"/>
+      <c r="F190" s="9">
+        <v/>
+      </c>
+      <c r="G190" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H190" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" x14ac:dyDescent="0.25">
+      <c r="A191" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C191" s="9"/>
+      <c r="D191" s="9"/>
+      <c r="E191" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="F191" s="9">
+        <v/>
+      </c>
+      <c r="G191" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H191" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" x14ac:dyDescent="0.25">
+      <c r="A192" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C192" s="9"/>
+      <c r="D192" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="E192" s="9"/>
+      <c r="F192" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G192" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H192" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" x14ac:dyDescent="0.25">
+      <c r="A193" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C193" s="9"/>
+      <c r="D193" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E193" s="9"/>
+      <c r="F193" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G193" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H193" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" x14ac:dyDescent="0.25">
+      <c r="A194" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B194" s="9">
+        <v>13376180298</v>
+      </c>
+      <c r="C194" s="9">
+        <v>13376180298</v>
+      </c>
+      <c r="D194" s="9"/>
+      <c r="E194" s="9"/>
+      <c r="F194" s="9">
+        <v/>
+      </c>
+      <c r="G194" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H194" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" x14ac:dyDescent="0.25">
+      <c r="A195" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="C195" s="9"/>
+      <c r="D195" s="9"/>
+      <c r="E195" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="F195" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G195" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H195" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" x14ac:dyDescent="0.25">
+      <c r="A196" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B196" s="9">
+        <v>15906101152</v>
+      </c>
+      <c r="C196" s="9">
+        <v>15906101152</v>
+      </c>
+      <c r="D196" s="9"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="9">
+        <v/>
+      </c>
+      <c r="G196" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H196" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" x14ac:dyDescent="0.25">
+      <c r="A197" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C197" s="9"/>
+      <c r="D197" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="E197" s="9"/>
+      <c r="F197" s="9">
+        <v/>
+      </c>
+      <c r="G197" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H197" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" x14ac:dyDescent="0.25">
+      <c r="A198" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C198" s="9"/>
+      <c r="D198" s="9"/>
+      <c r="E198" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="F198" s="9">
+        <v/>
+      </c>
+      <c r="G198" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H198" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" x14ac:dyDescent="0.25">
+      <c r="A199" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C199" s="9"/>
+      <c r="D199" s="9"/>
+      <c r="E199" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="F199" s="9">
+        <v/>
+      </c>
+      <c r="G199" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H199" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" x14ac:dyDescent="0.25">
+      <c r="A200" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="B200" s="9">
+        <v>13916364925</v>
+      </c>
+      <c r="C200" s="9">
+        <v>13916364925</v>
+      </c>
+      <c r="D200" s="9"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="9">
+        <v/>
+      </c>
+      <c r="G200" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H200" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" x14ac:dyDescent="0.25">
+      <c r="A201" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B201" s="9">
+        <v>15906100920</v>
+      </c>
+      <c r="C201" s="9">
+        <v>15906100920</v>
+      </c>
+      <c r="D201" s="9"/>
+      <c r="E201" s="9"/>
+      <c r="F201" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G201" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H201" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" x14ac:dyDescent="0.25">
+      <c r="A202" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C202" s="9"/>
+      <c r="D202" s="9"/>
+      <c r="E202" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="F202" s="9">
+        <v/>
+      </c>
+      <c r="G202" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H202" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" x14ac:dyDescent="0.25">
+      <c r="A203" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C203" s="9"/>
+      <c r="D203" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="E203" s="9"/>
+      <c r="F203" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G203" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H203" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" x14ac:dyDescent="0.25">
+      <c r="A204" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C204" s="9"/>
+      <c r="D204" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="E204" s="9"/>
+      <c r="F204" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G204" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H204" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" x14ac:dyDescent="0.25">
+      <c r="A205" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C205" s="9">
+        <v>15906101031</v>
+      </c>
+      <c r="D205" s="9"/>
+      <c r="E205" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="F205" s="9">
+        <v/>
+      </c>
+      <c r="G205" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H205" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" x14ac:dyDescent="0.25">
+      <c r="A206" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="B206" s="9">
+        <v>13506102028</v>
+      </c>
+      <c r="C206" s="9">
+        <v>13506102028</v>
+      </c>
+      <c r="D206" s="9"/>
+      <c r="E206" s="9"/>
+      <c r="F206" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G206" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H206" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" x14ac:dyDescent="0.25">
+      <c r="A207" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C207" s="9"/>
+      <c r="D207" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="E207" s="9"/>
+      <c r="F207" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G207" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H207" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" x14ac:dyDescent="0.25">
+      <c r="A208" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="C208" s="9"/>
+      <c r="D208" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E208" s="9"/>
+      <c r="F208" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G208" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H208" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" x14ac:dyDescent="0.25">
+      <c r="A209" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="C209" s="9"/>
+      <c r="D209" s="9"/>
+      <c r="E209" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="F209" s="9">
+        <v/>
+      </c>
+      <c r="G209" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H209" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" x14ac:dyDescent="0.25">
+      <c r="A210" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C210" s="9"/>
+      <c r="D210" s="9"/>
+      <c r="E210" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="F210" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G210" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H210" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" x14ac:dyDescent="0.25">
+      <c r="A211" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C211" s="9"/>
+      <c r="D211" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="E211" s="9"/>
+      <c r="F211" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G211" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H211" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" x14ac:dyDescent="0.25">
+      <c r="A212" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C212" s="9"/>
+      <c r="D212" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="E212" s="9"/>
+      <c r="F212" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G212" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H212" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" x14ac:dyDescent="0.25">
+      <c r="A213" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="C213" s="9"/>
+      <c r="D213" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="E213" s="9"/>
+      <c r="F213" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G213" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H213" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" x14ac:dyDescent="0.25">
+      <c r="A214" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C214" s="9"/>
+      <c r="D214" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="E214" s="9"/>
+      <c r="F214" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G214" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H214" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" x14ac:dyDescent="0.25">
+      <c r="A215" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C215" s="9"/>
+      <c r="D215" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="E215" s="9"/>
+      <c r="F215" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G215" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H215" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" x14ac:dyDescent="0.25">
+      <c r="A216" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C216" s="9"/>
+      <c r="D216" s="9"/>
+      <c r="E216" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="F216" s="9">
+        <v/>
+      </c>
+      <c r="G216" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H216" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" x14ac:dyDescent="0.25">
+      <c r="A217" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B217" s="9">
+        <v>18021220711</v>
+      </c>
+      <c r="C217" s="9">
+        <v>18021220711</v>
+      </c>
+      <c r="D217" s="9"/>
+      <c r="E217" s="9"/>
+      <c r="F217" s="9">
+        <v/>
+      </c>
+      <c r="G217" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H217" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" x14ac:dyDescent="0.25">
+      <c r="A218" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C218" s="9"/>
+      <c r="D218" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="E218" s="9"/>
+      <c r="F218" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G218" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H218" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" x14ac:dyDescent="0.25">
+      <c r="A219" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B219" s="9">
+        <v>18602743200</v>
+      </c>
+      <c r="C219" s="9">
+        <v>18602743200</v>
+      </c>
+      <c r="D219" s="9"/>
+      <c r="E219" s="9"/>
+      <c r="F219" s="9">
+        <v/>
+      </c>
+      <c r="G219" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H219" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" x14ac:dyDescent="0.25">
+      <c r="A220" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B220" s="9">
+        <v>13764518105</v>
+      </c>
+      <c r="C220" s="9">
+        <v>13764518105</v>
+      </c>
+      <c r="D220" s="9"/>
+      <c r="E220" s="9"/>
+      <c r="F220" s="9">
+        <v/>
+      </c>
+      <c r="G220" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H220" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" x14ac:dyDescent="0.25">
+      <c r="A221" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B221" s="9">
+        <v>15906101153</v>
+      </c>
+      <c r="C221" s="9">
+        <v>15906101153</v>
+      </c>
+      <c r="D221" s="9"/>
+      <c r="E221" s="9"/>
+      <c r="F221" s="9">
+        <v/>
+      </c>
+      <c r="G221" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H221" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" x14ac:dyDescent="0.25">
+      <c r="A222" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C222" s="9"/>
+      <c r="D222" s="9"/>
+      <c r="E222" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="F222" s="9">
+        <v/>
+      </c>
+      <c r="G222" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H222" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" x14ac:dyDescent="0.25">
+      <c r="A223" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C223" s="9"/>
+      <c r="D223" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="E223" s="9"/>
+      <c r="F223" s="9">
+        <v/>
+      </c>
+      <c r="G223" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H223" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" x14ac:dyDescent="0.25">
+      <c r="A224" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C224" s="9"/>
+      <c r="D224" s="9"/>
+      <c r="E224" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="F224" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G224" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H224" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" x14ac:dyDescent="0.25">
+      <c r="A225" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C225" s="9"/>
+      <c r="D225" s="9"/>
+      <c r="E225" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="F225" s="9">
+        <v/>
+      </c>
+      <c r="G225" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H225" s="9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/static/appuser/appuser.xlsx
+++ b/static/appuser/appuser.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="467">
   <si>
     <t>编号</t>
   </si>
@@ -172,1174 +172,1249 @@
     <t>53a79e221b889b3e70c56760</t>
   </si>
   <si>
+    <t>537394dead756d6a6e4444aa</t>
+  </si>
+  <si>
+    <t>5373972cad756d6a6e4444ac</t>
+  </si>
+  <si>
+    <t>53739779ad756d6a6e4444ad</t>
+  </si>
+  <si>
+    <t>5373985dad756d6a6e4444ae</t>
+  </si>
+  <si>
+    <t>53739a02ad756d6a6e4444af</t>
+  </si>
+  <si>
+    <t>53739aa5ad756d6a6e4444b0</t>
+  </si>
+  <si>
+    <t>53739ac8ad756d6a6e4444b1</t>
+  </si>
+  <si>
+    <t>1@1.com</t>
+  </si>
+  <si>
+    <t>537420d4ad756d6a6e4444b2</t>
+  </si>
+  <si>
+    <t>53742105ad756d6a6e4444b3</t>
+  </si>
+  <si>
+    <t>537421881f802dce7b94c8f2</t>
+  </si>
+  <si>
+    <t>53742493662918ba7ca30a73</t>
+  </si>
+  <si>
+    <t>5374253aaf168a197d3d54d7</t>
+  </si>
+  <si>
+    <t>537425702585f7b97e668260</t>
+  </si>
+  <si>
+    <t>53742a5dc55ebe9406011d74</t>
+  </si>
+  <si>
+    <t>53742a79c55ebe9406011d75</t>
+  </si>
+  <si>
+    <t>53742aa3c55ebe9406011d76</t>
+  </si>
+  <si>
+    <t>53742d12c55ebe9406011d77</t>
+  </si>
+  <si>
+    <t>53742d47c55ebe9406011d79</t>
+  </si>
+  <si>
+    <t>53742d71c55ebe9406011d7a</t>
+  </si>
+  <si>
+    <t>5374318930e7cfda0ea41ba1</t>
+  </si>
+  <si>
+    <t>537431d730e7cfda0ea41ba2</t>
+  </si>
+  <si>
+    <t>537431fb30e7cfda0ea41ba3</t>
+  </si>
+  <si>
+    <t>537433c230e7cfda0ea41ba4</t>
+  </si>
+  <si>
+    <t>5375bda311083157399b6630</t>
+  </si>
+  <si>
+    <t>5376f60fc31fda8941248c65</t>
+  </si>
+  <si>
+    <t>十月左巴</t>
+  </si>
+  <si>
+    <t>DB161AF852CA0940709DB3B7126E1064</t>
+  </si>
+  <si>
+    <t>53708c075a8f566756f20a17</t>
+  </si>
+  <si>
+    <t>至爱吾女</t>
+  </si>
+  <si>
+    <t>58B027C651FB73879FF9FF6A50E752AA</t>
+  </si>
+  <si>
+    <t>538df93bb44702831502037b</t>
+  </si>
+  <si>
+    <t>kulapika8@163.com</t>
+  </si>
+  <si>
+    <t>538dfa7bb44702831502037c</t>
+  </si>
+  <si>
+    <t>538e88c2b44702831502037d</t>
+  </si>
+  <si>
+    <t>538edf971b597974238e9652</t>
+  </si>
+  <si>
+    <t>巴拉巴拉</t>
+  </si>
+  <si>
+    <t>EEAC5AB1A1615F7B995994F059B91E2D</t>
+  </si>
+  <si>
+    <t>5390167815a0aef4244671f7</t>
+  </si>
+  <si>
+    <t>evexia@qq.com</t>
+  </si>
+  <si>
+    <t>5390188815a0aef4244671f8</t>
+  </si>
+  <si>
+    <t>539018be15a0aef4244671f9</t>
+  </si>
+  <si>
+    <t>5390196315a0aef4244671fa</t>
+  </si>
+  <si>
+    <t>53901a0c15a0aef4244671fb</t>
+  </si>
+  <si>
+    <t>5390273e15a0aef4244671fe</t>
+  </si>
+  <si>
+    <t>426DA872AC937B5D6F5523F6838A857C</t>
+  </si>
+  <si>
+    <t>5390278715a0aef4244671ff</t>
+  </si>
+  <si>
+    <t>夕羊小童鞋</t>
+  </si>
+  <si>
+    <t>2.00GrDUREoJ6_xCf309967476jJ8KXC</t>
+  </si>
+  <si>
+    <t>5390370615a0aef424467200</t>
+  </si>
+  <si>
+    <t>断弦的流章</t>
+  </si>
+  <si>
+    <t>0A7714FF7B0C932F18E16EBD50985712</t>
+  </si>
+  <si>
+    <t>5390210a15a0aef4244671fd</t>
+  </si>
+  <si>
+    <t>EVE</t>
+  </si>
+  <si>
+    <t>eve@sina.com</t>
+  </si>
+  <si>
+    <t>C2F46CCA797756602EC6756C5B2AD365</t>
+  </si>
+  <si>
+    <t>53707fe9c00818ad53fc1dd2</t>
+  </si>
+  <si>
+    <t>杰儿泪</t>
+  </si>
+  <si>
+    <t>0B64B8DCA20F40C3ED7779DB983E0BFE</t>
+  </si>
+  <si>
+    <t>53917225bcc04c0c43ffb725</t>
+  </si>
+  <si>
+    <t>wve@126.com</t>
+  </si>
+  <si>
+    <t>53917318bcc04c0c43ffb726</t>
+  </si>
+  <si>
+    <t>eve@123.com</t>
+  </si>
+  <si>
+    <t>5391e366e5d0c21b47a077f2</t>
+  </si>
+  <si>
+    <t>53950dfae5d0c21b47a077f3</t>
+  </si>
+  <si>
+    <t>2.00DN_BqDoJ6_xCbf9d4b8c050W3Cco</t>
+  </si>
+  <si>
+    <t>53951152e5d0c21b47a077f4</t>
+  </si>
+  <si>
+    <t>行者</t>
+  </si>
+  <si>
+    <t>0F3B54F368E43CB5BB119B015E60C3E3</t>
+  </si>
+  <si>
+    <t>53951f68e5d0c21b47a077f5</t>
+  </si>
+  <si>
+    <t>As long as you love me.</t>
+  </si>
+  <si>
+    <t>E2936F20EDE8811F2C8F5232704890BA</t>
+  </si>
+  <si>
+    <t>539536fbe5d0c21b47a077f6</t>
+  </si>
+  <si>
+    <t>eve@126.com</t>
+  </si>
+  <si>
+    <t>539571c0e5d0c21b47a077f8</t>
+  </si>
+  <si>
+    <t>难道就没有人爱王诗龄么.</t>
+  </si>
+  <si>
+    <t>9F29BABFBE4A01C306CE94E522D49D40</t>
+  </si>
+  <si>
+    <t>53956b42e5d0c21b47a077f7</t>
+  </si>
+  <si>
+    <t>22D8494C70EA175EAFCF77E334B4CAAD</t>
+  </si>
+  <si>
+    <t>53963ead88ad2de50c01350a</t>
+  </si>
+  <si>
+    <t>‭‭  </t>
+  </si>
+  <si>
+    <t>331E3D0B78F817B91F2E9B562545BF6F</t>
+  </si>
+  <si>
+    <t>5396652288ad2de50c01350b</t>
+  </si>
+  <si>
+    <t>5396663f88ad2de50c01350c</t>
+  </si>
+  <si>
+    <t>5396679a88ad2de50c01350e</t>
+  </si>
+  <si>
+    <t>5396683288ad2de50c01350f</t>
+  </si>
+  <si>
+    <t>53966adc88ad2de50c013510</t>
+  </si>
+  <si>
+    <t>5396703c88ad2de50c013511</t>
+  </si>
+  <si>
+    <t>5396763a88ad2de50c013512</t>
+  </si>
+  <si>
+    <t>539676cc88ad2de50c013513</t>
+  </si>
+  <si>
+    <t>william@louding.com</t>
+  </si>
+  <si>
+    <t>5396bacd88ad2de50c013515</t>
+  </si>
+  <si>
+    <t>Tao_xiao_98-88</t>
+  </si>
+  <si>
+    <t>D03B3FED7584B4E6D5D92E81FB4A2CA7</t>
+  </si>
+  <si>
+    <t>5396d3dc88ad2de50c013518</t>
+  </si>
+  <si>
+    <t>5396f4795b2ba5921e0c8c8f</t>
+  </si>
+  <si>
+    <t>‖  t °</t>
+  </si>
+  <si>
+    <t>06C146D0C8E156F28A91047C6517135D</t>
+  </si>
+  <si>
+    <t>53978cc35b2ba5921e0c8c90</t>
+  </si>
+  <si>
+    <t>宁夏</t>
+  </si>
+  <si>
+    <t>AD6135B8C881ACAC355A43AD7DC4F1AF</t>
+  </si>
+  <si>
+    <t>5397e0e25b2ba5921e0c8c92</t>
+  </si>
+  <si>
+    <t>178917614@qq.com</t>
+  </si>
+  <si>
+    <t>539874e1d3b38c21339fcfec</t>
+  </si>
+  <si>
+    <t>小桓OnePiece</t>
+  </si>
+  <si>
+    <t>5FAC5B37B1A6C24723E2C7B12C99777C</t>
+  </si>
+  <si>
+    <t>53993ba1d3b38c21339fcfed</t>
+  </si>
+  <si>
+    <t>娜些彼此</t>
+  </si>
+  <si>
+    <t>2.00JgNzvBoJ6_xC0cf4209f6bGgqgXD</t>
+  </si>
+  <si>
+    <t>5368b1cd5a38eb6e1881a31c</t>
+  </si>
+  <si>
+    <t>53996b77d3b38c21339fcfee</t>
+  </si>
+  <si>
+    <t>CAAKPkqRN0O8BAHU5pfGJcEkCTAo52FQJ7aSg3dYwAZAgWWopdbIGLQWVRayoTliBXDAlAuIpzx38KrGXB9ZBrKshuUpg1ZBCADcfnSoKPPWbJtXBfirFErfJwX9FMCpB0ZBnEosDeDSKCmGZASxB6j9z0ZCsf72cDUNCqhU9ZBZBFhuep3HTmc7qXxTILMcZBMWjTmZAtv1KNhjL14mtQPv4nR</t>
+  </si>
+  <si>
+    <t>5396aecf88ad2de50c013514</t>
+  </si>
+  <si>
+    <t>2.009O8NtBoJ6_xC55196f8d2f0p_rYs</t>
+  </si>
+  <si>
+    <t>539a8b4cd3b38c21339fcff4</t>
+  </si>
+  <si>
+    <t>爱薇儿</t>
+  </si>
+  <si>
+    <t>1853C71E5656F075871303C1DA5F9191</t>
+  </si>
+  <si>
+    <t>539a8feed3b38c21339fcff5</t>
+  </si>
+  <si>
+    <t>陆欣韡</t>
+  </si>
+  <si>
+    <t>2.00oK_qjBoJ6_xCaf95caf88cjsXG3E</t>
+  </si>
+  <si>
+    <t>539e98a5d3b38c21339fcffe</t>
+  </si>
+  <si>
+    <t>539f9fc4d3b38c21339fd001</t>
+  </si>
+  <si>
+    <t>539fa290d3b38c21339fd002</t>
+  </si>
+  <si>
+    <t>zhongpr@essilorchina.com</t>
+  </si>
+  <si>
+    <t>539fa3a6d3b38c21339fd003</t>
+  </si>
+  <si>
+    <t>wangxu@essilorchina.com</t>
+  </si>
+  <si>
+    <t>539fa3add3b38c21339fd004</t>
+  </si>
+  <si>
+    <t>dorayli@essilorchina.com</t>
+  </si>
+  <si>
+    <t>539fa597d3b38c21339fd005</t>
+  </si>
+  <si>
+    <t>zhouhui@cn.essilor.com</t>
+  </si>
+  <si>
+    <t>539fa734d3b38c21339fd007</t>
+  </si>
+  <si>
+    <t>qinjm@essilorchina.com</t>
+  </si>
+  <si>
+    <t>539fa8dfd3b38c21339fd008</t>
+  </si>
+  <si>
+    <t>大美</t>
+  </si>
+  <si>
+    <t>69562033EB8FAC1BC7B87F39029C8984</t>
+  </si>
+  <si>
+    <t>539faeaad3b38c21339fd00a</t>
+  </si>
+  <si>
+    <t>Liuxj@essilorchina.com</t>
+  </si>
+  <si>
+    <t>539fb0b7d3b38c21339fd00c</t>
+  </si>
+  <si>
+    <t>wangjc@essilorchina.com</t>
+  </si>
+  <si>
+    <t>539fb1c309c9a6c642e36a37</t>
+  </si>
+  <si>
+    <t>wangyw@essilorchina.com</t>
+  </si>
+  <si>
+    <t>539fb22809c9a6c642e36a39</t>
+  </si>
+  <si>
+    <t>luh@essilorchina.com</t>
+  </si>
+  <si>
+    <t>539fb25609c9a6c642e36a3b</t>
+  </si>
+  <si>
+    <t>137577679@qq.com</t>
+  </si>
+  <si>
+    <t>539fb326d2630be54290ba09</t>
+  </si>
+  <si>
+    <t>evexia@126.com</t>
+  </si>
+  <si>
+    <t>539fbb4ed2630be54290ba0c</t>
+  </si>
+  <si>
+    <t>chenq@essilorchina.com</t>
+  </si>
+  <si>
+    <t>539fbed8d2630be54290ba0d</t>
+  </si>
+  <si>
+    <t>zhang.jing@essilorchina.com</t>
+  </si>
+  <si>
+    <t>539fcaedd2630be54290ba10</t>
+  </si>
+  <si>
+    <t>zhaojun@essilorchina.com</t>
+  </si>
+  <si>
+    <t>539fc17ed2630be54290ba0e</t>
+  </si>
+  <si>
+    <t>chenti@essilorchina.com</t>
+  </si>
+  <si>
+    <t>chenti@essilorchina.con</t>
+  </si>
+  <si>
+    <t>539fe7d9d2630be54290ba12</t>
+  </si>
+  <si>
+    <t>qiaoxm@essilorchina.com</t>
+  </si>
+  <si>
+    <t>539fed1fd2630be54290ba15</t>
+  </si>
+  <si>
+    <t>627868300@qq.com</t>
+  </si>
+  <si>
+    <t>539fed8fd2630be54290ba16</t>
+  </si>
+  <si>
+    <t>53a00084d2630be54290ba1a</t>
+  </si>
+  <si>
+    <t>zhouyx@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a0041ad2630be54290ba1c</t>
+  </si>
+  <si>
+    <t>majun@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a00dd4d2630be54290ba20</t>
+  </si>
+  <si>
+    <t>zhuyq@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a00d83d2630be54290ba1f</t>
+  </si>
+  <si>
+    <t>sungq@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a017f9d2630be54290ba23</t>
+  </si>
+  <si>
+    <t>tangk@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a01ccbd2630be54290ba27</t>
+  </si>
+  <si>
+    <t>yug@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a0328ed2630be54290ba2b</t>
+  </si>
+  <si>
+    <t>yanchen@cn.essilor.com</t>
+  </si>
+  <si>
+    <t>53a032afd2630be54290ba2c</t>
+  </si>
+  <si>
+    <t>53a03852d2630be54290ba2d</t>
+  </si>
+  <si>
+    <t>聪聪妈</t>
+  </si>
+  <si>
+    <t>6843DBB14666C738402EDF325567257E</t>
+  </si>
+  <si>
+    <t>539fc431d2630be54290ba0f</t>
+  </si>
+  <si>
+    <t>chenyan@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a03a1cd2630be54290ba2e</t>
+  </si>
+  <si>
+    <t>linm@essilorchina.com</t>
+  </si>
+  <si>
+    <t>539fb7a8d2630be54290ba0a</t>
+  </si>
+  <si>
+    <t>Sunwm@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a047e0d2630be54290ba36</t>
+  </si>
+  <si>
+    <t>skycuicui2@163.com</t>
+  </si>
+  <si>
+    <t>53a051fdd2630be54290ba3a</t>
+  </si>
+  <si>
+    <t>53a05232d2630be54290ba3c</t>
+  </si>
+  <si>
+    <t>阿梓、喵~</t>
+  </si>
+  <si>
+    <t>9AD6AE8A1936160CE067673986F14665</t>
+  </si>
+  <si>
+    <t>53a0f85cd2630be54290ba64</t>
+  </si>
+  <si>
+    <t>Lisa@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a04fa1d2630be54290ba38</t>
+  </si>
+  <si>
+    <t>weichaoh@cn.essilor.com</t>
+  </si>
+  <si>
+    <t>53a0535bd2630be54290ba3e</t>
+  </si>
+  <si>
+    <t>qiuym@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a05716d2630be54290ba40</t>
+  </si>
+  <si>
+    <t>NICK</t>
+  </si>
+  <si>
+    <t>D467CADB4B3E046A56C3D1D20F0AB2CE</t>
+  </si>
+  <si>
+    <t>53a05e6cd2630be54290ba44</t>
+  </si>
+  <si>
+    <t>yuangl@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a06251d2630be54290ba46</t>
+  </si>
+  <si>
+    <t>yuj@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a06c3fd2630be54290ba48</t>
+  </si>
+  <si>
+    <t>liuk@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a079cdd2630be54290ba4b</t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>14B9BCC68FA3955127F0C091BBDB84C6</t>
+  </si>
+  <si>
+    <t>53a0b95bd2630be54290ba4c</t>
+  </si>
+  <si>
+    <t>2640595510@.qq.com</t>
+  </si>
+  <si>
+    <t>53a0d424d2630be54290ba4f</t>
+  </si>
+  <si>
+    <t>Colorful day</t>
+  </si>
+  <si>
+    <t>D589ADDDF1583ED7E66127EF14AE36C0</t>
+  </si>
+  <si>
+    <t>53a0d455d2630be54290ba50</t>
+  </si>
+  <si>
+    <t>wanglei@cn.essilor.com</t>
+  </si>
+  <si>
+    <t>53a0db38d2630be54290ba52</t>
+  </si>
+  <si>
+    <t>fanq@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a0dde5d2630be54290ba53</t>
+  </si>
+  <si>
+    <t>sales@swoptical.com</t>
+  </si>
+  <si>
+    <t>53a0deb3d2630be54290ba54</t>
+  </si>
+  <si>
+    <t>wangyanp@cn.essilor.com</t>
+  </si>
+  <si>
+    <t>53a0dfedd2630be54290ba56</t>
+  </si>
+  <si>
+    <t>柠七ii</t>
+  </si>
+  <si>
+    <t>2.00MTDhDDoJ6_xC19bdec728alIuWbC</t>
+  </si>
+  <si>
+    <t>53a0478dd2630be54290ba35</t>
+  </si>
+  <si>
+    <t>sunyu@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a0e623d2630be54290ba58</t>
+  </si>
+  <si>
+    <t>liyg@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a0ebb2d2630be54290ba5b</t>
+  </si>
+  <si>
+    <t>gaomj@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a0f1ecd2630be54290ba5e</t>
+  </si>
+  <si>
+    <t>wangbs@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a0f2bfd2630be54290ba5f</t>
+  </si>
+  <si>
+    <t>yuy@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a0f40fd2630be54290ba62</t>
+  </si>
+  <si>
+    <t>xief@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a0f550d2630be54290ba63</t>
+  </si>
+  <si>
+    <t>huanglj@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a0fa7cd2630be54290ba65</t>
+  </si>
+  <si>
+    <t>liyan@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a102d6d2630be54290ba6a</t>
+  </si>
+  <si>
+    <t>53a10542d2630be54290ba6d</t>
+  </si>
+  <si>
+    <t>驭麒麟</t>
+  </si>
+  <si>
+    <t>xuhch@essilorchina.com</t>
+  </si>
+  <si>
+    <t>C020D95E7ECA9E6E9EE25F93ED9D17F8</t>
+  </si>
+  <si>
+    <t>53a10809d2630be54290ba70</t>
+  </si>
+  <si>
+    <t>duanmz@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a1109dd2630be54290ba74</t>
+  </si>
+  <si>
+    <t>lixj@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a10faed2630be54290ba73</t>
+  </si>
+  <si>
+    <t>luy@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a11444d2630be54290ba75</t>
+  </si>
+  <si>
+    <t>meijt1245@hotmail.com</t>
+  </si>
+  <si>
+    <t>53a11d7ed2630be54290ba78</t>
+  </si>
+  <si>
+    <t>chenh@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a122a3d2630be54290ba79</t>
+  </si>
+  <si>
+    <t>circle</t>
+  </si>
+  <si>
+    <t>918814A19F1679E433597587FCD638B4</t>
+  </si>
+  <si>
+    <t>53a12385d2630be54290ba7b</t>
+  </si>
+  <si>
+    <t>在旅途</t>
+  </si>
+  <si>
+    <t>niesh@essilorchina.com</t>
+  </si>
+  <si>
+    <t>E2F04548E7A331B15913E00ECC902D20</t>
+  </si>
+  <si>
+    <t>53a1257fd2630be54290ba7d</t>
+  </si>
+  <si>
+    <t>jidw@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a12547d2630be54290ba7c</t>
+  </si>
+  <si>
+    <t>xucb@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a12317d2630be54290ba7a</t>
+  </si>
+  <si>
+    <t>liusj@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a12b2bd2630be54290ba80</t>
+  </si>
+  <si>
+    <t>liujm@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a12e93d2630be54290ba83</t>
+  </si>
+  <si>
+    <t>tianyl@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a13063d2630be54290ba84</t>
+  </si>
+  <si>
+    <t>zhongjianfei@wanxinop.com</t>
+  </si>
+  <si>
+    <t>53a13615d2630be54290ba8b</t>
+  </si>
+  <si>
+    <t>53a13670d2630be54290ba8c</t>
+  </si>
+  <si>
+    <t>zhangbaifang@wanxinop.com</t>
+  </si>
+  <si>
+    <t>53a13725d2630be54290ba8f</t>
+  </si>
+  <si>
+    <t>1195202489@qq.com</t>
+  </si>
+  <si>
+    <t>53a13707d2630be54290ba8e</t>
+  </si>
+  <si>
+    <t>zhangx@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a13c13d2630be54290ba92</t>
+  </si>
+  <si>
+    <t>胡俊                 //</t>
+  </si>
+  <si>
+    <t>CF83B51036187F11AB0A4594A07F3296</t>
+  </si>
+  <si>
+    <t>53a147d6d2630be54290ba97</t>
+  </si>
+  <si>
+    <t>   尽</t>
+  </si>
+  <si>
+    <t>2CF08484AEC1E0A68EDF2448E946FDB6</t>
+  </si>
+  <si>
+    <t>53a14a07d2630be54290ba99</t>
+  </si>
+  <si>
+    <t>53a14aeed2630be54290ba9b</t>
+  </si>
+  <si>
+    <t>610492017@qq.com</t>
+  </si>
+  <si>
+    <t>53a10822d2630be54290ba71</t>
+  </si>
+  <si>
+    <t>panyifen@cn.essilor.com</t>
+  </si>
+  <si>
+    <t>53a15f73d2630be54290baa8</t>
+  </si>
+  <si>
+    <t>九九妈</t>
+  </si>
+  <si>
+    <t>52CF6A0D9458B40685569C065C993B0D</t>
+  </si>
+  <si>
+    <t>53a16d55d2630be54290baaa</t>
+  </si>
+  <si>
+    <t>gongq@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a174f7d2630be54290baac</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>07D88CFD2FC1021D520B925D9D3E02BF</t>
+  </si>
+  <si>
+    <t>53a17b61d2630be54290baad</t>
+  </si>
+  <si>
+    <t>tracyque@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a18230d2630be54290baaf</t>
+  </si>
+  <si>
+    <t>柠檬</t>
+  </si>
+  <si>
+    <t>9D49635F23F379CB2E8773280DA397DF</t>
+  </si>
+  <si>
+    <t>53a19dacd2630be54290bab7</t>
+  </si>
+  <si>
+    <t>linan@cn.essilor.com</t>
+  </si>
+  <si>
+    <t>53a1b0ddd2630be54290babc</t>
+  </si>
+  <si>
+    <t>liuhui@wanxinop.com</t>
+  </si>
+  <si>
+    <t>53a1b954d2630be54290babe</t>
+  </si>
+  <si>
+    <t>nizhidan@wanxinop.com</t>
+  </si>
+  <si>
+    <t>53a2104ad2630be54290bac1</t>
+  </si>
+  <si>
+    <t>o0孤单美食家0o</t>
+  </si>
+  <si>
+    <t>2.00WbeHGCoJ6_xC09f5d76b4bvgefkB</t>
+  </si>
+  <si>
+    <t>53a228f1d2630be54290bac2</t>
+  </si>
+  <si>
+    <t>jiaohua@wanxinop.com</t>
+  </si>
+  <si>
+    <t>53a22c91d2630be54290bac3</t>
+  </si>
+  <si>
+    <t>Carson</t>
+  </si>
+  <si>
+    <t>6126E34F4D080A13DCEDFAF9773DAA45</t>
+  </si>
+  <si>
+    <t>53a22cbad2630be54290bac4</t>
+  </si>
+  <si>
+    <t>zengwenjun@wanxinop.com</t>
+  </si>
+  <si>
+    <t>53a1a21ed2630be54290bab9</t>
+  </si>
+  <si>
+    <t>guxinwei@cn.essilor.com</t>
+  </si>
+  <si>
+    <t>53a2554b1b889b3e70c566a8</t>
+  </si>
+  <si>
+    <t>53a260ca1b889b3e70c566ea</t>
+  </si>
+  <si>
+    <t>快樂每一天</t>
+  </si>
+  <si>
+    <t>9E314036FCCA85A5723D89635F1E64AF</t>
+  </si>
+  <si>
+    <t>53a270631b889b3e70c566ee</t>
+  </si>
+  <si>
+    <t>53a282391b889b3e70c566f2</t>
+  </si>
+  <si>
+    <t>shenyx@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a2845a1b889b3e70c566f3</t>
+  </si>
+  <si>
+    <t>CAAKPkqRN0O8BAKqOT8J8CgXttvUZC2LhhscRYpkuCMaxt5N4FMP8pguSSH3HTvnu4q64kGeQtMEPHXTAr5t56gNT3X7WF79mNLcXUUneqw9BY60ojZBfva1n5vnYOOHg3HFSJ6syQ8yPVClZBqEfxxmUn0iyF84V2YbKea0p6AfExIJu5Bb</t>
+  </si>
+  <si>
+    <t>53a2a2111b889b3e70c566f7</t>
+  </si>
+  <si>
+    <t>CAAKPkqRN0O8BANCrkuTX4LZC3tL3UMt0BkMgDtNdnMH0rwPXnIbWLzDJZBhXM6qftz6iPfCIwc3cd1qzRdVqpyMxZCOIQZCSHQ77Uko3SQtQolO8sETrsSzqS6hHC7ZC8ZC5p5eSOCl7eMi6r5wNENudS56nZCSpb5MEMzkPZAVdEHFMmIQheFzCvDhIB9sG9Y42VuwAWj8PX8upjkPWiTJs</t>
+  </si>
+  <si>
+    <t>53a2b2541b889b3e70c566f8</t>
+  </si>
+  <si>
+    <t>53a2c7de1b889b3e70c566fa</t>
+  </si>
+  <si>
+    <t>53a2e0851b889b3e70c566fe</t>
+  </si>
+  <si>
+    <t>袁姓</t>
+  </si>
+  <si>
+    <t>B1399B3D0D7AEEB03505EBF0C6AE13AB</t>
+  </si>
+  <si>
+    <t>53a2ee871b889b3e70c56701</t>
+  </si>
+  <si>
+    <t>317611018@qq.con</t>
+  </si>
+  <si>
+    <t>53a2f2891b889b3e70c56702</t>
+  </si>
+  <si>
+    <t>majj@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a2f7081b889b3e70c56704</t>
+  </si>
+  <si>
+    <t>缘分</t>
+  </si>
+  <si>
+    <t>CB2E7BC79FA2FFFA171101A3847B9BAF</t>
+  </si>
+  <si>
+    <t>53a30e061b889b3e70c56707</t>
+  </si>
+  <si>
+    <t>53a362c71b889b3e70c56709</t>
+  </si>
+  <si>
+    <t>31761108@qq.com</t>
+  </si>
+  <si>
+    <t>53a2550ca3a139c46fc31e38</t>
+  </si>
+  <si>
+    <t>zhouj@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a3bd3e1b889b3e70c5670f</t>
+  </si>
+  <si>
+    <t>　    ������  ﹏</t>
+  </si>
+  <si>
+    <t>CEABE929F57E4D2A0062470F76E2EA64</t>
+  </si>
+  <si>
+    <t>53a3c0af1b889b3e70c56711</t>
+  </si>
+  <si>
+    <t>钢精混凝土</t>
+  </si>
+  <si>
+    <t>02F36DDB1DA17BEAF6E3AC9528319CA5</t>
+  </si>
+  <si>
+    <t>53a3c3011b889b3e70c56712</t>
+  </si>
+  <si>
+    <t>shiyc@nikonlenswear.cn</t>
+  </si>
+  <si>
+    <t>53a1c292d2630be54290babf</t>
+  </si>
+  <si>
+    <t>wangjie@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a3d6b41b889b3e70c56719</t>
+  </si>
+  <si>
+    <t>zhangm@essilorchina.com</t>
+  </si>
+  <si>
+    <t>53a3daa11b889b3e70c5671a</t>
+  </si>
+  <si>
+    <t>xuyf@nikonlenswear.cn</t>
+  </si>
+  <si>
+    <t>53a3f3461b889b3e70c56721</t>
+  </si>
+  <si>
+    <t>360621440@qq.com</t>
+  </si>
+  <si>
+    <t>53a44c4c1b889b3e70c5672f</t>
+  </si>
+  <si>
+    <t> ……</t>
+  </si>
+  <si>
+    <t>BF8C8213B1047A36E69BD472890E0F31</t>
+  </si>
+  <si>
+    <t>53a44c6a1b889b3e70c56730</t>
+  </si>
+  <si>
+    <t>53a4dda61b889b3e70c56732</t>
+  </si>
+  <si>
+    <t>xiaqing@wanxinop.com</t>
+  </si>
+  <si>
+    <t>53a54a8f1b889b3e70c5673b</t>
+  </si>
+  <si>
+    <t>53a552041b889b3e70c5673d</t>
+  </si>
+  <si>
+    <t>53a555da1b889b3e70c5673f</t>
+  </si>
+  <si>
+    <t>53a639151b889b3e70c5674b</t>
+  </si>
+  <si>
+    <t>梦里水乡</t>
+  </si>
+  <si>
+    <t>C4D1409529624165BAB9A0ED55667783</t>
+  </si>
+  <si>
+    <t>53a6671b1b889b3e70c56751</t>
+  </si>
+  <si>
+    <t>1553773690@qq.com</t>
+  </si>
+  <si>
+    <t>53a6dca41b889b3e70c56757</t>
+  </si>
+  <si>
+    <t>artmusic</t>
+  </si>
+  <si>
+    <t>2.00GCoZUCoJ6_xCac2290d001RQeeQC</t>
+  </si>
+  <si>
+    <t>53a78fb81b889b3e70c5675d</t>
+  </si>
+  <si>
+    <t>李金</t>
+  </si>
+  <si>
+    <t>1641816253EB0C08E81055D3655400E5</t>
+  </si>
+  <si>
+    <t>53a7ed021b889b3e70c56781</t>
+  </si>
+  <si>
+    <t>ˉChampagne____°。</t>
+  </si>
+  <si>
+    <t>7D20330B428DED8FF6E4F1C198375753</t>
+  </si>
+  <si>
+    <t>53a825805b9c81e2118fff7f</t>
+  </si>
+  <si>
+    <t>中華民谣</t>
+  </si>
+  <si>
+    <t>4C3D8C5A8FE14DC345EBE3636B2896A4</t>
+  </si>
+  <si>
     <t>53a7a3f71b889b3e70c56763</t>
   </si>
   <si>
     <t>Lijie Zhang</t>
   </si>
   <si>
-    <t>537394dead756d6a6e4444aa</t>
-  </si>
-  <si>
-    <t>5373972cad756d6a6e4444ac</t>
-  </si>
-  <si>
-    <t>53739779ad756d6a6e4444ad</t>
-  </si>
-  <si>
-    <t>5373985dad756d6a6e4444ae</t>
-  </si>
-  <si>
-    <t>53739a02ad756d6a6e4444af</t>
-  </si>
-  <si>
-    <t>53739aa5ad756d6a6e4444b0</t>
-  </si>
-  <si>
-    <t>53739ac8ad756d6a6e4444b1</t>
-  </si>
-  <si>
-    <t>1@1.com</t>
-  </si>
-  <si>
-    <t>537420d4ad756d6a6e4444b2</t>
-  </si>
-  <si>
-    <t>53742105ad756d6a6e4444b3</t>
-  </si>
-  <si>
-    <t>537421881f802dce7b94c8f2</t>
-  </si>
-  <si>
-    <t>53742493662918ba7ca30a73</t>
-  </si>
-  <si>
-    <t>5374253aaf168a197d3d54d7</t>
-  </si>
-  <si>
-    <t>537425702585f7b97e668260</t>
-  </si>
-  <si>
-    <t>53742a5dc55ebe9406011d74</t>
-  </si>
-  <si>
-    <t>53742a79c55ebe9406011d75</t>
-  </si>
-  <si>
-    <t>53742aa3c55ebe9406011d76</t>
-  </si>
-  <si>
-    <t>53742d12c55ebe9406011d77</t>
-  </si>
-  <si>
-    <t>53742d47c55ebe9406011d79</t>
-  </si>
-  <si>
-    <t>53742d71c55ebe9406011d7a</t>
-  </si>
-  <si>
-    <t>5374318930e7cfda0ea41ba1</t>
-  </si>
-  <si>
-    <t>537431d730e7cfda0ea41ba2</t>
-  </si>
-  <si>
-    <t>537431fb30e7cfda0ea41ba3</t>
-  </si>
-  <si>
-    <t>537433c230e7cfda0ea41ba4</t>
-  </si>
-  <si>
-    <t>5375bda311083157399b6630</t>
-  </si>
-  <si>
-    <t>5376f60fc31fda8941248c65</t>
-  </si>
-  <si>
-    <t>十月左巴</t>
-  </si>
-  <si>
-    <t>DB161AF852CA0940709DB3B7126E1064</t>
-  </si>
-  <si>
-    <t>53708c075a8f566756f20a17</t>
-  </si>
-  <si>
-    <t>至爱吾女</t>
-  </si>
-  <si>
-    <t>58B027C651FB73879FF9FF6A50E752AA</t>
-  </si>
-  <si>
-    <t>538df93bb44702831502037b</t>
-  </si>
-  <si>
-    <t>kulapika8@163.com</t>
-  </si>
-  <si>
-    <t>538dfa7bb44702831502037c</t>
-  </si>
-  <si>
-    <t>538e88c2b44702831502037d</t>
-  </si>
-  <si>
-    <t>538edf971b597974238e9652</t>
-  </si>
-  <si>
-    <t>巴拉巴拉</t>
-  </si>
-  <si>
-    <t>EEAC5AB1A1615F7B995994F059B91E2D</t>
-  </si>
-  <si>
-    <t>5390167815a0aef4244671f7</t>
-  </si>
-  <si>
-    <t>evexia@qq.com</t>
-  </si>
-  <si>
-    <t>5390188815a0aef4244671f8</t>
-  </si>
-  <si>
-    <t>539018be15a0aef4244671f9</t>
-  </si>
-  <si>
-    <t>5390196315a0aef4244671fa</t>
-  </si>
-  <si>
-    <t>53901a0c15a0aef4244671fb</t>
-  </si>
-  <si>
-    <t>5390273e15a0aef4244671fe</t>
-  </si>
-  <si>
-    <t>426DA872AC937B5D6F5523F6838A857C</t>
-  </si>
-  <si>
-    <t>5390278715a0aef4244671ff</t>
-  </si>
-  <si>
-    <t>夕羊小童鞋</t>
-  </si>
-  <si>
-    <t>2.00GrDUREoJ6_xCf309967476jJ8KXC</t>
-  </si>
-  <si>
-    <t>5390370615a0aef424467200</t>
-  </si>
-  <si>
-    <t>断弦的流章</t>
-  </si>
-  <si>
-    <t>0A7714FF7B0C932F18E16EBD50985712</t>
-  </si>
-  <si>
-    <t>5390210a15a0aef4244671fd</t>
-  </si>
-  <si>
-    <t>EVE</t>
-  </si>
-  <si>
-    <t>eve@sina.com</t>
-  </si>
-  <si>
-    <t>C2F46CCA797756602EC6756C5B2AD365</t>
-  </si>
-  <si>
-    <t>53707fe9c00818ad53fc1dd2</t>
-  </si>
-  <si>
-    <t>杰儿泪</t>
-  </si>
-  <si>
-    <t>0B64B8DCA20F40C3ED7779DB983E0BFE</t>
-  </si>
-  <si>
-    <t>53917225bcc04c0c43ffb725</t>
-  </si>
-  <si>
-    <t>wve@126.com</t>
-  </si>
-  <si>
-    <t>53917318bcc04c0c43ffb726</t>
-  </si>
-  <si>
-    <t>eve@123.com</t>
-  </si>
-  <si>
-    <t>5391e366e5d0c21b47a077f2</t>
-  </si>
-  <si>
-    <t>53950dfae5d0c21b47a077f3</t>
-  </si>
-  <si>
-    <t>2.00DN_BqDoJ6_xCbf9d4b8c050W3Cco</t>
-  </si>
-  <si>
-    <t>53951152e5d0c21b47a077f4</t>
-  </si>
-  <si>
-    <t>行者</t>
-  </si>
-  <si>
-    <t>0F3B54F368E43CB5BB119B015E60C3E3</t>
-  </si>
-  <si>
-    <t>53951f68e5d0c21b47a077f5</t>
-  </si>
-  <si>
-    <t>As long as you love me.</t>
-  </si>
-  <si>
-    <t>E2936F20EDE8811F2C8F5232704890BA</t>
-  </si>
-  <si>
-    <t>539536fbe5d0c21b47a077f6</t>
-  </si>
-  <si>
-    <t>eve@126.com</t>
-  </si>
-  <si>
-    <t>539571c0e5d0c21b47a077f8</t>
-  </si>
-  <si>
-    <t>难道就没有人爱王诗龄么.</t>
-  </si>
-  <si>
-    <t>9F29BABFBE4A01C306CE94E522D49D40</t>
-  </si>
-  <si>
-    <t>53956b42e5d0c21b47a077f7</t>
-  </si>
-  <si>
-    <t>22D8494C70EA175EAFCF77E334B4CAAD</t>
-  </si>
-  <si>
-    <t>53963ead88ad2de50c01350a</t>
-  </si>
-  <si>
-    <t>‭‭  </t>
-  </si>
-  <si>
-    <t>331E3D0B78F817B91F2E9B562545BF6F</t>
-  </si>
-  <si>
-    <t>5396652288ad2de50c01350b</t>
-  </si>
-  <si>
-    <t>5396663f88ad2de50c01350c</t>
-  </si>
-  <si>
-    <t>5396679a88ad2de50c01350e</t>
-  </si>
-  <si>
-    <t>5396683288ad2de50c01350f</t>
-  </si>
-  <si>
-    <t>53966adc88ad2de50c013510</t>
-  </si>
-  <si>
-    <t>5396703c88ad2de50c013511</t>
-  </si>
-  <si>
-    <t>5396763a88ad2de50c013512</t>
-  </si>
-  <si>
-    <t>539676cc88ad2de50c013513</t>
-  </si>
-  <si>
-    <t>william@louding.com</t>
-  </si>
-  <si>
-    <t>5396bacd88ad2de50c013515</t>
-  </si>
-  <si>
-    <t>Tao_xiao_98-88</t>
-  </si>
-  <si>
-    <t>D03B3FED7584B4E6D5D92E81FB4A2CA7</t>
-  </si>
-  <si>
-    <t>5396d3dc88ad2de50c013518</t>
-  </si>
-  <si>
-    <t>5396f4795b2ba5921e0c8c8f</t>
-  </si>
-  <si>
-    <t>‖  t °</t>
-  </si>
-  <si>
-    <t>06C146D0C8E156F28A91047C6517135D</t>
-  </si>
-  <si>
-    <t>53978cc35b2ba5921e0c8c90</t>
-  </si>
-  <si>
-    <t>宁夏</t>
-  </si>
-  <si>
-    <t>AD6135B8C881ACAC355A43AD7DC4F1AF</t>
-  </si>
-  <si>
-    <t>5397e0e25b2ba5921e0c8c92</t>
-  </si>
-  <si>
-    <t>178917614@qq.com</t>
-  </si>
-  <si>
-    <t>539874e1d3b38c21339fcfec</t>
-  </si>
-  <si>
-    <t>小桓OnePiece</t>
-  </si>
-  <si>
-    <t>5FAC5B37B1A6C24723E2C7B12C99777C</t>
-  </si>
-  <si>
-    <t>53993ba1d3b38c21339fcfed</t>
-  </si>
-  <si>
-    <t>娜些彼此</t>
-  </si>
-  <si>
-    <t>2.00JgNzvBoJ6_xC0cf4209f6bGgqgXD</t>
-  </si>
-  <si>
-    <t>5368b1cd5a38eb6e1881a31c</t>
-  </si>
-  <si>
-    <t>53996b77d3b38c21339fcfee</t>
-  </si>
-  <si>
-    <t>CAAKPkqRN0O8BAHU5pfGJcEkCTAo52FQJ7aSg3dYwAZAgWWopdbIGLQWVRayoTliBXDAlAuIpzx38KrGXB9ZBrKshuUpg1ZBCADcfnSoKPPWbJtXBfirFErfJwX9FMCpB0ZBnEosDeDSKCmGZASxB6j9z0ZCsf72cDUNCqhU9ZBZBFhuep3HTmc7qXxTILMcZBMWjTmZAtv1KNhjL14mtQPv4nR</t>
-  </si>
-  <si>
-    <t>5396aecf88ad2de50c013514</t>
-  </si>
-  <si>
-    <t>2.009O8NtBoJ6_xC55196f8d2f0p_rYs</t>
-  </si>
-  <si>
-    <t>539a8b4cd3b38c21339fcff4</t>
-  </si>
-  <si>
-    <t>爱薇儿</t>
-  </si>
-  <si>
-    <t>1853C71E5656F075871303C1DA5F9191</t>
-  </si>
-  <si>
-    <t>539a8feed3b38c21339fcff5</t>
-  </si>
-  <si>
-    <t>陆欣韡</t>
-  </si>
-  <si>
-    <t>2.00oK_qjBoJ6_xCaf95caf88cjsXG3E</t>
-  </si>
-  <si>
-    <t>539e98a5d3b38c21339fcffe</t>
-  </si>
-  <si>
-    <t>539f9fc4d3b38c21339fd001</t>
-  </si>
-  <si>
-    <t>539fa290d3b38c21339fd002</t>
-  </si>
-  <si>
-    <t>zhongpr@essilorchina.com</t>
-  </si>
-  <si>
-    <t>539fa3a6d3b38c21339fd003</t>
-  </si>
-  <si>
-    <t>wangxu@essilorchina.com</t>
-  </si>
-  <si>
-    <t>539fa3add3b38c21339fd004</t>
-  </si>
-  <si>
-    <t>dorayli@essilorchina.com</t>
-  </si>
-  <si>
-    <t>539fa597d3b38c21339fd005</t>
-  </si>
-  <si>
-    <t>zhouhui@cn.essilor.com</t>
-  </si>
-  <si>
-    <t>539fa734d3b38c21339fd007</t>
-  </si>
-  <si>
-    <t>qinjm@essilorchina.com</t>
-  </si>
-  <si>
-    <t>539fa8dfd3b38c21339fd008</t>
-  </si>
-  <si>
-    <t>大美</t>
-  </si>
-  <si>
-    <t>69562033EB8FAC1BC7B87F39029C8984</t>
-  </si>
-  <si>
-    <t>539faeaad3b38c21339fd00a</t>
-  </si>
-  <si>
-    <t>Liuxj@essilorchina.com</t>
-  </si>
-  <si>
-    <t>539fb0b7d3b38c21339fd00c</t>
-  </si>
-  <si>
-    <t>wangjc@essilorchina.com</t>
-  </si>
-  <si>
-    <t>539fb1c309c9a6c642e36a37</t>
-  </si>
-  <si>
-    <t>wangyw@essilorchina.com</t>
-  </si>
-  <si>
-    <t>539fb22809c9a6c642e36a39</t>
-  </si>
-  <si>
-    <t>luh@essilorchina.com</t>
-  </si>
-  <si>
-    <t>539fb25609c9a6c642e36a3b</t>
-  </si>
-  <si>
-    <t>137577679@qq.com</t>
-  </si>
-  <si>
-    <t>539fb326d2630be54290ba09</t>
-  </si>
-  <si>
-    <t>evexia@126.com</t>
-  </si>
-  <si>
-    <t>539fbb4ed2630be54290ba0c</t>
-  </si>
-  <si>
-    <t>chenq@essilorchina.com</t>
-  </si>
-  <si>
-    <t>539fbed8d2630be54290ba0d</t>
-  </si>
-  <si>
-    <t>zhang.jing@essilorchina.com</t>
-  </si>
-  <si>
-    <t>539fcaedd2630be54290ba10</t>
-  </si>
-  <si>
-    <t>zhaojun@essilorchina.com</t>
-  </si>
-  <si>
-    <t>539fc17ed2630be54290ba0e</t>
-  </si>
-  <si>
-    <t>chenti@essilorchina.com</t>
-  </si>
-  <si>
-    <t>chenti@essilorchina.con</t>
-  </si>
-  <si>
-    <t>539fe7d9d2630be54290ba12</t>
-  </si>
-  <si>
-    <t>qiaoxm@essilorchina.com</t>
-  </si>
-  <si>
-    <t>539fed1fd2630be54290ba15</t>
-  </si>
-  <si>
-    <t>627868300@qq.com</t>
-  </si>
-  <si>
-    <t>539fed8fd2630be54290ba16</t>
-  </si>
-  <si>
-    <t>53a00084d2630be54290ba1a</t>
-  </si>
-  <si>
-    <t>zhouyx@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a0041ad2630be54290ba1c</t>
-  </si>
-  <si>
-    <t>majun@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a00dd4d2630be54290ba20</t>
-  </si>
-  <si>
-    <t>zhuyq@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a00d83d2630be54290ba1f</t>
-  </si>
-  <si>
-    <t>sungq@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a017f9d2630be54290ba23</t>
-  </si>
-  <si>
-    <t>tangk@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a01ccbd2630be54290ba27</t>
-  </si>
-  <si>
-    <t>yug@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a0328ed2630be54290ba2b</t>
-  </si>
-  <si>
-    <t>yanchen@cn.essilor.com</t>
-  </si>
-  <si>
-    <t>53a032afd2630be54290ba2c</t>
-  </si>
-  <si>
-    <t>53a03852d2630be54290ba2d</t>
-  </si>
-  <si>
-    <t>聪聪妈</t>
-  </si>
-  <si>
-    <t>6843DBB14666C738402EDF325567257E</t>
-  </si>
-  <si>
-    <t>539fc431d2630be54290ba0f</t>
-  </si>
-  <si>
-    <t>chenyan@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a03a1cd2630be54290ba2e</t>
-  </si>
-  <si>
-    <t>linm@essilorchina.com</t>
-  </si>
-  <si>
-    <t>539fb7a8d2630be54290ba0a</t>
-  </si>
-  <si>
-    <t>Sunwm@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a047e0d2630be54290ba36</t>
-  </si>
-  <si>
-    <t>skycuicui2@163.com</t>
-  </si>
-  <si>
-    <t>53a051fdd2630be54290ba3a</t>
-  </si>
-  <si>
-    <t>53a05232d2630be54290ba3c</t>
-  </si>
-  <si>
-    <t>阿梓、喵~</t>
-  </si>
-  <si>
-    <t>9AD6AE8A1936160CE067673986F14665</t>
-  </si>
-  <si>
-    <t>53a0f85cd2630be54290ba64</t>
-  </si>
-  <si>
-    <t>Lisa@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a04fa1d2630be54290ba38</t>
-  </si>
-  <si>
-    <t>weichaoh@cn.essilor.com</t>
-  </si>
-  <si>
-    <t>53a0535bd2630be54290ba3e</t>
-  </si>
-  <si>
-    <t>qiuym@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a05716d2630be54290ba40</t>
-  </si>
-  <si>
-    <t>NICK</t>
-  </si>
-  <si>
-    <t>D467CADB4B3E046A56C3D1D20F0AB2CE</t>
-  </si>
-  <si>
-    <t>53a05e6cd2630be54290ba44</t>
-  </si>
-  <si>
-    <t>yuangl@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a06251d2630be54290ba46</t>
-  </si>
-  <si>
-    <t>yuj@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a06c3fd2630be54290ba48</t>
-  </si>
-  <si>
-    <t>liuk@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a079cdd2630be54290ba4b</t>
-  </si>
-  <si>
-    <t>Billy</t>
-  </si>
-  <si>
-    <t>14B9BCC68FA3955127F0C091BBDB84C6</t>
-  </si>
-  <si>
-    <t>53a0b95bd2630be54290ba4c</t>
-  </si>
-  <si>
-    <t>2640595510@.qq.com</t>
-  </si>
-  <si>
-    <t>53a0d424d2630be54290ba4f</t>
-  </si>
-  <si>
-    <t>Colorful day</t>
-  </si>
-  <si>
-    <t>D589ADDDF1583ED7E66127EF14AE36C0</t>
-  </si>
-  <si>
-    <t>53a0d455d2630be54290ba50</t>
-  </si>
-  <si>
-    <t>wanglei@cn.essilor.com</t>
-  </si>
-  <si>
-    <t>53a0db38d2630be54290ba52</t>
-  </si>
-  <si>
-    <t>fanq@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a0dde5d2630be54290ba53</t>
-  </si>
-  <si>
-    <t>sales@swoptical.com</t>
-  </si>
-  <si>
-    <t>53a0deb3d2630be54290ba54</t>
-  </si>
-  <si>
-    <t>wangyanp@cn.essilor.com</t>
-  </si>
-  <si>
-    <t>53a0dfedd2630be54290ba56</t>
-  </si>
-  <si>
-    <t>柠七ii</t>
-  </si>
-  <si>
-    <t>2.00MTDhDDoJ6_xC19bdec728alIuWbC</t>
-  </si>
-  <si>
-    <t>53a0478dd2630be54290ba35</t>
-  </si>
-  <si>
-    <t>sunyu@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a0e623d2630be54290ba58</t>
-  </si>
-  <si>
-    <t>liyg@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a0ebb2d2630be54290ba5b</t>
-  </si>
-  <si>
-    <t>gaomj@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a0f1ecd2630be54290ba5e</t>
-  </si>
-  <si>
-    <t>wangbs@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a0f2bfd2630be54290ba5f</t>
-  </si>
-  <si>
-    <t>yuy@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a0f40fd2630be54290ba62</t>
-  </si>
-  <si>
-    <t>xief@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a0f550d2630be54290ba63</t>
-  </si>
-  <si>
-    <t>huanglj@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a0fa7cd2630be54290ba65</t>
-  </si>
-  <si>
-    <t>liyan@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a102d6d2630be54290ba6a</t>
-  </si>
-  <si>
-    <t>53a10542d2630be54290ba6d</t>
-  </si>
-  <si>
-    <t>驭麒麟</t>
-  </si>
-  <si>
-    <t>xuhch@essilorchina.com</t>
-  </si>
-  <si>
-    <t>C020D95E7ECA9E6E9EE25F93ED9D17F8</t>
-  </si>
-  <si>
-    <t>53a10809d2630be54290ba70</t>
-  </si>
-  <si>
-    <t>duanmz@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a1109dd2630be54290ba74</t>
-  </si>
-  <si>
-    <t>lixj@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a10faed2630be54290ba73</t>
-  </si>
-  <si>
-    <t>luy@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a11444d2630be54290ba75</t>
-  </si>
-  <si>
-    <t>meijt1245@hotmail.com</t>
-  </si>
-  <si>
-    <t>53a11d7ed2630be54290ba78</t>
-  </si>
-  <si>
-    <t>chenh@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a122a3d2630be54290ba79</t>
-  </si>
-  <si>
-    <t>circle</t>
-  </si>
-  <si>
-    <t>918814A19F1679E433597587FCD638B4</t>
-  </si>
-  <si>
-    <t>53a12385d2630be54290ba7b</t>
-  </si>
-  <si>
-    <t>在旅途</t>
-  </si>
-  <si>
-    <t>niesh@essilorchina.com</t>
-  </si>
-  <si>
-    <t>E2F04548E7A331B15913E00ECC902D20</t>
-  </si>
-  <si>
-    <t>53a1257fd2630be54290ba7d</t>
-  </si>
-  <si>
-    <t>jidw@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a12547d2630be54290ba7c</t>
-  </si>
-  <si>
-    <t>xucb@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a12317d2630be54290ba7a</t>
-  </si>
-  <si>
-    <t>liusj@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a12b2bd2630be54290ba80</t>
-  </si>
-  <si>
-    <t>liujm@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a12e93d2630be54290ba83</t>
-  </si>
-  <si>
-    <t>tianyl@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a13063d2630be54290ba84</t>
-  </si>
-  <si>
-    <t>zhongjianfei@wanxinop.com</t>
-  </si>
-  <si>
-    <t>53a13615d2630be54290ba8b</t>
-  </si>
-  <si>
-    <t>53a13670d2630be54290ba8c</t>
-  </si>
-  <si>
-    <t>zhangbaifang@wanxinop.com</t>
-  </si>
-  <si>
-    <t>53a13725d2630be54290ba8f</t>
-  </si>
-  <si>
-    <t>1195202489@qq.com</t>
-  </si>
-  <si>
-    <t>53a13707d2630be54290ba8e</t>
-  </si>
-  <si>
-    <t>zhangx@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a13c13d2630be54290ba92</t>
-  </si>
-  <si>
-    <t>胡俊                 //</t>
-  </si>
-  <si>
-    <t>CF83B51036187F11AB0A4594A07F3296</t>
-  </si>
-  <si>
-    <t>53a147d6d2630be54290ba97</t>
-  </si>
-  <si>
-    <t>   尽</t>
-  </si>
-  <si>
-    <t>2CF08484AEC1E0A68EDF2448E946FDB6</t>
-  </si>
-  <si>
-    <t>53a14a07d2630be54290ba99</t>
-  </si>
-  <si>
-    <t>53a14aeed2630be54290ba9b</t>
-  </si>
-  <si>
-    <t>610492017@qq.com</t>
-  </si>
-  <si>
-    <t>53a10822d2630be54290ba71</t>
-  </si>
-  <si>
-    <t>panyifen@cn.essilor.com</t>
-  </si>
-  <si>
-    <t>53a15f73d2630be54290baa8</t>
-  </si>
-  <si>
-    <t>九九妈</t>
-  </si>
-  <si>
-    <t>52CF6A0D9458B40685569C065C993B0D</t>
-  </si>
-  <si>
-    <t>53a16d55d2630be54290baaa</t>
-  </si>
-  <si>
-    <t>gongq@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a174f7d2630be54290baac</t>
-  </si>
-  <si>
-    <t>Benjamin</t>
-  </si>
-  <si>
-    <t>07D88CFD2FC1021D520B925D9D3E02BF</t>
-  </si>
-  <si>
-    <t>53a17b61d2630be54290baad</t>
-  </si>
-  <si>
-    <t>tracyque@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a18230d2630be54290baaf</t>
-  </si>
-  <si>
-    <t>柠檬</t>
-  </si>
-  <si>
-    <t>9D49635F23F379CB2E8773280DA397DF</t>
-  </si>
-  <si>
-    <t>53a19dacd2630be54290bab7</t>
-  </si>
-  <si>
-    <t>linan@cn.essilor.com</t>
-  </si>
-  <si>
-    <t>53a1b0ddd2630be54290babc</t>
-  </si>
-  <si>
-    <t>liuhui@wanxinop.com</t>
-  </si>
-  <si>
-    <t>53a1b954d2630be54290babe</t>
-  </si>
-  <si>
-    <t>nizhidan@wanxinop.com</t>
-  </si>
-  <si>
-    <t>53a2104ad2630be54290bac1</t>
-  </si>
-  <si>
-    <t>o0孤单美食家0o</t>
-  </si>
-  <si>
-    <t>2.00WbeHGCoJ6_xC09f5d76b4bvgefkB</t>
-  </si>
-  <si>
-    <t>53a228f1d2630be54290bac2</t>
-  </si>
-  <si>
-    <t>jiaohua@wanxinop.com</t>
-  </si>
-  <si>
-    <t>53a22c91d2630be54290bac3</t>
-  </si>
-  <si>
-    <t>Carson</t>
-  </si>
-  <si>
-    <t>6126E34F4D080A13DCEDFAF9773DAA45</t>
-  </si>
-  <si>
-    <t>53a22cbad2630be54290bac4</t>
-  </si>
-  <si>
-    <t>zengwenjun@wanxinop.com</t>
-  </si>
-  <si>
-    <t>53a1a21ed2630be54290bab9</t>
-  </si>
-  <si>
-    <t>guxinwei@cn.essilor.com</t>
-  </si>
-  <si>
-    <t>53a2554b1b889b3e70c566a8</t>
-  </si>
-  <si>
-    <t>53a260ca1b889b3e70c566ea</t>
-  </si>
-  <si>
-    <t>快樂每一天</t>
-  </si>
-  <si>
-    <t>9E314036FCCA85A5723D89635F1E64AF</t>
-  </si>
-  <si>
-    <t>53a270631b889b3e70c566ee</t>
-  </si>
-  <si>
-    <t>53a282391b889b3e70c566f2</t>
-  </si>
-  <si>
-    <t>shenyx@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a2845a1b889b3e70c566f3</t>
-  </si>
-  <si>
-    <t>CAAKPkqRN0O8BAKqOT8J8CgXttvUZC2LhhscRYpkuCMaxt5N4FMP8pguSSH3HTvnu4q64kGeQtMEPHXTAr5t56gNT3X7WF79mNLcXUUneqw9BY60ojZBfva1n5vnYOOHg3HFSJ6syQ8yPVClZBqEfxxmUn0iyF84V2YbKea0p6AfExIJu5Bb</t>
-  </si>
-  <si>
-    <t>53a2a2111b889b3e70c566f7</t>
-  </si>
-  <si>
-    <t>CAAKPkqRN0O8BANCrkuTX4LZC3tL3UMt0BkMgDtNdnMH0rwPXnIbWLzDJZBhXM6qftz6iPfCIwc3cd1qzRdVqpyMxZCOIQZCSHQ77Uko3SQtQolO8sETrsSzqS6hHC7ZC8ZC5p5eSOCl7eMi6r5wNENudS56nZCSpb5MEMzkPZAVdEHFMmIQheFzCvDhIB9sG9Y42VuwAWj8PX8upjkPWiTJs</t>
-  </si>
-  <si>
-    <t>53a2b2541b889b3e70c566f8</t>
-  </si>
-  <si>
-    <t>53a2c7de1b889b3e70c566fa</t>
-  </si>
-  <si>
-    <t>53a2e0851b889b3e70c566fe</t>
-  </si>
-  <si>
-    <t>袁姓</t>
-  </si>
-  <si>
-    <t>B1399B3D0D7AEEB03505EBF0C6AE13AB</t>
-  </si>
-  <si>
-    <t>53a2ee871b889b3e70c56701</t>
-  </si>
-  <si>
-    <t>317611018@qq.con</t>
-  </si>
-  <si>
-    <t>53a2f2891b889b3e70c56702</t>
-  </si>
-  <si>
-    <t>majj@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a2f7081b889b3e70c56704</t>
-  </si>
-  <si>
-    <t>缘分</t>
-  </si>
-  <si>
-    <t>CB2E7BC79FA2FFFA171101A3847B9BAF</t>
-  </si>
-  <si>
-    <t>53a30e061b889b3e70c56707</t>
-  </si>
-  <si>
-    <t>53a362c71b889b3e70c56709</t>
-  </si>
-  <si>
-    <t>31761108@qq.com</t>
-  </si>
-  <si>
-    <t>53a2550ca3a139c46fc31e38</t>
-  </si>
-  <si>
-    <t>zhouj@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a3bd3e1b889b3e70c5670f</t>
-  </si>
-  <si>
-    <t>　    ������  ﹏</t>
-  </si>
-  <si>
-    <t>CEABE929F57E4D2A0062470F76E2EA64</t>
-  </si>
-  <si>
-    <t>53a3c0af1b889b3e70c56711</t>
-  </si>
-  <si>
-    <t>钢精混凝土</t>
-  </si>
-  <si>
-    <t>02F36DDB1DA17BEAF6E3AC9528319CA5</t>
-  </si>
-  <si>
-    <t>53a3c3011b889b3e70c56712</t>
-  </si>
-  <si>
-    <t>shiyc@nikonlenswear.cn</t>
-  </si>
-  <si>
-    <t>53a1c292d2630be54290babf</t>
-  </si>
-  <si>
-    <t>wangjie@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a3d6b41b889b3e70c56719</t>
-  </si>
-  <si>
-    <t>zhangm@essilorchina.com</t>
-  </si>
-  <si>
-    <t>53a3daa11b889b3e70c5671a</t>
-  </si>
-  <si>
-    <t>xuyf@nikonlenswear.cn</t>
-  </si>
-  <si>
-    <t>53a3f3461b889b3e70c56721</t>
-  </si>
-  <si>
-    <t>360621440@qq.com</t>
-  </si>
-  <si>
-    <t>53a44c4c1b889b3e70c5672f</t>
-  </si>
-  <si>
-    <t> ……</t>
-  </si>
-  <si>
-    <t>BF8C8213B1047A36E69BD472890E0F31</t>
-  </si>
-  <si>
-    <t>53a44c6a1b889b3e70c56730</t>
-  </si>
-  <si>
-    <t>53a4dda61b889b3e70c56732</t>
-  </si>
-  <si>
-    <t>xiaqing@wanxinop.com</t>
-  </si>
-  <si>
-    <t>53a54a8f1b889b3e70c5673b</t>
-  </si>
-  <si>
-    <t>53a552041b889b3e70c5673d</t>
-  </si>
-  <si>
-    <t>53a555da1b889b3e70c5673f</t>
-  </si>
-  <si>
-    <t>53a639151b889b3e70c5674b</t>
-  </si>
-  <si>
-    <t>梦里水乡</t>
-  </si>
-  <si>
-    <t>C4D1409529624165BAB9A0ED55667783</t>
-  </si>
-  <si>
-    <t>53a6671b1b889b3e70c56751</t>
-  </si>
-  <si>
-    <t>1553773690@qq.com</t>
-  </si>
-  <si>
-    <t>53a6dca41b889b3e70c56757</t>
-  </si>
-  <si>
-    <t>artmusic</t>
-  </si>
-  <si>
-    <t>2.00GCoZUCoJ6_xCac2290d001RQeeQC</t>
-  </si>
-  <si>
-    <t>53a78fb81b889b3e70c5675d</t>
-  </si>
-  <si>
-    <t>李金</t>
-  </si>
-  <si>
-    <t>1641816253EB0C08E81055D3655400E5</t>
+    <t>53a912b15b9c81e2118fff9a</t>
+  </si>
+  <si>
+    <t>3240E1BAF8A22C251CB10093E172D9D4</t>
+  </si>
+  <si>
+    <t>53a914565b9c81e2118fff9b</t>
+  </si>
+  <si>
+    <t>123@126.com</t>
+  </si>
+  <si>
+    <t>53a91efe5b9c81e2118fff9f</t>
+  </si>
+  <si>
+    <t>123456@126.com</t>
+  </si>
+  <si>
+    <t>53a9200a5b9c81e2118fffa0</t>
+  </si>
+  <si>
+    <t>1111@126.com </t>
+  </si>
+  <si>
+    <t>53a9304f5b9c81e2118fffa6</t>
+  </si>
+  <si>
+    <t>53a931475b9c81e2118fffa7</t>
+  </si>
+  <si>
+    <t>53a93e175b9c81e2118fffad</t>
+  </si>
+  <si>
+    <t>53a959fb5b9c81e2118fffb3</t>
+  </si>
+  <si>
+    <t>53a985295b9c81e2118fffb9</t>
+  </si>
+  <si>
+    <t>巴黎铁塔刻画了ぃ倾゛影</t>
+  </si>
+  <si>
+    <t>B6ECF8E2D877653B309E4227BC10D91C</t>
+  </si>
+  <si>
+    <t>53aa33ff5b9c81e2118fffc2</t>
+  </si>
+  <si>
+    <t>zz@126.com</t>
+  </si>
+  <si>
+    <t>53aa381f5b9c81e2118fffc3</t>
+  </si>
+  <si>
+    <t>ee@126.com</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H225"/>
+  <dimension ref="A1:H238"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2283,14 +2358,14 @@
       <c r="A27" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="9"/>
+      <c r="B27" s="9">
+        <v>13800138888</v>
+      </c>
+      <c r="C27" s="9">
+        <v>13800138888</v>
+      </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="9">
-        <v>100005374517980</v>
-      </c>
+      <c r="E27" s="9"/>
       <c r="F27" s="9">
         <v/>
       </c>
@@ -2303,13 +2378,13 @@
     </row>
     <row r="28" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="9">
-        <v>13800138888</v>
+        <v>15221050481</v>
       </c>
       <c r="C28" s="9">
-        <v>13800138888</v>
+        <v>15221050481</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -2325,13 +2400,13 @@
     </row>
     <row r="29" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="9">
-        <v>15221050481</v>
+        <v>15221050482</v>
       </c>
       <c r="C29" s="9">
-        <v>15221050481</v>
+        <v>15221050482</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -2347,13 +2422,13 @@
     </row>
     <row r="30" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="9">
-        <v>15221050482</v>
+        <v>13800138010</v>
       </c>
       <c r="C30" s="9">
-        <v>15221050482</v>
+        <v>13800138010</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -2369,13 +2444,13 @@
     </row>
     <row r="31" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="9">
-        <v>13800138010</v>
+        <v>15221040511</v>
       </c>
       <c r="C31" s="9">
-        <v>13800138010</v>
+        <v>15221040511</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -2391,13 +2466,13 @@
     </row>
     <row r="32" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="9">
-        <v>15221040511</v>
+        <v>15221050423</v>
       </c>
       <c r="C32" s="9">
-        <v>15221040511</v>
+        <v>15221050423</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -2413,15 +2488,15 @@
     </row>
     <row r="33" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="9">
-        <v>15221050423</v>
-      </c>
-      <c r="C33" s="9">
-        <v>15221050423</v>
-      </c>
-      <c r="D33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9">
         <v/>
@@ -2437,13 +2512,13 @@
       <c r="A34" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="B34" s="9">
+        <v>15221050485</v>
+      </c>
+      <c r="C34" s="9">
+        <v>15221050485</v>
+      </c>
+      <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9">
         <v/>
@@ -2457,13 +2532,13 @@
     </row>
     <row r="35" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" s="9">
-        <v>15221050485</v>
+        <v>13800138123</v>
       </c>
       <c r="C35" s="9">
-        <v>15221050485</v>
+        <v>13800138123</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -2479,13 +2554,13 @@
     </row>
     <row r="36" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" s="9">
-        <v>13800138123</v>
+        <v>15221050422</v>
       </c>
       <c r="C36" s="9">
-        <v>13800138123</v>
+        <v>15221050422</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -2501,13 +2576,13 @@
     </row>
     <row r="37" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37" s="9">
-        <v>15221050422</v>
+        <v>15221010111</v>
       </c>
       <c r="C37" s="9">
-        <v>15221050422</v>
+        <v>15221010111</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -2523,13 +2598,13 @@
     </row>
     <row r="38" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38" s="9">
-        <v>15221010111</v>
+        <v>13800138113</v>
       </c>
       <c r="C38" s="9">
-        <v>15221010111</v>
+        <v>13800138113</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -2545,13 +2620,13 @@
     </row>
     <row r="39" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B39" s="9">
-        <v>13800138113</v>
+        <v>13800138999</v>
       </c>
       <c r="C39" s="9">
-        <v>13800138113</v>
+        <v>13800138999</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -2567,13 +2642,13 @@
     </row>
     <row r="40" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B40" s="9">
-        <v>13800138999</v>
+        <v>13800000777</v>
       </c>
       <c r="C40" s="9">
-        <v>13800138999</v>
+        <v>13800000777</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -2589,13 +2664,13 @@
     </row>
     <row r="41" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B41" s="9">
-        <v>13800000777</v>
+        <v>13800137000</v>
       </c>
       <c r="C41" s="9">
-        <v>13800000777</v>
+        <v>13800137000</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -2611,13 +2686,13 @@
     </row>
     <row r="42" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B42" s="9">
-        <v>13800137000</v>
+        <v>13600138000</v>
       </c>
       <c r="C42" s="9">
-        <v>13800137000</v>
+        <v>13600138000</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -2633,13 +2708,13 @@
     </row>
     <row r="43" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B43" s="9">
-        <v>13600138000</v>
+        <v>13800138234</v>
       </c>
       <c r="C43" s="9">
-        <v>13600138000</v>
+        <v>13800138234</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -2655,13 +2730,13 @@
     </row>
     <row r="44" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B44" s="9">
-        <v>13800138234</v>
+        <v>13899138000</v>
       </c>
       <c r="C44" s="9">
-        <v>13800138234</v>
+        <v>13899138000</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -2677,13 +2752,13 @@
     </row>
     <row r="45" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B45" s="9">
-        <v>13899138000</v>
+        <v>15221050311</v>
       </c>
       <c r="C45" s="9">
-        <v>13899138000</v>
+        <v>15221050311</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -2699,13 +2774,13 @@
     </row>
     <row r="46" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B46" s="9">
-        <v>15221050311</v>
+        <v>13800138016</v>
       </c>
       <c r="C46" s="9">
-        <v>15221050311</v>
+        <v>13800138016</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -2721,13 +2796,13 @@
     </row>
     <row r="47" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B47" s="9">
-        <v>13800138016</v>
+        <v>13800000002</v>
       </c>
       <c r="C47" s="9">
-        <v>13800138016</v>
+        <v>13800000002</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -2743,13 +2818,13 @@
     </row>
     <row r="48" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B48" s="9">
-        <v>13800000002</v>
+        <v>13000137000</v>
       </c>
       <c r="C48" s="9">
-        <v>13800000002</v>
+        <v>13000137000</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
@@ -2765,13 +2840,13 @@
     </row>
     <row r="49" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B49" s="9">
-        <v>13000137000</v>
+        <v>13899138777</v>
       </c>
       <c r="C49" s="9">
-        <v>13000137000</v>
+        <v>13899138777</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
@@ -2787,18 +2862,18 @@
     </row>
     <row r="50" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B50" s="9">
-        <v>13899138777</v>
+        <v>13800000000</v>
       </c>
       <c r="C50" s="9">
-        <v>13899138777</v>
+        <v>13901758467</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
-      <c r="F50" s="9">
-        <v/>
+      <c r="F50" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G50" s="9" t="b">
         <v>0</v>
@@ -2809,18 +2884,18 @@
     </row>
     <row r="51" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B51" s="9">
-        <v>13800000000</v>
-      </c>
-      <c r="C51" s="9">
-        <v>13901758467</v>
-      </c>
+      <c r="C51" s="9"/>
       <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9" t="s">
-        <v>23</v>
+      <c r="E51" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" s="9">
+        <v/>
       </c>
       <c r="G51" s="9" t="b">
         <v>0</v>
@@ -2831,59 +2906,59 @@
     </row>
     <row r="52" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F52" s="9">
-        <v/>
+        <v>82</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G52" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H52" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
+      <c r="D53" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F53" s="9" t="s">
-        <v>23</v>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9">
+        <v/>
       </c>
       <c r="G53" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H53" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9" t="s">
-        <v>86</v>
-      </c>
+      <c r="B54" s="9">
+        <v>13564688413</v>
+      </c>
+      <c r="C54" s="9">
+        <v>13564688413</v>
+      </c>
+      <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9">
         <v/>
@@ -2897,13 +2972,13 @@
     </row>
     <row r="55" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B55" s="9">
-        <v>13564688413</v>
+        <v>13818010371</v>
       </c>
       <c r="C55" s="9">
-        <v>13564688413</v>
+        <v>13818010371</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
@@ -2919,16 +2994,16 @@
     </row>
     <row r="56" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B56" s="9">
-        <v>13818010371</v>
-      </c>
-      <c r="C56" s="9">
-        <v>13818010371</v>
-      </c>
+      <c r="C56" s="9"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
+      <c r="E56" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="F56" s="9">
         <v/>
       </c>
@@ -2941,40 +3016,40 @@
     </row>
     <row r="57" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
+      <c r="D57" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F57" s="9">
-        <v/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="G57" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H57" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9" t="s">
-        <v>93</v>
-      </c>
+      <c r="B58" s="9">
+        <v>13838383838</v>
+      </c>
+      <c r="C58" s="9">
+        <v>13838383838</v>
+      </c>
+      <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G58" s="9" t="b">
         <v>0</v>
@@ -2985,35 +3060,35 @@
     </row>
     <row r="59" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B59" s="9">
-        <v>13838383838</v>
+        <v>13939393939</v>
       </c>
       <c r="C59" s="9">
-        <v>13838383838</v>
+        <v>13939393939</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
-      <c r="F59" s="9" t="s">
-        <v>23</v>
+      <c r="F59" s="9">
+        <v/>
       </c>
       <c r="G59" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H59" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B60" s="9">
-        <v>13939393939</v>
+        <v>15252525252</v>
       </c>
       <c r="C60" s="9">
-        <v>13939393939</v>
+        <v>15252525252</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
@@ -3029,13 +3104,13 @@
     </row>
     <row r="61" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B61" s="9">
-        <v>15252525252</v>
+        <v>13333333333</v>
       </c>
       <c r="C61" s="9">
-        <v>15252525252</v>
+        <v>13333333333</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
@@ -3051,16 +3126,16 @@
     </row>
     <row r="62" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="9">
-        <v>13333333333</v>
-      </c>
-      <c r="C62" s="9">
-        <v>13333333333</v>
-      </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
       <c r="F62" s="9">
         <v/>
       </c>
@@ -3076,12 +3151,12 @@
         <v>98</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F63" s="9">
         <v/>
@@ -3095,15 +3170,15 @@
     </row>
     <row r="64" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F64" s="9">
         <v/>
@@ -3117,15 +3192,17 @@
     </row>
     <row r="65" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
+      <c r="D65" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="E65" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F65" s="9">
         <v/>
@@ -3134,25 +3211,25 @@
         <v>0</v>
       </c>
       <c r="H65" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9" t="s">
-        <v>108</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C66" s="9">
+        <v>12345678901</v>
+      </c>
+      <c r="D66" s="9"/>
       <c r="E66" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F66" s="9">
-        <v/>
+        <v>110</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G66" s="9" t="b">
         <v>0</v>
@@ -3163,26 +3240,24 @@
     </row>
     <row r="67" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C67" s="9">
-        <v>12345678901</v>
-      </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F67" s="9" t="s">
-        <v>23</v>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9">
+        <v/>
       </c>
       <c r="G67" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H67" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" x14ac:dyDescent="0.25">
@@ -3204,23 +3279,23 @@
         <v>0</v>
       </c>
       <c r="H68" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9" t="s">
-        <v>116</v>
-      </c>
+      <c r="B69" s="9">
+        <v>13806104550</v>
+      </c>
+      <c r="C69" s="9">
+        <v>13806104550</v>
+      </c>
+      <c r="D69" s="9"/>
       <c r="E69" s="9"/>
-      <c r="F69" s="9">
-        <v/>
+      <c r="F69" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G69" s="9" t="b">
         <v>0</v>
@@ -3231,24 +3306,24 @@
     </row>
     <row r="70" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B70" s="9">
-        <v>13806104550</v>
-      </c>
-      <c r="C70" s="9">
-        <v>13806104550</v>
-      </c>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9" t="s">
-        <v>23</v>
+      <c r="F70" s="9">
+        <v/>
       </c>
       <c r="G70" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H70" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" x14ac:dyDescent="0.25">
@@ -3256,12 +3331,12 @@
         <v>118</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F71" s="9">
         <v/>
@@ -3275,40 +3350,40 @@
     </row>
     <row r="72" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F72" s="9">
-        <v/>
+        <v>123</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="G72" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H72" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9" t="s">
+      <c r="D73" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F73" s="9" t="s">
-        <v>37</v>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9">
+        <v/>
       </c>
       <c r="G73" s="9" t="b">
         <v>0</v>
@@ -3325,10 +3400,10 @@
         <v>127</v>
       </c>
       <c r="C74" s="9"/>
-      <c r="D74" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="F74" s="9">
         <v/>
       </c>
@@ -3336,17 +3411,19 @@
         <v>0</v>
       </c>
       <c r="H74" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C75" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="C75" s="9">
+        <v>18521531024</v>
+      </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
         <v>130</v>
@@ -3366,14 +3443,12 @@
         <v>131</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C76" s="9">
-        <v>18521531024</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F76" s="9">
         <v/>
@@ -3387,57 +3462,57 @@
     </row>
     <row r="77" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B77" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C77" s="9"/>
+      <c r="B77" s="9">
+        <v>15221050498</v>
+      </c>
+      <c r="C77" s="9">
+        <v>15221050498</v>
+      </c>
       <c r="D77" s="9"/>
-      <c r="E77" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F77" s="9">
-        <v/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="G77" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H77" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B78" s="9">
-        <v>15221050498</v>
+        <v>15221050411</v>
       </c>
       <c r="C78" s="9">
-        <v>15221050498</v>
+        <v>15221050411</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
-      <c r="F78" s="9" t="s">
-        <v>37</v>
+      <c r="F78" s="9">
+        <v/>
       </c>
       <c r="G78" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H78" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B79" s="9">
-        <v>15221050411</v>
+        <v>15221050499</v>
       </c>
       <c r="C79" s="9">
-        <v>15221050411</v>
+        <v>15221050499</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
@@ -3453,13 +3528,13 @@
     </row>
     <row r="80" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B80" s="9">
-        <v>15221050499</v>
+        <v>13800139000</v>
       </c>
       <c r="C80" s="9">
-        <v>15221050499</v>
+        <v>13800139000</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
@@ -3475,13 +3550,13 @@
     </row>
     <row r="81" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B81" s="9">
-        <v>13800139000</v>
+        <v>15221050432</v>
       </c>
       <c r="C81" s="9">
-        <v>13800139000</v>
+        <v>15221050432</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
@@ -3497,13 +3572,13 @@
     </row>
     <row r="82" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B82" s="9">
-        <v>15221050432</v>
+        <v>15821012345</v>
       </c>
       <c r="C82" s="9">
-        <v>15221050432</v>
+        <v>15821012345</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
@@ -3514,18 +3589,18 @@
         <v>0</v>
       </c>
       <c r="H82" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B83" s="9">
-        <v>15821012345</v>
+        <v>15221121212</v>
       </c>
       <c r="C83" s="9">
-        <v>15821012345</v>
+        <v>15221121212</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
@@ -3536,20 +3611,20 @@
         <v>0</v>
       </c>
       <c r="H83" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B84" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B84" s="9">
-        <v>15221121212</v>
-      </c>
-      <c r="C84" s="9">
-        <v>15221121212</v>
-      </c>
-      <c r="D84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9" t="s">
+        <v>142</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="9">
         <v/>
@@ -3569,10 +3644,10 @@
         <v>144</v>
       </c>
       <c r="C85" s="9"/>
-      <c r="D85" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="F85" s="9">
         <v/>
       </c>
@@ -3585,16 +3660,16 @@
     </row>
     <row r="86" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B86" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C86" s="9"/>
+      <c r="B86" s="9">
+        <v>13899139777</v>
+      </c>
+      <c r="C86" s="9">
+        <v>13899139777</v>
+      </c>
       <c r="D86" s="9"/>
-      <c r="E86" s="9" t="s">
-        <v>147</v>
-      </c>
+      <c r="E86" s="9"/>
       <c r="F86" s="9">
         <v/>
       </c>
@@ -3607,40 +3682,40 @@
     </row>
     <row r="87" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B87" s="9">
-        <v>13899139777</v>
-      </c>
-      <c r="C87" s="9">
-        <v>13899139777</v>
-      </c>
+      <c r="C87" s="9"/>
       <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9">
-        <v/>
+      <c r="E87" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G87" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H87" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G88" s="9" t="b">
         <v>0</v>
@@ -3651,18 +3726,18 @@
     </row>
     <row r="89" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9" t="s">
+      <c r="D89" s="9" t="s">
         <v>154</v>
       </c>
+      <c r="E89" s="9"/>
       <c r="F89" s="9" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G89" s="9" t="b">
         <v>0</v>
@@ -3679,79 +3754,81 @@
         <v>156</v>
       </c>
       <c r="C90" s="9"/>
-      <c r="D90" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9" t="s">
-        <v>23</v>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F90" s="9">
+        <v/>
       </c>
       <c r="G90" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H90" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F91" s="9">
-        <v/>
+        <v>160</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="G91" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H91" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B92" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>37</v>
+      <c r="B92" s="9">
+        <v>3922893704</v>
+      </c>
+      <c r="C92" s="9">
+        <v>98765432100</v>
+      </c>
+      <c r="D92" s="9">
+        <v/>
+      </c>
+      <c r="E92" s="9">
+        <v>3922893704</v>
+      </c>
+      <c r="F92" s="9">
+        <v/>
       </c>
       <c r="G92" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H92" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93" s="9">
+        <v>13800138009</v>
+      </c>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="B93" s="9">
-        <v>3922893704</v>
-      </c>
-      <c r="C93" s="9">
-        <v>98765432100</v>
-      </c>
-      <c r="D93" s="9">
-        <v/>
-      </c>
-      <c r="E93" s="9">
-        <v>3922893704</v>
       </c>
       <c r="F93" s="9">
         <v/>
@@ -3768,11 +3845,9 @@
         <v>164</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C94" s="9">
-        <v>13800138009</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
         <v>165</v>
@@ -3784,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="H94" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" x14ac:dyDescent="0.25">
@@ -3792,15 +3867,15 @@
         <v>166</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F95" s="9">
-        <v/>
+        <v>168</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G95" s="9" t="b">
         <v>0</v>
@@ -3811,57 +3886,57 @@
     </row>
     <row r="96" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>23</v>
+        <v>171</v>
+      </c>
+      <c r="F96" s="9">
+        <v/>
       </c>
       <c r="G96" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H96" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B97" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C97" s="9"/>
+      <c r="B97" s="9">
+        <v>13937168500</v>
+      </c>
+      <c r="C97" s="9">
+        <v>13937168500</v>
+      </c>
       <c r="D97" s="9"/>
-      <c r="E97" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F97" s="9">
-        <v/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G97" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H97" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B98" s="9">
-        <v>13937168500</v>
+        <v>13909828088</v>
       </c>
       <c r="C98" s="9">
-        <v>13937168500</v>
+        <v>13909828088</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
@@ -3872,20 +3947,22 @@
         <v>0</v>
       </c>
       <c r="H98" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B99" s="9">
-        <v>13909828088</v>
-      </c>
       <c r="C99" s="9">
-        <v>13909828088</v>
-      </c>
-      <c r="D99" s="9"/>
+        <v>18016006617</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>175</v>
+      </c>
       <c r="E99" s="9"/>
       <c r="F99" s="9" t="s">
         <v>23</v>
@@ -3894,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="H99" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" x14ac:dyDescent="0.25">
@@ -3904,9 +3981,7 @@
       <c r="B100" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C100" s="9">
-        <v>18016006617</v>
-      </c>
+      <c r="C100" s="9"/>
       <c r="D100" s="9" t="s">
         <v>177</v>
       </c>
@@ -3934,7 +4009,7 @@
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G101" s="9" t="b">
         <v>0</v>
@@ -3956,7 +4031,7 @@
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="9" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G102" s="9" t="b">
         <v>0</v>
@@ -3972,13 +4047,15 @@
       <c r="B103" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C103" s="9"/>
+      <c r="C103" s="9">
+        <v>13568838004</v>
+      </c>
       <c r="D103" s="9" t="s">
         <v>183</v>
       </c>
       <c r="E103" s="9"/>
       <c r="F103" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G103" s="9" t="b">
         <v>0</v>
@@ -3994,43 +4071,41 @@
       <c r="B104" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C104" s="9">
-        <v>13568838004</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9" t="s">
-        <v>37</v>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F104" s="9">
+        <v/>
       </c>
       <c r="G104" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H104" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9" t="s">
+      <c r="D105" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F105" s="9">
-        <v/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G105" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H105" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" x14ac:dyDescent="0.25">
@@ -4067,8 +4142,8 @@
         <v>192</v>
       </c>
       <c r="E107" s="9"/>
-      <c r="F107" s="9" t="s">
-        <v>23</v>
+      <c r="F107" s="9">
+        <v/>
       </c>
       <c r="G107" s="9" t="b">
         <v>0</v>
@@ -4089,8 +4164,8 @@
         <v>194</v>
       </c>
       <c r="E108" s="9"/>
-      <c r="F108" s="9">
-        <v/>
+      <c r="F108" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G108" s="9" t="b">
         <v>0</v>
@@ -4111,8 +4186,8 @@
         <v>196</v>
       </c>
       <c r="E109" s="9"/>
-      <c r="F109" s="9" t="s">
-        <v>23</v>
+      <c r="F109" s="9">
+        <v/>
       </c>
       <c r="G109" s="9" t="b">
         <v>0</v>
@@ -4140,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="H110" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" x14ac:dyDescent="0.25">
@@ -4177,14 +4252,14 @@
         <v>202</v>
       </c>
       <c r="E112" s="9"/>
-      <c r="F112" s="9">
-        <v/>
+      <c r="F112" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="G112" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H112" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" x14ac:dyDescent="0.25">
@@ -4200,13 +4275,13 @@
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="9" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G113" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H113" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" x14ac:dyDescent="0.25">
@@ -4218,25 +4293,25 @@
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E114" s="9"/>
       <c r="F114" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G114" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H114" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9" t="s">
@@ -4265,52 +4340,52 @@
         <v>211</v>
       </c>
       <c r="E116" s="9"/>
-      <c r="F116" s="9" t="s">
-        <v>37</v>
+      <c r="F116" s="9">
+        <v/>
       </c>
       <c r="G116" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H116" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B117" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9" t="s">
-        <v>213</v>
-      </c>
+      <c r="B117" s="9">
+        <v>15906100172</v>
+      </c>
+      <c r="C117" s="9">
+        <v>15906100172</v>
+      </c>
+      <c r="D117" s="9"/>
       <c r="E117" s="9"/>
-      <c r="F117" s="9">
-        <v/>
+      <c r="F117" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="G117" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H117" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B118" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="B118" s="9">
-        <v>15906100172</v>
-      </c>
-      <c r="C118" s="9">
-        <v>15906100172</v>
-      </c>
-      <c r="D118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9" t="s">
+        <v>214</v>
+      </c>
       <c r="E118" s="9"/>
       <c r="F118" s="9" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G118" s="9" t="b">
         <v>0</v>
@@ -4332,7 +4407,7 @@
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G119" s="9" t="b">
         <v>0</v>
@@ -4353,8 +4428,8 @@
         <v>218</v>
       </c>
       <c r="E120" s="9"/>
-      <c r="F120" s="9" t="s">
-        <v>37</v>
+      <c r="F120" s="9">
+        <v/>
       </c>
       <c r="G120" s="9" t="b">
         <v>0</v>
@@ -4375,14 +4450,14 @@
         <v>220</v>
       </c>
       <c r="E121" s="9"/>
-      <c r="F121" s="9">
-        <v/>
+      <c r="F121" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G121" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H121" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" x14ac:dyDescent="0.25">
@@ -4404,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="H122" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" x14ac:dyDescent="0.25">
@@ -4441,8 +4516,8 @@
         <v>226</v>
       </c>
       <c r="E124" s="9"/>
-      <c r="F124" s="9" t="s">
-        <v>23</v>
+      <c r="F124" s="9">
+        <v/>
       </c>
       <c r="G124" s="9" t="b">
         <v>0</v>
@@ -4455,13 +4530,13 @@
       <c r="A125" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B125" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9" t="s">
-        <v>228</v>
-      </c>
+      <c r="B125" s="9">
+        <v>18640966567</v>
+      </c>
+      <c r="C125" s="9">
+        <v>18640966567</v>
+      </c>
+      <c r="D125" s="9"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9">
         <v/>
@@ -4470,21 +4545,21 @@
         <v>0</v>
       </c>
       <c r="H125" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B126" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B126" s="9">
-        <v>18640966567</v>
-      </c>
-      <c r="C126" s="9">
-        <v>18640966567</v>
-      </c>
+      <c r="C126" s="9"/>
       <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
+      <c r="E126" s="9" t="s">
+        <v>230</v>
+      </c>
       <c r="F126" s="9">
         <v/>
       </c>
@@ -4497,24 +4572,24 @@
     </row>
     <row r="127" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9" t="s">
+      <c r="D127" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="F127" s="9">
-        <v/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="G127" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H127" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" x14ac:dyDescent="0.25">
@@ -4530,7 +4605,7 @@
       </c>
       <c r="E128" s="9"/>
       <c r="F128" s="9" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G128" s="9" t="b">
         <v>0</v>
@@ -4573,8 +4648,8 @@
         <v>238</v>
       </c>
       <c r="E130" s="9"/>
-      <c r="F130" s="9" t="s">
-        <v>23</v>
+      <c r="F130" s="9">
+        <v/>
       </c>
       <c r="G130" s="9" t="b">
         <v>0</v>
@@ -4587,13 +4662,13 @@
       <c r="A131" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B131" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9" t="s">
-        <v>240</v>
-      </c>
+      <c r="B131" s="9">
+        <v>13916196695</v>
+      </c>
+      <c r="C131" s="9">
+        <v>13916196695</v>
+      </c>
+      <c r="D131" s="9"/>
       <c r="E131" s="9"/>
       <c r="F131" s="9">
         <v/>
@@ -4602,21 +4677,21 @@
         <v>0</v>
       </c>
       <c r="H131" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B132" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B132" s="9">
-        <v>13916196695</v>
-      </c>
-      <c r="C132" s="9">
-        <v>13916196695</v>
-      </c>
+      <c r="C132" s="9"/>
       <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
+      <c r="E132" s="9" t="s">
+        <v>242</v>
+      </c>
       <c r="F132" s="9">
         <v/>
       </c>
@@ -4629,16 +4704,16 @@
     </row>
     <row r="133" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9" t="s">
+      <c r="D133" s="9" t="s">
         <v>244</v>
       </c>
+      <c r="E133" s="9"/>
       <c r="F133" s="9">
         <v/>
       </c>
@@ -4656,19 +4731,21 @@
       <c r="B134" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C134" s="9"/>
+      <c r="C134" s="9">
+        <v>13501758595</v>
+      </c>
       <c r="D134" s="9" t="s">
         <v>246</v>
       </c>
       <c r="E134" s="9"/>
-      <c r="F134" s="9">
-        <v/>
+      <c r="F134" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G134" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H134" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" x14ac:dyDescent="0.25">
@@ -4678,21 +4755,19 @@
       <c r="B135" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C135" s="9">
-        <v>13501758595</v>
-      </c>
+      <c r="C135" s="9"/>
       <c r="D135" s="9" t="s">
         <v>248</v>
       </c>
       <c r="E135" s="9"/>
       <c r="F135" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G135" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H135" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" x14ac:dyDescent="0.25">
@@ -4703,32 +4778,32 @@
         <v>250</v>
       </c>
       <c r="C136" s="9"/>
-      <c r="D136" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="E136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9" t="s">
+        <v>251</v>
+      </c>
       <c r="F136" s="9" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G136" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H136" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9" t="s">
+      <c r="D137" s="9" t="s">
         <v>253</v>
       </c>
+      <c r="E137" s="9"/>
       <c r="F137" s="9" t="s">
         <v>23</v>
       </c>
@@ -4752,7 +4827,7 @@
       </c>
       <c r="E138" s="9"/>
       <c r="F138" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G138" s="9" t="b">
         <v>0</v>
@@ -4773,14 +4848,14 @@
         <v>257</v>
       </c>
       <c r="E139" s="9"/>
-      <c r="F139" s="9" t="s">
-        <v>37</v>
+      <c r="F139" s="9">
+        <v/>
       </c>
       <c r="G139" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H139" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" x14ac:dyDescent="0.25">
@@ -4791,34 +4866,36 @@
         <v>259</v>
       </c>
       <c r="C140" s="9"/>
-      <c r="D140" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9">
-        <v/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G140" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H140" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9" t="s">
         <v>262</v>
       </c>
+      <c r="C141" s="9">
+        <v>13578672391</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E141" s="9"/>
       <c r="F141" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G141" s="9" t="b">
         <v>0</v>
@@ -4834,35 +4911,33 @@
       <c r="B142" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="C142" s="9">
-        <v>13578672391</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9" t="s">
-        <v>37</v>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="F142" s="9">
+        <v/>
       </c>
       <c r="G142" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H142" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9" t="s">
+      <c r="D143" s="9" t="s">
         <v>267</v>
       </c>
+      <c r="E143" s="9"/>
       <c r="F143" s="9">
         <v/>
       </c>
@@ -4892,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="H144" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" x14ac:dyDescent="0.25">
@@ -4907,8 +4982,8 @@
         <v>271</v>
       </c>
       <c r="E145" s="9"/>
-      <c r="F145" s="9">
-        <v/>
+      <c r="F145" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="G145" s="9" t="b">
         <v>0</v>
@@ -4929,8 +5004,8 @@
         <v>273</v>
       </c>
       <c r="E146" s="9"/>
-      <c r="F146" s="9" t="s">
-        <v>37</v>
+      <c r="F146" s="9">
+        <v/>
       </c>
       <c r="G146" s="9" t="b">
         <v>0</v>
@@ -4947,10 +5022,10 @@
         <v>275</v>
       </c>
       <c r="C147" s="9"/>
-      <c r="D147" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="E147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9" t="s">
+        <v>276</v>
+      </c>
       <c r="F147" s="9">
         <v/>
       </c>
@@ -4958,29 +5033,29 @@
         <v>0</v>
       </c>
       <c r="H147" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="9" t="s">
+      <c r="D148" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="F148" s="9">
-        <v/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G148" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H148" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" x14ac:dyDescent="0.25">
@@ -5018,7 +5093,7 @@
       </c>
       <c r="E150" s="9"/>
       <c r="F150" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G150" s="9" t="b">
         <v>0</v>
@@ -5040,7 +5115,7 @@
       </c>
       <c r="E151" s="9"/>
       <c r="F151" s="9" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G151" s="9" t="b">
         <v>0</v>
@@ -5062,7 +5137,7 @@
       </c>
       <c r="E152" s="9"/>
       <c r="F152" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G152" s="9" t="b">
         <v>0</v>
@@ -5105,14 +5180,14 @@
         <v>290</v>
       </c>
       <c r="E154" s="9"/>
-      <c r="F154" s="9" t="s">
-        <v>37</v>
+      <c r="F154" s="9">
+        <v/>
       </c>
       <c r="G154" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H154" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" x14ac:dyDescent="0.25">
@@ -5127,30 +5202,30 @@
         <v>292</v>
       </c>
       <c r="E155" s="9"/>
-      <c r="F155" s="9">
-        <v/>
+      <c r="F155" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="G155" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H155" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="B156" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="C156" s="9"/>
-      <c r="D156" s="9" t="s">
-        <v>294</v>
-      </c>
+      <c r="B156" s="9">
+        <v>18660107783</v>
+      </c>
+      <c r="C156" s="9">
+        <v>18660107783</v>
+      </c>
+      <c r="D156" s="9"/>
       <c r="E156" s="9"/>
       <c r="F156" s="9" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G156" s="9" t="b">
         <v>0</v>
@@ -5161,18 +5236,22 @@
     </row>
     <row r="157" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B157" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="B157" s="9">
-        <v>18660107783</v>
-      </c>
       <c r="C157" s="9">
-        <v>18660107783</v>
-      </c>
-      <c r="D157" s="9"/>
-      <c r="E157" s="9"/>
-      <c r="F157" s="9" t="s">
-        <v>23</v>
+        <v>13908230454</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="F157" s="9">
+        <v/>
       </c>
       <c r="G157" s="9" t="b">
         <v>0</v>
@@ -5183,22 +5262,18 @@
     </row>
     <row r="158" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="C158" s="9">
-        <v>13908230454</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="C158" s="9"/>
       <c r="D158" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="E158" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="F158" s="9">
-        <v/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G158" s="9" t="b">
         <v>0</v>
@@ -5219,14 +5294,14 @@
         <v>301</v>
       </c>
       <c r="E159" s="9"/>
-      <c r="F159" s="9" t="s">
-        <v>23</v>
+      <c r="F159" s="9">
+        <v/>
       </c>
       <c r="G159" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H159" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" x14ac:dyDescent="0.25">
@@ -5241,14 +5316,14 @@
         <v>303</v>
       </c>
       <c r="E160" s="9"/>
-      <c r="F160" s="9">
-        <v/>
+      <c r="F160" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G160" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H160" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" x14ac:dyDescent="0.25">
@@ -5285,14 +5360,14 @@
         <v>307</v>
       </c>
       <c r="E162" s="9"/>
-      <c r="F162" s="9" t="s">
-        <v>23</v>
+      <c r="F162" s="9">
+        <v/>
       </c>
       <c r="G162" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H162" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" x14ac:dyDescent="0.25">
@@ -5303,10 +5378,10 @@
         <v>309</v>
       </c>
       <c r="C163" s="9"/>
-      <c r="D163" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="E163" s="9"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9" t="s">
+        <v>310</v>
+      </c>
       <c r="F163" s="9">
         <v/>
       </c>
@@ -5319,42 +5394,42 @@
     </row>
     <row r="164" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="C164" s="9"/>
-      <c r="D164" s="9"/>
+        <v>312</v>
+      </c>
+      <c r="C164" s="9">
+        <v>13806669413</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>313</v>
+      </c>
       <c r="E164" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="F164" s="9">
-        <v/>
+        <v>314</v>
+      </c>
+      <c r="F164" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G164" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H164" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="C165" s="9">
-        <v>13806669413</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="C165" s="9"/>
       <c r="D165" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="E165" s="9" t="s">
         <v>316</v>
       </c>
+      <c r="E165" s="9"/>
       <c r="F165" s="9" t="s">
         <v>23</v>
       </c>
@@ -5465,27 +5540,27 @@
         <v>326</v>
       </c>
       <c r="E170" s="9"/>
-      <c r="F170" s="9" t="s">
-        <v>23</v>
+      <c r="F170" s="9">
+        <v/>
       </c>
       <c r="G170" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H170" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="B171" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="C171" s="9"/>
-      <c r="D171" s="9" t="s">
-        <v>328</v>
-      </c>
+      <c r="B171" s="9">
+        <v>18653136175</v>
+      </c>
+      <c r="C171" s="9">
+        <v>18653136175</v>
+      </c>
+      <c r="D171" s="9"/>
       <c r="E171" s="9"/>
       <c r="F171" s="9">
         <v/>
@@ -5499,15 +5574,15 @@
     </row>
     <row r="172" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B172" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="B172" s="9">
-        <v>18653136175</v>
-      </c>
-      <c r="C172" s="9">
-        <v>18653136175</v>
-      </c>
-      <c r="D172" s="9"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9" t="s">
+        <v>329</v>
+      </c>
       <c r="E172" s="9"/>
       <c r="F172" s="9">
         <v/>
@@ -5516,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="H172" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" x14ac:dyDescent="0.25">
@@ -5538,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="H173" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" x14ac:dyDescent="0.25">
@@ -5553,14 +5628,14 @@
         <v>333</v>
       </c>
       <c r="E174" s="9"/>
-      <c r="F174" s="9">
-        <v/>
+      <c r="F174" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G174" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H174" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" x14ac:dyDescent="0.25">
@@ -5571,56 +5646,56 @@
         <v>335</v>
       </c>
       <c r="C175" s="9"/>
-      <c r="D175" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="E175" s="9"/>
-      <c r="F175" s="9" t="s">
-        <v>23</v>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="F175" s="9">
+        <v/>
       </c>
       <c r="G175" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H175" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
       <c r="E176" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="F176" s="9">
-        <v/>
+        <v>339</v>
+      </c>
+      <c r="F176" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="G176" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H176" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="B177" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="C177" s="9"/>
+      <c r="B177" s="9">
+        <v>13806101560</v>
+      </c>
+      <c r="C177" s="9">
+        <v>13806101560</v>
+      </c>
       <c r="D177" s="9"/>
-      <c r="E177" s="9" t="s">
-        <v>341</v>
-      </c>
+      <c r="E177" s="9"/>
       <c r="F177" s="9" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G177" s="9" t="b">
         <v>0</v>
@@ -5631,24 +5706,24 @@
     </row>
     <row r="178" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B178" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="B178" s="9">
-        <v>13806101560</v>
-      </c>
-      <c r="C178" s="9">
-        <v>13806101560</v>
-      </c>
-      <c r="D178" s="9"/>
+      <c r="C178" s="9"/>
+      <c r="D178" s="9" t="s">
+        <v>342</v>
+      </c>
       <c r="E178" s="9"/>
-      <c r="F178" s="9" t="s">
-        <v>23</v>
+      <c r="F178" s="9">
+        <v/>
       </c>
       <c r="G178" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H178" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" x14ac:dyDescent="0.25">
@@ -5663,14 +5738,14 @@
         <v>344</v>
       </c>
       <c r="E179" s="9"/>
-      <c r="F179" s="9">
-        <v/>
+      <c r="F179" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G179" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H179" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" x14ac:dyDescent="0.25">
@@ -5681,12 +5756,12 @@
         <v>346</v>
       </c>
       <c r="C180" s="9"/>
-      <c r="D180" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E180" s="9"/>
+      <c r="D180" s="9"/>
+      <c r="E180" s="9" t="s">
+        <v>347</v>
+      </c>
       <c r="F180" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G180" s="9" t="b">
         <v>0</v>
@@ -5697,18 +5772,18 @@
     </row>
     <row r="181" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C181" s="9"/>
-      <c r="D181" s="9"/>
-      <c r="E181" s="9" t="s">
+      <c r="D181" s="9" t="s">
         <v>349</v>
       </c>
+      <c r="E181" s="9"/>
       <c r="F181" s="9" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G181" s="9" t="b">
         <v>0</v>
@@ -5724,11 +5799,13 @@
       <c r="B182" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="C182" s="9"/>
-      <c r="D182" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="E182" s="9"/>
+      <c r="C182" s="9">
+        <v>18801901440</v>
+      </c>
+      <c r="D182" s="9"/>
+      <c r="E182" s="9" t="s">
+        <v>352</v>
+      </c>
       <c r="F182" s="9" t="s">
         <v>23</v>
       </c>
@@ -5741,20 +5818,18 @@
     </row>
     <row r="183" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="C183" s="9">
-        <v>18801901440</v>
-      </c>
-      <c r="D183" s="9"/>
-      <c r="E183" s="9" t="s">
         <v>354</v>
       </c>
+      <c r="C183" s="9"/>
+      <c r="D183" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="E183" s="9"/>
       <c r="F183" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G183" s="9" t="b">
         <v>0</v>
@@ -5770,11 +5845,13 @@
       <c r="B184" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="C184" s="9"/>
-      <c r="D184" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="E184" s="9"/>
+      <c r="C184" s="9">
+        <v>15275942285</v>
+      </c>
+      <c r="D184" s="9"/>
+      <c r="E184" s="9" t="s">
+        <v>357</v>
+      </c>
       <c r="F184" s="9" t="s">
         <v>37</v>
       </c>
@@ -5787,20 +5864,18 @@
     </row>
     <row r="185" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="C185" s="9">
-        <v>15275942285</v>
-      </c>
-      <c r="D185" s="9"/>
-      <c r="E185" s="9" t="s">
         <v>359</v>
       </c>
+      <c r="C185" s="9"/>
+      <c r="D185" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="E185" s="9"/>
       <c r="F185" s="9" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G185" s="9" t="b">
         <v>0</v>
@@ -5861,12 +5936,12 @@
         <v>365</v>
       </c>
       <c r="C188" s="9"/>
-      <c r="D188" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="E188" s="9"/>
+      <c r="D188" s="9"/>
+      <c r="E188" s="9" t="s">
+        <v>366</v>
+      </c>
       <c r="F188" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G188" s="9" t="b">
         <v>0</v>
@@ -5877,18 +5952,18 @@
     </row>
     <row r="189" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C189" s="9"/>
-      <c r="D189" s="9"/>
-      <c r="E189" s="9" t="s">
+      <c r="D189" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="F189" s="9" t="s">
-        <v>37</v>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9">
+        <v/>
       </c>
       <c r="G189" s="9" t="b">
         <v>0</v>
@@ -5905,10 +5980,10 @@
         <v>370</v>
       </c>
       <c r="C190" s="9"/>
-      <c r="D190" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="E190" s="9"/>
+      <c r="D190" s="9"/>
+      <c r="E190" s="9" t="s">
+        <v>371</v>
+      </c>
       <c r="F190" s="9">
         <v/>
       </c>
@@ -5916,23 +5991,23 @@
         <v>0</v>
       </c>
       <c r="H190" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C191" s="9"/>
-      <c r="D191" s="9"/>
-      <c r="E191" s="9" t="s">
+      <c r="D191" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="F191" s="9">
-        <v/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G191" s="9" t="b">
         <v>0</v>
@@ -5954,29 +6029,29 @@
       </c>
       <c r="E192" s="9"/>
       <c r="F192" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G192" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H192" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="B193" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="C193" s="9"/>
-      <c r="D193" s="9" t="s">
-        <v>377</v>
-      </c>
+      <c r="B193" s="9">
+        <v>13376180298</v>
+      </c>
+      <c r="C193" s="9">
+        <v>13376180298</v>
+      </c>
+      <c r="D193" s="9"/>
       <c r="E193" s="9"/>
-      <c r="F193" s="9" t="s">
-        <v>37</v>
+      <c r="F193" s="9">
+        <v/>
       </c>
       <c r="G193" s="9" t="b">
         <v>0</v>
@@ -5987,18 +6062,18 @@
     </row>
     <row r="194" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B194" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="B194" s="9">
-        <v>13376180298</v>
-      </c>
-      <c r="C194" s="9">
-        <v>13376180298</v>
-      </c>
+      <c r="C194" s="9"/>
       <c r="D194" s="9"/>
-      <c r="E194" s="9"/>
-      <c r="F194" s="9">
-        <v/>
+      <c r="E194" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="F194" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="G194" s="9" t="b">
         <v>0</v>
@@ -6009,18 +6084,18 @@
     </row>
     <row r="195" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="B195" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="C195" s="9"/>
+      <c r="B195" s="9">
+        <v>15906101152</v>
+      </c>
+      <c r="C195" s="9">
+        <v>15906101152</v>
+      </c>
       <c r="D195" s="9"/>
-      <c r="E195" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="F195" s="9" t="s">
-        <v>37</v>
+      <c r="E195" s="9"/>
+      <c r="F195" s="9">
+        <v/>
       </c>
       <c r="G195" s="9" t="b">
         <v>0</v>
@@ -6031,15 +6106,15 @@
     </row>
     <row r="196" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B196" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="B196" s="9">
-        <v>15906101152</v>
-      </c>
-      <c r="C196" s="9">
-        <v>15906101152</v>
-      </c>
-      <c r="D196" s="9"/>
+      <c r="C196" s="9"/>
+      <c r="D196" s="9" t="s">
+        <v>382</v>
+      </c>
       <c r="E196" s="9"/>
       <c r="F196" s="9">
         <v/>
@@ -6056,13 +6131,13 @@
         <v>383</v>
       </c>
       <c r="B197" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C197" s="9"/>
+      <c r="D197" s="9"/>
+      <c r="E197" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C197" s="9"/>
-      <c r="D197" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="E197" s="9"/>
       <c r="F197" s="9">
         <v/>
       </c>
@@ -6070,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="H197" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" x14ac:dyDescent="0.25">
@@ -6099,14 +6174,14 @@
       <c r="A199" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="B199" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C199" s="9"/>
+      <c r="B199" s="9">
+        <v>13916364925</v>
+      </c>
+      <c r="C199" s="9">
+        <v>13916364925</v>
+      </c>
       <c r="D199" s="9"/>
-      <c r="E199" s="9" t="s">
-        <v>388</v>
-      </c>
+      <c r="E199" s="9"/>
       <c r="F199" s="9">
         <v/>
       </c>
@@ -6119,18 +6194,18 @@
     </row>
     <row r="200" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B200" s="9">
-        <v>13916364925</v>
+        <v>15906100920</v>
       </c>
       <c r="C200" s="9">
-        <v>13916364925</v>
+        <v>15906100920</v>
       </c>
       <c r="D200" s="9"/>
       <c r="E200" s="9"/>
-      <c r="F200" s="9">
-        <v/>
+      <c r="F200" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G200" s="9" t="b">
         <v>0</v>
@@ -6141,18 +6216,18 @@
     </row>
     <row r="201" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="B201" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="B201" s="9">
-        <v>15906100920</v>
-      </c>
-      <c r="C201" s="9">
-        <v>15906100920</v>
-      </c>
+      <c r="C201" s="9"/>
       <c r="D201" s="9"/>
-      <c r="E201" s="9"/>
-      <c r="F201" s="9" t="s">
-        <v>23</v>
+      <c r="E201" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="F201" s="9">
+        <v/>
       </c>
       <c r="G201" s="9" t="b">
         <v>0</v>
@@ -6163,24 +6238,24 @@
     </row>
     <row r="202" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C202" s="9"/>
-      <c r="D202" s="9"/>
-      <c r="E202" s="9" t="s">
+      <c r="D202" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="F202" s="9">
-        <v/>
+      <c r="E202" s="9"/>
+      <c r="F202" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G202" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H202" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" x14ac:dyDescent="0.25">
@@ -6212,13 +6287,15 @@
       <c r="B204" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="C204" s="9"/>
-      <c r="D204" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="E204" s="9"/>
-      <c r="F204" s="9" t="s">
-        <v>23</v>
+      <c r="C204" s="9">
+        <v>15906101031</v>
+      </c>
+      <c r="D204" s="9"/>
+      <c r="E204" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="F204" s="9">
+        <v/>
       </c>
       <c r="G204" s="9" t="b">
         <v>0</v>
@@ -6229,20 +6306,18 @@
     </row>
     <row r="205" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="B205" s="9" t="s">
         <v>399</v>
       </c>
+      <c r="B205" s="9">
+        <v>13506102028</v>
+      </c>
       <c r="C205" s="9">
-        <v>15906101031</v>
+        <v>13506102028</v>
       </c>
       <c r="D205" s="9"/>
-      <c r="E205" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="F205" s="9">
-        <v/>
+      <c r="E205" s="9"/>
+      <c r="F205" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G205" s="9" t="b">
         <v>0</v>
@@ -6253,15 +6328,15 @@
     </row>
     <row r="206" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="B206" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B206" s="9">
-        <v>13506102028</v>
-      </c>
-      <c r="C206" s="9">
-        <v>13506102028</v>
-      </c>
-      <c r="D206" s="9"/>
+      <c r="C206" s="9"/>
+      <c r="D206" s="9" t="s">
+        <v>401</v>
+      </c>
       <c r="E206" s="9"/>
       <c r="F206" s="9" t="s">
         <v>23</v>
@@ -6286,7 +6361,7 @@
       </c>
       <c r="E207" s="9"/>
       <c r="F207" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G207" s="9" t="b">
         <v>0</v>
@@ -6303,54 +6378,54 @@
         <v>405</v>
       </c>
       <c r="C208" s="9"/>
-      <c r="D208" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="E208" s="9"/>
-      <c r="F208" s="9" t="s">
-        <v>37</v>
+      <c r="D208" s="9"/>
+      <c r="E208" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="F208" s="9">
+        <v/>
       </c>
       <c r="G208" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H208" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C209" s="9"/>
       <c r="D209" s="9"/>
       <c r="E209" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="F209" s="9">
-        <v/>
+        <v>409</v>
+      </c>
+      <c r="F209" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G209" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H209" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C210" s="9"/>
-      <c r="D210" s="9"/>
-      <c r="E210" s="9" t="s">
+      <c r="D210" s="9" t="s">
         <v>411</v>
       </c>
+      <c r="E210" s="9"/>
       <c r="F210" s="9" t="s">
         <v>23</v>
       </c>
@@ -6418,7 +6493,7 @@
       </c>
       <c r="E213" s="9"/>
       <c r="F213" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G213" s="9" t="b">
         <v>0</v>
@@ -6440,7 +6515,7 @@
       </c>
       <c r="E214" s="9"/>
       <c r="F214" s="9" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G214" s="9" t="b">
         <v>0</v>
@@ -6457,32 +6532,32 @@
         <v>421</v>
       </c>
       <c r="C215" s="9"/>
-      <c r="D215" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="E215" s="9"/>
-      <c r="F215" s="9" t="s">
-        <v>23</v>
+      <c r="D215" s="9"/>
+      <c r="E215" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="F215" s="9">
+        <v/>
       </c>
       <c r="G215" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H215" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="B216" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="C216" s="9"/>
+      <c r="B216" s="9">
+        <v>18021220711</v>
+      </c>
+      <c r="C216" s="9">
+        <v>18021220711</v>
+      </c>
       <c r="D216" s="9"/>
-      <c r="E216" s="9" t="s">
-        <v>424</v>
-      </c>
+      <c r="E216" s="9"/>
       <c r="F216" s="9">
         <v/>
       </c>
@@ -6495,57 +6570,57 @@
     </row>
     <row r="217" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B217" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="B217" s="9">
-        <v>18021220711</v>
-      </c>
-      <c r="C217" s="9">
-        <v>18021220711</v>
-      </c>
-      <c r="D217" s="9"/>
+      <c r="C217" s="9"/>
+      <c r="D217" s="9" t="s">
+        <v>425</v>
+      </c>
       <c r="E217" s="9"/>
-      <c r="F217" s="9">
-        <v/>
+      <c r="F217" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G217" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H217" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="B218" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="C218" s="9"/>
-      <c r="D218" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="B218" s="9">
+        <v>18602743200</v>
+      </c>
+      <c r="C218" s="9">
+        <v>18602743200</v>
+      </c>
+      <c r="D218" s="9"/>
       <c r="E218" s="9"/>
-      <c r="F218" s="9" t="s">
-        <v>23</v>
+      <c r="F218" s="9">
+        <v/>
       </c>
       <c r="G218" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H218" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B219" s="9">
-        <v>18602743200</v>
+        <v>13764518105</v>
       </c>
       <c r="C219" s="9">
-        <v>18602743200</v>
+        <v>13764518105</v>
       </c>
       <c r="D219" s="9"/>
       <c r="E219" s="9"/>
@@ -6561,13 +6636,13 @@
     </row>
     <row r="220" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B220" s="9">
-        <v>13764518105</v>
+        <v>15906101153</v>
       </c>
       <c r="C220" s="9">
-        <v>13764518105</v>
+        <v>15906101153</v>
       </c>
       <c r="D220" s="9"/>
       <c r="E220" s="9"/>
@@ -6583,16 +6658,16 @@
     </row>
     <row r="221" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B221" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="B221" s="9">
-        <v>15906101153</v>
-      </c>
-      <c r="C221" s="9">
-        <v>15906101153</v>
-      </c>
+      <c r="C221" s="9"/>
       <c r="D221" s="9"/>
-      <c r="E221" s="9"/>
+      <c r="E221" s="9" t="s">
+        <v>431</v>
+      </c>
       <c r="F221" s="9">
         <v/>
       </c>
@@ -6605,16 +6680,16 @@
     </row>
     <row r="222" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C222" s="9"/>
-      <c r="D222" s="9"/>
-      <c r="E222" s="9" t="s">
+      <c r="D222" s="9" t="s">
         <v>433</v>
       </c>
+      <c r="E222" s="9"/>
       <c r="F222" s="9">
         <v/>
       </c>
@@ -6633,61 +6708,349 @@
         <v>435</v>
       </c>
       <c r="C223" s="9"/>
-      <c r="D223" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="E223" s="9"/>
-      <c r="F223" s="9">
-        <v/>
+      <c r="D223" s="9"/>
+      <c r="E223" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="F223" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="G223" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H223" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C224" s="9"/>
       <c r="D224" s="9"/>
       <c r="E224" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="F224" s="9" t="s">
-        <v>37</v>
+        <v>439</v>
+      </c>
+      <c r="F224" s="9">
+        <v/>
       </c>
       <c r="G224" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H224" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C225" s="9"/>
       <c r="D225" s="9"/>
       <c r="E225" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="F225" s="9">
-        <v/>
+        <v>442</v>
+      </c>
+      <c r="F225" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="G225" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H225" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" x14ac:dyDescent="0.25">
+      <c r="A226" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C226" s="9"/>
+      <c r="D226" s="9"/>
+      <c r="E226" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="F226" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G226" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H226" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" x14ac:dyDescent="0.25">
+      <c r="A227" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C227" s="9">
+        <v>98765432190</v>
+      </c>
+      <c r="D227" s="9"/>
+      <c r="E227" s="9">
+        <v>100005374517980</v>
+      </c>
+      <c r="F227" s="9">
+        <v/>
+      </c>
+      <c r="G227" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H227" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" x14ac:dyDescent="0.25">
+      <c r="A228" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C228" s="9"/>
+      <c r="D228" s="9"/>
+      <c r="E228" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="F228" s="9">
+        <v/>
+      </c>
+      <c r="G228" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H228" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" x14ac:dyDescent="0.25">
+      <c r="A229" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C229" s="9"/>
+      <c r="D229" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="E229" s="9"/>
+      <c r="F229" s="9">
+        <v/>
+      </c>
+      <c r="G229" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H229" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" x14ac:dyDescent="0.25">
+      <c r="A230" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C230" s="9"/>
+      <c r="D230" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="E230" s="9"/>
+      <c r="F230" s="9">
+        <v/>
+      </c>
+      <c r="G230" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H230" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" x14ac:dyDescent="0.25">
+      <c r="A231" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="C231" s="9"/>
+      <c r="D231" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="E231" s="9"/>
+      <c r="F231" s="9">
+        <v/>
+      </c>
+      <c r="G231" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H231" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" x14ac:dyDescent="0.25">
+      <c r="A232" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B232" s="9">
+        <v>15138722729</v>
+      </c>
+      <c r="C232" s="9">
+        <v>15138722729</v>
+      </c>
+      <c r="D232" s="9"/>
+      <c r="E232" s="9"/>
+      <c r="F232" s="9">
+        <v/>
+      </c>
+      <c r="G232" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H232" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" x14ac:dyDescent="0.25">
+      <c r="A233" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B233" s="9">
+        <v>15221356137</v>
+      </c>
+      <c r="C233" s="9">
+        <v>15221356137</v>
+      </c>
+      <c r="D233" s="9"/>
+      <c r="E233" s="9"/>
+      <c r="F233" s="9">
+        <v/>
+      </c>
+      <c r="G233" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H233" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" x14ac:dyDescent="0.25">
+      <c r="A234" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B234" s="9">
+        <v>15705292886</v>
+      </c>
+      <c r="C234" s="9">
+        <v>15705292886</v>
+      </c>
+      <c r="D234" s="9"/>
+      <c r="E234" s="9"/>
+      <c r="F234" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G234" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H234" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" x14ac:dyDescent="0.25">
+      <c r="A235" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B235" s="9">
+        <v>18017900508</v>
+      </c>
+      <c r="C235" s="9">
+        <v>18017900508</v>
+      </c>
+      <c r="D235" s="9"/>
+      <c r="E235" s="9"/>
+      <c r="F235" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G235" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H235" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" x14ac:dyDescent="0.25">
+      <c r="A236" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="C236" s="9"/>
+      <c r="D236" s="9"/>
+      <c r="E236" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="F236" s="9">
+        <v/>
+      </c>
+      <c r="G236" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H236" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" x14ac:dyDescent="0.25">
+      <c r="A237" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C237" s="9"/>
+      <c r="D237" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="E237" s="9"/>
+      <c r="F237" s="9">
+        <v/>
+      </c>
+      <c r="G237" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H237" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" x14ac:dyDescent="0.25">
+      <c r="A238" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="C238" s="9"/>
+      <c r="D238" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="E238" s="9"/>
+      <c r="F238" s="9">
+        <v/>
+      </c>
+      <c r="G238" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H238" s="9">
         <v>0</v>
       </c>
     </row>

--- a/static/appuser/appuser.xlsx
+++ b/static/appuser/appuser.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="522">
   <si>
     <t>编号</t>
   </si>
@@ -1415,6 +1415,171 @@
   </si>
   <si>
     <t>ee@126.com</t>
+  </si>
+  <si>
+    <t>53aa91afb10e0ca44ddcc9b9</t>
+  </si>
+  <si>
+    <t>廖加亮</t>
+  </si>
+  <si>
+    <t>BA6BCECC10E4016C7A165A44E6DC4B1F</t>
+  </si>
+  <si>
+    <t>53aac4f0b10e0ca44ddcc9c3</t>
+  </si>
+  <si>
+    <t>yyyy</t>
+  </si>
+  <si>
+    <t>E49856D73AD6878E1E54C6D7C1DF905A</t>
+  </si>
+  <si>
+    <t>53aada86b10e0ca44ddcc9c7</t>
+  </si>
+  <si>
+    <t>魏</t>
+  </si>
+  <si>
+    <t>44A8B2BF9DEB88100CF02F772419051C</t>
+  </si>
+  <si>
+    <t>53ab881db10e0ca44ddcc9d1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>A54338AE3D2F8CCF5BF4F1B6493CAED4</t>
+  </si>
+  <si>
+    <t>53ab922cb10e0ca44ddcc9d2</t>
+  </si>
+  <si>
+    <t>panxudong@wanxinop.com</t>
+  </si>
+  <si>
+    <t>53ad0e70b10e0ca44ddcc9f8</t>
+  </si>
+  <si>
+    <t>53ad4e51b10e0ca44ddcca05</t>
+  </si>
+  <si>
+    <t>53ad015fb10e0ca44ddcc9f5</t>
+  </si>
+  <si>
+    <t>E时代淑女</t>
+  </si>
+  <si>
+    <t>9C18FD0E410A5EBF74342A42A1275003</t>
+  </si>
+  <si>
+    <t>53ae25b8b10e0ca44ddcca0d</t>
+  </si>
+  <si>
+    <t>薛馨悦悦长腿萌妹子</t>
+  </si>
+  <si>
+    <t>2.00qajrlBoJ6_xC8ab4ea870d0wwJB2</t>
+  </si>
+  <si>
+    <t>53ae7b31b10e0ca44ddcca17</t>
+  </si>
+  <si>
+    <t>wuliyue06@126.com</t>
+  </si>
+  <si>
+    <t>53aeb865b10e0ca44ddcca19</t>
+  </si>
+  <si>
+    <t>穹〃若灵</t>
+  </si>
+  <si>
+    <t>585E52EB82E4CF269E65CB68F863110E</t>
+  </si>
+  <si>
+    <t>53afbce4b10e0ca44ddcca2a</t>
+  </si>
+  <si>
+    <t>53b0c0fab10e0ca44ddcca35</t>
+  </si>
+  <si>
+    <t>Vivian(=^_^=)</t>
+  </si>
+  <si>
+    <t>0FEA5C1D1293A93BE65BC4CED401A53A</t>
+  </si>
+  <si>
+    <t>53b0e354b10e0ca44ddcca3a</t>
+  </si>
+  <si>
+    <t>53b10a17b10e0ca44ddcca3d</t>
+  </si>
+  <si>
+    <t>乐le-le</t>
+  </si>
+  <si>
+    <t>2.00hPPExCoJ6_xC4824d5b222PspmIE</t>
+  </si>
+  <si>
+    <t>53b11bc8b10e0ca44ddcca46</t>
+  </si>
+  <si>
+    <t>jennifer.lee@essilor.com.hk</t>
+  </si>
+  <si>
+    <t>53b24062b10e0ca44ddcca5d</t>
+  </si>
+  <si>
+    <t>/fendou阿西</t>
+  </si>
+  <si>
+    <t>31E931913138AFD9C0AE1304C00EC2F9</t>
+  </si>
+  <si>
+    <t>53b267ebb10e0ca44ddcca66</t>
+  </si>
+  <si>
+    <t>點點</t>
+  </si>
+  <si>
+    <t>4519739559856EDE5B908943FCE447B7</t>
+  </si>
+  <si>
+    <t>53b36387b10e0ca44ddcca71</t>
+  </si>
+  <si>
+    <t>▍低吟゛花非花的格调</t>
+  </si>
+  <si>
+    <t>F572840B4B44220A85C55EE60E09E71E</t>
+  </si>
+  <si>
+    <t>53b3a2ccb10e0ca44ddcca79</t>
+  </si>
+  <si>
+    <t>变鞋金刚0505</t>
+  </si>
+  <si>
+    <t>2.00dkPZhCoJ6_xCbe9e81627e0o3ApU</t>
+  </si>
+  <si>
+    <t>53b4b288b10e0ca44ddcca8a</t>
+  </si>
+  <si>
+    <t>菜包子</t>
+  </si>
+  <si>
+    <t>B070C5FFE949014192CB5EF46F4BDD0D</t>
+  </si>
+  <si>
+    <t>53b4c244b10e0ca44ddcca8f</t>
+  </si>
+  <si>
+    <t>ゞFiona--━つ</t>
+  </si>
+  <si>
+    <t>7FE19821C79B59D3A4DC519CD9DD2E15</t>
   </si>
 </sst>
 </file>
@@ -1770,7 +1935,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H238"/>
+  <dimension ref="A1:H260"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7054,6 +7219,492 @@
         <v>0</v>
       </c>
     </row>
+    <row r="239" x14ac:dyDescent="0.25">
+      <c r="A239" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C239" s="9"/>
+      <c r="D239" s="9"/>
+      <c r="E239" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="F239" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G239" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H239" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" x14ac:dyDescent="0.25">
+      <c r="A240" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C240" s="9"/>
+      <c r="D240" s="9"/>
+      <c r="E240" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="F240" s="9">
+        <v/>
+      </c>
+      <c r="G240" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H240" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" x14ac:dyDescent="0.25">
+      <c r="A241" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C241" s="9"/>
+      <c r="D241" s="9"/>
+      <c r="E241" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="F241" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G241" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H241" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" x14ac:dyDescent="0.25">
+      <c r="A242" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="C242" s="9"/>
+      <c r="D242" s="9"/>
+      <c r="E242" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="F242" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G242" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H242" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" x14ac:dyDescent="0.25">
+      <c r="A243" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C243" s="9"/>
+      <c r="D243" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="E243" s="9"/>
+      <c r="F243" s="9">
+        <v/>
+      </c>
+      <c r="G243" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H243" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" x14ac:dyDescent="0.25">
+      <c r="A244" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B244" s="9">
+        <v>13913893671</v>
+      </c>
+      <c r="C244" s="9">
+        <v>13913893671</v>
+      </c>
+      <c r="D244" s="9"/>
+      <c r="E244" s="9"/>
+      <c r="F244" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G244" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H244" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" x14ac:dyDescent="0.25">
+      <c r="A245" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B245" s="9">
+        <v>13817247299</v>
+      </c>
+      <c r="C245" s="9">
+        <v>13817247299</v>
+      </c>
+      <c r="D245" s="9"/>
+      <c r="E245" s="9"/>
+      <c r="F245" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G245" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H245" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" x14ac:dyDescent="0.25">
+      <c r="A246" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B246" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="C246" s="9">
+        <v>18019715851</v>
+      </c>
+      <c r="D246" s="9"/>
+      <c r="E246" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="F246" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G246" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H246" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" x14ac:dyDescent="0.25">
+      <c r="A247" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C247" s="9"/>
+      <c r="D247" s="9"/>
+      <c r="E247" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="F247" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G247" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H247" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" x14ac:dyDescent="0.25">
+      <c r="A248" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B248" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C248" s="9"/>
+      <c r="D248" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="E248" s="9"/>
+      <c r="F248" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G248" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H248" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" x14ac:dyDescent="0.25">
+      <c r="A249" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C249" s="9"/>
+      <c r="D249" s="9"/>
+      <c r="E249" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="F249" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G249" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H249" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" x14ac:dyDescent="0.25">
+      <c r="A250" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="B250" s="9">
+        <v>15262936601</v>
+      </c>
+      <c r="C250" s="9">
+        <v>15262936601</v>
+      </c>
+      <c r="D250" s="9"/>
+      <c r="E250" s="9"/>
+      <c r="F250" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G250" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H250" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" x14ac:dyDescent="0.25">
+      <c r="A251" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B251" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="C251" s="9"/>
+      <c r="D251" s="9"/>
+      <c r="E251" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="F251" s="9">
+        <v/>
+      </c>
+      <c r="G251" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H251" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" x14ac:dyDescent="0.25">
+      <c r="A252" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B252" s="9">
+        <v>15238090702</v>
+      </c>
+      <c r="C252" s="9">
+        <v>15238090702</v>
+      </c>
+      <c r="D252" s="9"/>
+      <c r="E252" s="9"/>
+      <c r="F252" s="9">
+        <v/>
+      </c>
+      <c r="G252" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H252" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" x14ac:dyDescent="0.25">
+      <c r="A253" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="C253" s="9"/>
+      <c r="D253" s="9"/>
+      <c r="E253" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="F253" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G253" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H253" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" x14ac:dyDescent="0.25">
+      <c r="A254" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B254" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C254" s="9"/>
+      <c r="D254" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="E254" s="9"/>
+      <c r="F254" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G254" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H254" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" x14ac:dyDescent="0.25">
+      <c r="A255" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="B255" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C255" s="9"/>
+      <c r="D255" s="9"/>
+      <c r="E255" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="F255" s="9">
+        <v/>
+      </c>
+      <c r="G255" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H255" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" x14ac:dyDescent="0.25">
+      <c r="A256" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B256" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C256" s="9"/>
+      <c r="D256" s="9"/>
+      <c r="E256" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="F256" s="9">
+        <v/>
+      </c>
+      <c r="G256" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H256" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" x14ac:dyDescent="0.25">
+      <c r="A257" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="B257" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="C257" s="9"/>
+      <c r="D257" s="9"/>
+      <c r="E257" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="F257" s="9">
+        <v/>
+      </c>
+      <c r="G257" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H257" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" x14ac:dyDescent="0.25">
+      <c r="A258" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="B258" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="C258" s="9"/>
+      <c r="D258" s="9"/>
+      <c r="E258" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="F258" s="9">
+        <v/>
+      </c>
+      <c r="G258" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H258" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" x14ac:dyDescent="0.25">
+      <c r="A259" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B259" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C259" s="9"/>
+      <c r="D259" s="9"/>
+      <c r="E259" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="F259" s="9">
+        <v/>
+      </c>
+      <c r="G259" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H259" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" x14ac:dyDescent="0.25">
+      <c r="A260" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B260" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="C260" s="9"/>
+      <c r="D260" s="9"/>
+      <c r="E260" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="F260" s="9">
+        <v/>
+      </c>
+      <c r="G260" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H260" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100"/>

--- a/static/appuser/appuser.xlsx
+++ b/static/appuser/appuser.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="554">
   <si>
     <t>编号</t>
   </si>
@@ -1580,6 +1580,102 @@
   </si>
   <si>
     <t>7FE19821C79B59D3A4DC519CD9DD2E15</t>
+  </si>
+  <si>
+    <t>53b4d981b10e0ca44ddcca94</t>
+  </si>
+  <si>
+    <t>♚Sarah(猴子)</t>
+  </si>
+  <si>
+    <t>50D0D9E46F38359DC0FD066BBA29DDEB</t>
+  </si>
+  <si>
+    <t>53b4e59db10e0ca44ddcca98</t>
+  </si>
+  <si>
+    <t>53b60886b10e0ca44ddccaa1</t>
+  </si>
+  <si>
+    <t>丁子婧</t>
+  </si>
+  <si>
+    <t>BCA2F686F299346DDC1519510B7F7D45</t>
+  </si>
+  <si>
+    <t>53b639d3b10e0ca44ddccaa7</t>
+  </si>
+  <si>
+    <t>53b6a34ab10e0ca44ddccabc</t>
+  </si>
+  <si>
+    <t>53b6c848b10e0ca44ddccabe</t>
+  </si>
+  <si>
+    <t>Flower</t>
+  </si>
+  <si>
+    <t>1BD50F86F58D7824876F94FB0936DB75</t>
+  </si>
+  <si>
+    <t>53b74768b10e0ca44ddccac3</t>
+  </si>
+  <si>
+    <t>53b75a95b10e0ca44ddccac6</t>
+  </si>
+  <si>
+    <t>么么哒狮子王</t>
+  </si>
+  <si>
+    <t>2.009shKvBoJ6_xC282e726a98UMdV8B</t>
+  </si>
+  <si>
+    <t>53b8ddb3b10e0ca44ddccae8</t>
+  </si>
+  <si>
+    <t>杨婷</t>
+  </si>
+  <si>
+    <t>8FCD013FC6351E573C187FE24F933EA8</t>
+  </si>
+  <si>
+    <t>53ba33bab10e0ca44ddccaf5</t>
+  </si>
+  <si>
+    <t>53ba5830be3974b719923d14</t>
+  </si>
+  <si>
+    <t>53baa9ccbe3974b719923d18</t>
+  </si>
+  <si>
+    <t>Charain</t>
+  </si>
+  <si>
+    <t>2.00wSgE2BoJ6_xC8a5907a898xbmcxC</t>
+  </si>
+  <si>
+    <t>53bb8805be3974b719923d1d</t>
+  </si>
+  <si>
+    <t>宛若游_fish</t>
+  </si>
+  <si>
+    <t>91A41A595247769BDA6E3085804EC581</t>
+  </si>
+  <si>
+    <t>53bb95e9be3974b719923d20</t>
+  </si>
+  <si>
+    <t>晨牟</t>
+  </si>
+  <si>
+    <t>EE0CB2B57122D865BC3B67B245343145</t>
+  </si>
+  <si>
+    <t>53bbe49abe3974b719923d2c</t>
+  </si>
+  <si>
+    <t>53bcf035e7d864bb3fc4ae38</t>
   </si>
 </sst>
 </file>
@@ -1935,7 +2031,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H260"/>
+  <dimension ref="A1:H276"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7526,7 +7622,7 @@
         <v>0</v>
       </c>
       <c r="H252" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" x14ac:dyDescent="0.25">
@@ -7703,6 +7799,358 @@
       </c>
       <c r="H260" s="9">
         <v>0</v>
+      </c>
+    </row>
+    <row r="261" x14ac:dyDescent="0.25">
+      <c r="A261" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B261" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="C261" s="9"/>
+      <c r="D261" s="9"/>
+      <c r="E261" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="F261" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G261" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H261" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" x14ac:dyDescent="0.25">
+      <c r="A262" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B262" s="9">
+        <v>13661647520</v>
+      </c>
+      <c r="C262" s="9">
+        <v>13661647520</v>
+      </c>
+      <c r="D262" s="9"/>
+      <c r="E262" s="9"/>
+      <c r="F262" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G262" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H262" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" x14ac:dyDescent="0.25">
+      <c r="A263" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="B263" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="C263" s="9"/>
+      <c r="D263" s="9"/>
+      <c r="E263" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="F263" s="9">
+        <v/>
+      </c>
+      <c r="G263" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H263" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" x14ac:dyDescent="0.25">
+      <c r="A264" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="B264" s="9">
+        <v>15800340891</v>
+      </c>
+      <c r="C264" s="9">
+        <v>15800340891</v>
+      </c>
+      <c r="D264" s="9"/>
+      <c r="E264" s="9"/>
+      <c r="F264" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G264" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H264" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" x14ac:dyDescent="0.25">
+      <c r="A265" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="B265" s="9">
+        <v>13422224254</v>
+      </c>
+      <c r="C265" s="9">
+        <v>13422224254</v>
+      </c>
+      <c r="D265" s="9"/>
+      <c r="E265" s="9"/>
+      <c r="F265" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G265" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H265" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" x14ac:dyDescent="0.25">
+      <c r="A266" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="B266" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C266" s="9"/>
+      <c r="D266" s="9"/>
+      <c r="E266" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="F266" s="9">
+        <v/>
+      </c>
+      <c r="G266" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H266" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" x14ac:dyDescent="0.25">
+      <c r="A267" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B267" s="9">
+        <v>13808040289</v>
+      </c>
+      <c r="C267" s="9">
+        <v>13808040289</v>
+      </c>
+      <c r="D267" s="9"/>
+      <c r="E267" s="9"/>
+      <c r="F267" s="9">
+        <v/>
+      </c>
+      <c r="G267" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H267" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" x14ac:dyDescent="0.25">
+      <c r="A268" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="B268" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="C268" s="9"/>
+      <c r="D268" s="9"/>
+      <c r="E268" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F268" s="9">
+        <v/>
+      </c>
+      <c r="G268" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H268" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" x14ac:dyDescent="0.25">
+      <c r="A269" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="B269" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="C269" s="9"/>
+      <c r="D269" s="9"/>
+      <c r="E269" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="F269" s="9">
+        <v/>
+      </c>
+      <c r="G269" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H269" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" x14ac:dyDescent="0.25">
+      <c r="A270" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="B270" s="9">
+        <v>13524261302</v>
+      </c>
+      <c r="C270" s="9">
+        <v>13524261302</v>
+      </c>
+      <c r="D270" s="9"/>
+      <c r="E270" s="9"/>
+      <c r="F270" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G270" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H270" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" x14ac:dyDescent="0.25">
+      <c r="A271" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="B271" s="9">
+        <v>15389093962</v>
+      </c>
+      <c r="C271" s="9">
+        <v>15389093962</v>
+      </c>
+      <c r="D271" s="9"/>
+      <c r="E271" s="9"/>
+      <c r="F271" s="9">
+        <v/>
+      </c>
+      <c r="G271" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H271" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" x14ac:dyDescent="0.25">
+      <c r="A272" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="B272" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="C272" s="9"/>
+      <c r="D272" s="9"/>
+      <c r="E272" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="F272" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G272" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H272" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" x14ac:dyDescent="0.25">
+      <c r="A273" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B273" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="C273" s="9"/>
+      <c r="D273" s="9"/>
+      <c r="E273" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="F273" s="9">
+        <v/>
+      </c>
+      <c r="G273" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H273" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" x14ac:dyDescent="0.25">
+      <c r="A274" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B274" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="C274" s="9"/>
+      <c r="D274" s="9"/>
+      <c r="E274" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="F274" s="9">
+        <v/>
+      </c>
+      <c r="G274" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H274" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" x14ac:dyDescent="0.25">
+      <c r="A275" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="B275" s="9">
+        <v>18612773477</v>
+      </c>
+      <c r="C275" s="9">
+        <v>18612773477</v>
+      </c>
+      <c r="D275" s="9"/>
+      <c r="E275" s="9"/>
+      <c r="F275" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G275" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H275" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" x14ac:dyDescent="0.25">
+      <c r="A276" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="B276" s="9">
+        <v>18660115955</v>
+      </c>
+      <c r="C276" s="9">
+        <v>18660115955</v>
+      </c>
+      <c r="D276" s="9"/>
+      <c r="E276" s="9"/>
+      <c r="F276" s="9">
+        <v/>
+      </c>
+      <c r="G276" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H276" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
